--- a/user-data/poverty-125/poverty-125.xlsx
+++ b/user-data/poverty-125/poverty-125.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>id</t>
   </si>
@@ -1036,7 +1037,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1442,7 +1446,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14">
@@ -1452,22 +1456,32 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -64404,4 +64418,6760 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>54.31</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>70.22</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>58.59</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13" t="n">
+        <v>47.33</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13" t="n">
+        <v>51.61</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z14"/>
+      <c r="AA14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="M15" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="N15" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="O15" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="R15" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="V15" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="W15"/>
+      <c r="X15" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="Z15"/>
+      <c r="AA15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8.87</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="W18"/>
+      <c r="X18" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z18"/>
+      <c r="AA18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V19"/>
+      <c r="W19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>71.17</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="n">
+        <v>70.03</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20" t="n">
+        <v>44.46</v>
+      </c>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
+        <v>84.24</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="n">
+        <v>86.43</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21" t="n">
+        <v>81.32</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="U23" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="n">
+        <v>83.15</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26" t="n">
+        <v>62.43</v>
+      </c>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" t="n">
+        <v>62.83</v>
+      </c>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" t="n">
+        <v>61.94</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W28"/>
+      <c r="X28" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>60.73</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="n">
+        <v>36</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="V29"/>
+      <c r="W29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="M30" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="N30" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="O30" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="S30" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="X30" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="Z30"/>
+      <c r="AA30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z33"/>
+      <c r="AA33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="T36"/>
+      <c r="U36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z39"/>
+      <c r="AA39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40" t="n">
+        <v>87.72</v>
+      </c>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="L42" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="M42" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="N42" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="P42" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="W42" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z42"/>
+      <c r="AA42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q45"/>
+      <c r="R45" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46" t="n">
+        <v>54.57</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46" t="n">
+        <v>38.96</v>
+      </c>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" t="n">
+        <v>65.61</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49" t="n">
+        <v>33.63</v>
+      </c>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="J50" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="K50" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="L50" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="N50" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="O50" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="P50" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="R50" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="S50" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="T50" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="U50" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="V50" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="W50" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="X50" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="Z50"/>
+      <c r="AA50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51" t="n">
+        <v>39.12</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="P53" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="R53"/>
+      <c r="S53" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="n">
+        <v>93.74</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54" t="n">
+        <v>56.32</v>
+      </c>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="Z54"/>
+      <c r="AA54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57" t="n">
+        <v>61.71</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>46.91</v>
+      </c>
+      <c r="D58" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="E58" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="G58" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="H58" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="I58" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="J58" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="K58" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="O58" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="P58" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="R58" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="S58" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="U58" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="V58" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="W58" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="X58" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59"/>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T59"/>
+      <c r="U59" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V59"/>
+      <c r="W59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="W60"/>
+      <c r="X60" t="n">
+        <v>23.6294637885289</v>
+      </c>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="V61"/>
+      <c r="W61" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="X61" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Z63"/>
+      <c r="AA63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M64"/>
+      <c r="N64" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P64"/>
+      <c r="Q64" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T65"/>
+      <c r="U65" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="V65"/>
+      <c r="W65" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V66"/>
+      <c r="W66" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="n">
+        <v>36.81</v>
+      </c>
+      <c r="N70" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="O70" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="P70" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="R70" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="S70" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="W70" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="X70" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" t="n">
+        <v>41.22</v>
+      </c>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="Z71"/>
+      <c r="AA71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P72"/>
+      <c r="Q72" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R72"/>
+      <c r="S72" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T72"/>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72"/>
+      <c r="W72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" t="n">
+        <v>67.03</v>
+      </c>
+      <c r="G74" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74" t="n">
+        <v>56.22</v>
+      </c>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75" t="n">
+        <v>83.76</v>
+      </c>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T77"/>
+      <c r="U77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V77"/>
+      <c r="W77" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="T78"/>
+      <c r="U78" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>67.07</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79" t="n">
+        <v>72.04</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79" t="n">
+        <v>82.37</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79" t="n">
+        <v>76.34</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79" t="n">
+        <v>82.43</v>
+      </c>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79" t="n">
+        <v>87.67</v>
+      </c>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83" t="n">
+        <v>85.92</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83" t="n">
+        <v>61.18</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Z86"/>
+      <c r="AA86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87" t="n">
+        <v>8.62</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="T87"/>
+      <c r="U87" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="V87"/>
+      <c r="W87" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X87"/>
+      <c r="Y87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z87"/>
+      <c r="AA87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="K89" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="L89" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="O89" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="P89" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="R89" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96" t="n">
+        <v>67.97</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>72.79</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" t="n">
+        <v>78.17</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="S98"/>
+      <c r="T98" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98" t="n">
+        <v>40.81</v>
+      </c>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" t="n">
+        <v>68.65</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99" t="n">
+        <v>61.84</v>
+      </c>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99" t="n">
+        <v>62.03</v>
+      </c>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="n">
+        <v>64.71</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100" t="n">
+        <v>48.14</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100" t="n">
+        <v>35.87</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="R100" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="S100"/>
+      <c r="T100" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U102"/>
+      <c r="V102" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="K103" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="L103" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="M103" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="P103" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="R103" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="S103" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="T103" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U103" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W103" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Z103"/>
+      <c r="AA103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M105"/>
+      <c r="N105" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="O105" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="P105" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="T105" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="U105" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="V105" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="W105" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="X105" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Z105"/>
+      <c r="AA105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K106" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="L106" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M106" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="N106" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="O106" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="P106" t="n">
+        <v>8.95</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="R106" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="S106" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="T106" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="U106" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W106" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Z106"/>
+      <c r="AA106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="Z107"/>
+      <c r="AA107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P108"/>
+      <c r="Q108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109"/>
+      <c r="AA109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111" t="n">
+        <v>71.97</v>
+      </c>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117" t="n">
+        <v>65.71</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120" t="n">
+        <v>59.44</v>
+      </c>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120" t="n">
+        <v>56.63</v>
+      </c>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121"/>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+      <c r="AA123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="W125"/>
+      <c r="X125" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="W127"/>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130" t="n">
+        <v>78.59</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="U132"/>
+      <c r="V132" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133" t="n">
+        <v>84.23</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133" t="n">
+        <v>67.87</v>
+      </c>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="Z133"/>
+      <c r="AA133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T134"/>
+      <c r="U134" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="V134"/>
+      <c r="W134" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136" t="n">
+        <v>52.46</v>
+      </c>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P140" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141" t="n">
+        <v>63.53</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143" t="n">
+        <v>63.01</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143" t="n">
+        <v>59.43</v>
+      </c>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143" t="n">
+        <v>56.57</v>
+      </c>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143" t="n">
+        <v>37.91</v>
+      </c>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="Z143"/>
+      <c r="AA143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="L145"/>
+      <c r="M145" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z145"/>
+      <c r="AA145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="L148" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="M148"/>
+      <c r="N148" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="O148" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="P148" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="R148" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="S148" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>49.36</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="P149"/>
+      <c r="Q149" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="R149"/>
+      <c r="S149" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="T149"/>
+      <c r="U149" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="V149"/>
+      <c r="W149" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="X149"/>
+      <c r="Y149" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z149"/>
+      <c r="AA149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150" t="n">
+        <v>9.78</v>
+      </c>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="n">
+        <v>65.27</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151" t="n">
+        <v>64.6</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>64.29</v>
+      </c>
+      <c r="R151"/>
+      <c r="S151" t="n">
+        <v>68.51</v>
+      </c>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151" t="n">
+        <v>74.32</v>
+      </c>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/poverty-125/poverty-125.xlsx
+++ b/user-data/poverty-125/poverty-125.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>id</t>
   </si>
@@ -1046,7 +1046,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1484,6 +1487,11 @@
         <v>345</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/poverty-125/poverty-125.xlsx
+++ b/user-data/poverty-125/poverty-125.xlsx
@@ -1954,7 +1954,7 @@
         <v>1997</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288333333333333</v>
+        <v>0.2883333333</v>
       </c>
       <c r="E34"/>
     </row>
@@ -1969,7 +1969,7 @@
         <v>1998</v>
       </c>
       <c r="D35" t="n">
-        <v>0.376666666666667</v>
+        <v>0.3766666667</v>
       </c>
       <c r="E35"/>
     </row>
@@ -1999,7 +1999,7 @@
         <v>2000</v>
       </c>
       <c r="D37" t="n">
-        <v>0.553333333333333</v>
+        <v>0.5533333333</v>
       </c>
       <c r="E37"/>
     </row>
@@ -2014,7 +2014,7 @@
         <v>2001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.641666666666667</v>
+        <v>0.6416666667</v>
       </c>
       <c r="E38"/>
     </row>
@@ -4269,7 +4269,7 @@
         <v>2006</v>
       </c>
       <c r="D193" t="n">
-        <v>0.103333333333333</v>
+        <v>0.1033333333</v>
       </c>
       <c r="E193"/>
     </row>
@@ -4284,7 +4284,7 @@
         <v>2007</v>
       </c>
       <c r="D194" t="n">
-        <v>0.206666666666667</v>
+        <v>0.2066666667</v>
       </c>
       <c r="E194"/>
     </row>
@@ -7030,7 +7030,7 @@
         <v>1995</v>
       </c>
       <c r="D382" t="n">
-        <v>30.4666666666667</v>
+        <v>30.4666666667</v>
       </c>
       <c r="E382"/>
     </row>
@@ -7045,7 +7045,7 @@
         <v>1996</v>
       </c>
       <c r="D383" t="n">
-        <v>29.7033333333333</v>
+        <v>29.7033333333</v>
       </c>
       <c r="E383"/>
     </row>
@@ -7075,7 +7075,7 @@
         <v>1998</v>
       </c>
       <c r="D385" t="n">
-        <v>28.1766666666667</v>
+        <v>28.1766666667</v>
       </c>
       <c r="E385"/>
     </row>
@@ -7090,7 +7090,7 @@
         <v>1999</v>
       </c>
       <c r="D386" t="n">
-        <v>27.4133333333333</v>
+        <v>27.4133333333</v>
       </c>
       <c r="E386"/>
     </row>
@@ -7120,7 +7120,7 @@
         <v>2001</v>
       </c>
       <c r="D388" t="n">
-        <v>25.8866666666667</v>
+        <v>25.8866666667</v>
       </c>
       <c r="E388"/>
     </row>
@@ -7135,7 +7135,7 @@
         <v>2002</v>
       </c>
       <c r="D389" t="n">
-        <v>25.1233333333333</v>
+        <v>25.1233333333</v>
       </c>
       <c r="E389"/>
     </row>
@@ -9041,7 +9041,7 @@
         <v>2003</v>
       </c>
       <c r="D515" t="n">
-        <v>30.5566666666667</v>
+        <v>30.5566666667</v>
       </c>
       <c r="E515"/>
     </row>
@@ -9056,7 +9056,7 @@
         <v>2004</v>
       </c>
       <c r="D516" t="n">
-        <v>31.4533333333333</v>
+        <v>31.4533333333</v>
       </c>
       <c r="E516"/>
     </row>
@@ -9086,7 +9086,7 @@
         <v>2006</v>
       </c>
       <c r="D518" t="n">
-        <v>33.2466666666667</v>
+        <v>33.2466666667</v>
       </c>
       <c r="E518"/>
     </row>
@@ -9101,7 +9101,7 @@
         <v>2007</v>
       </c>
       <c r="D519" t="n">
-        <v>34.1433333333333</v>
+        <v>34.1433333333</v>
       </c>
       <c r="E519"/>
     </row>
@@ -9758,7 +9758,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>25.3183333333333</v>
+        <v>25.3183333333</v>
       </c>
       <c r="E564"/>
     </row>
@@ -9773,7 +9773,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>25.7766666666667</v>
+        <v>25.7766666667</v>
       </c>
       <c r="E565"/>
     </row>
@@ -9803,7 +9803,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>26.6933333333333</v>
+        <v>26.6933333333</v>
       </c>
       <c r="E567"/>
     </row>
@@ -9818,7 +9818,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>27.1516666666667</v>
+        <v>27.1516666667</v>
       </c>
       <c r="E568"/>
     </row>
@@ -10325,7 +10325,7 @@
         <v>1993</v>
       </c>
       <c r="D605" t="n">
-        <v>81.2663636363636</v>
+        <v>81.2663636364</v>
       </c>
       <c r="E605"/>
     </row>
@@ -10340,7 +10340,7 @@
         <v>1994</v>
       </c>
       <c r="D606" t="n">
-        <v>79.3827272727273</v>
+        <v>79.3827272727</v>
       </c>
       <c r="E606"/>
     </row>
@@ -10355,7 +10355,7 @@
         <v>1995</v>
       </c>
       <c r="D607" t="n">
-        <v>77.4990909090909</v>
+        <v>77.4990909091</v>
       </c>
       <c r="E607"/>
     </row>
@@ -10370,7 +10370,7 @@
         <v>1996</v>
       </c>
       <c r="D608" t="n">
-        <v>75.6154545454546</v>
+        <v>75.6154545455</v>
       </c>
       <c r="E608"/>
     </row>
@@ -10385,7 +10385,7 @@
         <v>1997</v>
       </c>
       <c r="D609" t="n">
-        <v>73.7318181818182</v>
+        <v>73.7318181818</v>
       </c>
       <c r="E609"/>
     </row>
@@ -10400,7 +10400,7 @@
         <v>1998</v>
       </c>
       <c r="D610" t="n">
-        <v>71.8481818181818</v>
+        <v>71.8481818182</v>
       </c>
       <c r="E610"/>
     </row>
@@ -10415,7 +10415,7 @@
         <v>1999</v>
       </c>
       <c r="D611" t="n">
-        <v>69.9645454545455</v>
+        <v>69.9645454545</v>
       </c>
       <c r="E611"/>
     </row>
@@ -10430,7 +10430,7 @@
         <v>2000</v>
       </c>
       <c r="D612" t="n">
-        <v>68.0809090909091</v>
+        <v>68.0809090909</v>
       </c>
       <c r="E612"/>
     </row>
@@ -10445,7 +10445,7 @@
         <v>2001</v>
       </c>
       <c r="D613" t="n">
-        <v>66.1972727272727</v>
+        <v>66.1972727273</v>
       </c>
       <c r="E613"/>
     </row>
@@ -10460,7 +10460,7 @@
         <v>2002</v>
       </c>
       <c r="D614" t="n">
-        <v>64.3136363636364</v>
+        <v>64.3136363636</v>
       </c>
       <c r="E614"/>
     </row>
@@ -10820,7 +10820,7 @@
         <v>2003</v>
       </c>
       <c r="D640" t="n">
-        <v>59.1155555555556</v>
+        <v>59.1155555556</v>
       </c>
       <c r="E640"/>
     </row>
@@ -10835,7 +10835,7 @@
         <v>2004</v>
       </c>
       <c r="D641" t="n">
-        <v>56.2911111111111</v>
+        <v>56.2911111111</v>
       </c>
       <c r="E641"/>
     </row>
@@ -10850,7 +10850,7 @@
         <v>2005</v>
       </c>
       <c r="D642" t="n">
-        <v>53.4666666666667</v>
+        <v>53.4666666667</v>
       </c>
       <c r="E642"/>
     </row>
@@ -10865,7 +10865,7 @@
         <v>2006</v>
       </c>
       <c r="D643" t="n">
-        <v>50.6422222222222</v>
+        <v>50.6422222222</v>
       </c>
       <c r="E643"/>
     </row>
@@ -10880,7 +10880,7 @@
         <v>2007</v>
       </c>
       <c r="D644" t="n">
-        <v>47.8177777777778</v>
+        <v>47.8177777778</v>
       </c>
       <c r="E644"/>
     </row>
@@ -10895,7 +10895,7 @@
         <v>2008</v>
       </c>
       <c r="D645" t="n">
-        <v>44.9933333333333</v>
+        <v>44.9933333333</v>
       </c>
       <c r="E645"/>
     </row>
@@ -10910,7 +10910,7 @@
         <v>2009</v>
       </c>
       <c r="D646" t="n">
-        <v>42.1688888888889</v>
+        <v>42.1688888889</v>
       </c>
       <c r="E646"/>
     </row>
@@ -10925,7 +10925,7 @@
         <v>2010</v>
       </c>
       <c r="D647" t="n">
-        <v>39.3444444444444</v>
+        <v>39.3444444444</v>
       </c>
       <c r="E647"/>
     </row>
@@ -11173,7 +11173,7 @@
         <v>2001</v>
       </c>
       <c r="D663" t="n">
-        <v>2.01666666666667</v>
+        <v>2.0166666667</v>
       </c>
       <c r="E663"/>
     </row>
@@ -11188,7 +11188,7 @@
         <v>2002</v>
       </c>
       <c r="D664" t="n">
-        <v>1.87333333333333</v>
+        <v>1.8733333333</v>
       </c>
       <c r="E664"/>
     </row>
@@ -11496,7 +11496,7 @@
         <v>1997</v>
       </c>
       <c r="D684" t="n">
-        <v>36.9266666666667</v>
+        <v>36.9266666667</v>
       </c>
       <c r="E684"/>
     </row>
@@ -11511,7 +11511,7 @@
         <v>1998</v>
       </c>
       <c r="D685" t="n">
-        <v>36.4633333333333</v>
+        <v>36.4633333333</v>
       </c>
       <c r="E685"/>
     </row>
@@ -11543,7 +11543,7 @@
         <v>2000</v>
       </c>
       <c r="D687" t="n">
-        <v>33.3533333333333</v>
+        <v>33.3533333333</v>
       </c>
       <c r="E687"/>
     </row>
@@ -11558,7 +11558,7 @@
         <v>2001</v>
       </c>
       <c r="D688" t="n">
-        <v>30.7066666666667</v>
+        <v>30.7066666667</v>
       </c>
       <c r="E688"/>
     </row>
@@ -11590,7 +11590,7 @@
         <v>2003</v>
       </c>
       <c r="D690" t="n">
-        <v>23.9633333333333</v>
+        <v>23.9633333333</v>
       </c>
       <c r="E690"/>
     </row>
@@ -11605,7 +11605,7 @@
         <v>2004</v>
       </c>
       <c r="D691" t="n">
-        <v>19.8666666666667</v>
+        <v>19.8666666667</v>
       </c>
       <c r="E691"/>
     </row>
@@ -11637,7 +11637,7 @@
         <v>2006</v>
       </c>
       <c r="D693" t="n">
-        <v>14.6266666666667</v>
+        <v>14.6266666667</v>
       </c>
       <c r="E693"/>
     </row>
@@ -11652,7 +11652,7 @@
         <v>2007</v>
       </c>
       <c r="D694" t="n">
-        <v>13.4833333333333</v>
+        <v>13.4833333333</v>
       </c>
       <c r="E694"/>
     </row>
@@ -12716,7 +12716,7 @@
         <v>2006</v>
       </c>
       <c r="D768" t="n">
-        <v>50.5533333333333</v>
+        <v>50.5533333333</v>
       </c>
       <c r="E768"/>
     </row>
@@ -12731,7 +12731,7 @@
         <v>2007</v>
       </c>
       <c r="D769" t="n">
-        <v>47.0066666666667</v>
+        <v>47.0066666667</v>
       </c>
       <c r="E769"/>
     </row>
@@ -12761,7 +12761,7 @@
         <v>2009</v>
       </c>
       <c r="D771" t="n">
-        <v>39.9133333333333</v>
+        <v>39.9133333333</v>
       </c>
       <c r="E771"/>
     </row>
@@ -12776,7 +12776,7 @@
         <v>2010</v>
       </c>
       <c r="D772" t="n">
-        <v>36.3666666666667</v>
+        <v>36.3666666667</v>
       </c>
       <c r="E772"/>
     </row>
@@ -14004,7 +14004,7 @@
         <v>1994</v>
       </c>
       <c r="D856" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="E856"/>
     </row>
@@ -14019,7 +14019,7 @@
         <v>1995</v>
       </c>
       <c r="D857" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="E857"/>
     </row>
@@ -14051,7 +14051,7 @@
         <v>1997</v>
       </c>
       <c r="D859" t="n">
-        <v>0.115555555555556</v>
+        <v>0.1155555556</v>
       </c>
       <c r="E859"/>
     </row>
@@ -14066,7 +14066,7 @@
         <v>1998</v>
       </c>
       <c r="D860" t="n">
-        <v>0.101111111111111</v>
+        <v>0.1011111111</v>
       </c>
       <c r="E860"/>
     </row>
@@ -14081,7 +14081,7 @@
         <v>1999</v>
       </c>
       <c r="D861" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="E861"/>
     </row>
@@ -14096,7 +14096,7 @@
         <v>2000</v>
       </c>
       <c r="D862" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.0722222222</v>
       </c>
       <c r="E862"/>
     </row>
@@ -14111,7 +14111,7 @@
         <v>2001</v>
       </c>
       <c r="D863" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0577777778</v>
       </c>
       <c r="E863"/>
     </row>
@@ -14126,7 +14126,7 @@
         <v>2002</v>
       </c>
       <c r="D864" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="E864"/>
     </row>
@@ -14141,7 +14141,7 @@
         <v>2003</v>
       </c>
       <c r="D865" t="n">
-        <v>0.0288888888888889</v>
+        <v>0.0288888889</v>
       </c>
       <c r="E865"/>
     </row>
@@ -14156,7 +14156,7 @@
         <v>2004</v>
       </c>
       <c r="D866" t="n">
-        <v>0.0144444444444445</v>
+        <v>0.0144444444</v>
       </c>
       <c r="E866"/>
     </row>
@@ -15103,7 +15103,7 @@
         <v>1998</v>
       </c>
       <c r="D935" t="n">
-        <v>5.04666666666667</v>
+        <v>5.0466666667</v>
       </c>
       <c r="E935"/>
     </row>
@@ -15118,7 +15118,7 @@
         <v>1999</v>
       </c>
       <c r="D936" t="n">
-        <v>5.14333333333333</v>
+        <v>5.1433333333</v>
       </c>
       <c r="E936"/>
     </row>
@@ -15726,7 +15726,7 @@
         <v>1991</v>
       </c>
       <c r="D978" t="n">
-        <v>4.12666666666667</v>
+        <v>4.1266666667</v>
       </c>
       <c r="E978"/>
     </row>
@@ -15741,7 +15741,7 @@
         <v>1992</v>
       </c>
       <c r="D979" t="n">
-        <v>3.79333333333333</v>
+        <v>3.7933333333</v>
       </c>
       <c r="E979"/>
     </row>
@@ -15771,7 +15771,7 @@
         <v>1994</v>
       </c>
       <c r="D981" t="n">
-        <v>3.12666666666667</v>
+        <v>3.1266666667</v>
       </c>
       <c r="E981"/>
     </row>
@@ -15786,7 +15786,7 @@
         <v>1995</v>
       </c>
       <c r="D982" t="n">
-        <v>2.79333333333333</v>
+        <v>2.7933333333</v>
       </c>
       <c r="E982"/>
     </row>
@@ -17225,7 +17225,7 @@
         <v>1996</v>
       </c>
       <c r="D1083" t="n">
-        <v>0.183333333333333</v>
+        <v>0.1833333333</v>
       </c>
       <c r="E1083"/>
     </row>
@@ -17240,7 +17240,7 @@
         <v>1997</v>
       </c>
       <c r="D1084" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1166666667</v>
       </c>
       <c r="E1084"/>
     </row>
@@ -17672,7 +17672,7 @@
         <v>2000</v>
       </c>
       <c r="D1112" t="n">
-        <v>51.9683333333333</v>
+        <v>51.9683333333</v>
       </c>
       <c r="E1112"/>
     </row>
@@ -17687,7 +17687,7 @@
         <v>2001</v>
       </c>
       <c r="D1113" t="n">
-        <v>49.3666666666667</v>
+        <v>49.3666666667</v>
       </c>
       <c r="E1113"/>
     </row>
@@ -17717,7 +17717,7 @@
         <v>2003</v>
       </c>
       <c r="D1115" t="n">
-        <v>44.1633333333333</v>
+        <v>44.1633333333</v>
       </c>
       <c r="E1115"/>
     </row>
@@ -17732,7 +17732,7 @@
         <v>2004</v>
       </c>
       <c r="D1116" t="n">
-        <v>41.5616666666667</v>
+        <v>41.5616666667</v>
       </c>
       <c r="E1116"/>
     </row>
@@ -19329,7 +19329,7 @@
         <v>1992</v>
       </c>
       <c r="D1229" t="n">
-        <v>49.3628571428571</v>
+        <v>49.3628571429</v>
       </c>
       <c r="E1229"/>
     </row>
@@ -19344,7 +19344,7 @@
         <v>1993</v>
       </c>
       <c r="D1230" t="n">
-        <v>47.6557142857143</v>
+        <v>47.6557142857</v>
       </c>
       <c r="E1230"/>
     </row>
@@ -19359,7 +19359,7 @@
         <v>1994</v>
       </c>
       <c r="D1231" t="n">
-        <v>45.9485714285714</v>
+        <v>45.9485714286</v>
       </c>
       <c r="E1231"/>
     </row>
@@ -19374,7 +19374,7 @@
         <v>1995</v>
       </c>
       <c r="D1232" t="n">
-        <v>44.2414285714286</v>
+        <v>44.2414285714</v>
       </c>
       <c r="E1232"/>
     </row>
@@ -19389,7 +19389,7 @@
         <v>1996</v>
       </c>
       <c r="D1233" t="n">
-        <v>42.5342857142857</v>
+        <v>42.5342857143</v>
       </c>
       <c r="E1233"/>
     </row>
@@ -19404,7 +19404,7 @@
         <v>1997</v>
       </c>
       <c r="D1234" t="n">
-        <v>40.8271428571429</v>
+        <v>40.8271428571</v>
       </c>
       <c r="E1234"/>
     </row>
@@ -19436,7 +19436,7 @@
         <v>1999</v>
       </c>
       <c r="D1236" t="n">
-        <v>37.6157142857143</v>
+        <v>37.6157142857</v>
       </c>
       <c r="E1236"/>
     </row>
@@ -19451,7 +19451,7 @@
         <v>2000</v>
       </c>
       <c r="D1237" t="n">
-        <v>36.1114285714286</v>
+        <v>36.1114285714</v>
       </c>
       <c r="E1237"/>
     </row>
@@ -19466,7 +19466,7 @@
         <v>2001</v>
       </c>
       <c r="D1238" t="n">
-        <v>34.6071428571429</v>
+        <v>34.6071428571</v>
       </c>
       <c r="E1238"/>
     </row>
@@ -19481,7 +19481,7 @@
         <v>2002</v>
       </c>
       <c r="D1239" t="n">
-        <v>33.1028571428571</v>
+        <v>33.1028571429</v>
       </c>
       <c r="E1239"/>
     </row>
@@ -19496,7 +19496,7 @@
         <v>2003</v>
       </c>
       <c r="D1240" t="n">
-        <v>31.5985714285714</v>
+        <v>31.5985714286</v>
       </c>
       <c r="E1240"/>
     </row>
@@ -19511,7 +19511,7 @@
         <v>2004</v>
       </c>
       <c r="D1241" t="n">
-        <v>30.0942857142857</v>
+        <v>30.0942857143</v>
       </c>
       <c r="E1241"/>
     </row>
@@ -20382,7 +20382,7 @@
         <v>1992</v>
       </c>
       <c r="D1304" t="n">
-        <v>83.7633333333333</v>
+        <v>83.7633333333</v>
       </c>
       <c r="E1304"/>
     </row>
@@ -20397,7 +20397,7 @@
         <v>1993</v>
       </c>
       <c r="D1305" t="n">
-        <v>73.7866666666667</v>
+        <v>73.7866666667</v>
       </c>
       <c r="E1305"/>
     </row>
@@ -20429,7 +20429,7 @@
         <v>1995</v>
       </c>
       <c r="D1307" t="n">
-        <v>62.9777777777778</v>
+        <v>62.9777777778</v>
       </c>
       <c r="E1307"/>
     </row>
@@ -20444,7 +20444,7 @@
         <v>1996</v>
       </c>
       <c r="D1308" t="n">
-        <v>62.1455555555556</v>
+        <v>62.1455555556</v>
       </c>
       <c r="E1308"/>
     </row>
@@ -20459,7 +20459,7 @@
         <v>1997</v>
       </c>
       <c r="D1309" t="n">
-        <v>61.3133333333333</v>
+        <v>61.3133333333</v>
       </c>
       <c r="E1309"/>
     </row>
@@ -20474,7 +20474,7 @@
         <v>1998</v>
       </c>
       <c r="D1310" t="n">
-        <v>60.4811111111111</v>
+        <v>60.4811111111</v>
       </c>
       <c r="E1310"/>
     </row>
@@ -20489,7 +20489,7 @@
         <v>1999</v>
       </c>
       <c r="D1311" t="n">
-        <v>59.6488888888889</v>
+        <v>59.6488888889</v>
       </c>
       <c r="E1311"/>
     </row>
@@ -20504,7 +20504,7 @@
         <v>2000</v>
       </c>
       <c r="D1312" t="n">
-        <v>58.8166666666667</v>
+        <v>58.8166666667</v>
       </c>
       <c r="E1312"/>
     </row>
@@ -20519,7 +20519,7 @@
         <v>2001</v>
       </c>
       <c r="D1313" t="n">
-        <v>57.9844444444444</v>
+        <v>57.9844444444</v>
       </c>
       <c r="E1313"/>
     </row>
@@ -20534,7 +20534,7 @@
         <v>2002</v>
       </c>
       <c r="D1314" t="n">
-        <v>57.1522222222222</v>
+        <v>57.1522222222</v>
       </c>
       <c r="E1314"/>
     </row>
@@ -20793,7 +20793,7 @@
         <v>1994</v>
       </c>
       <c r="D1331" t="n">
-        <v>63.5044444444444</v>
+        <v>63.5044444444</v>
       </c>
       <c r="E1331"/>
     </row>
@@ -20808,7 +20808,7 @@
         <v>1995</v>
       </c>
       <c r="D1332" t="n">
-        <v>61.6788888888889</v>
+        <v>61.6788888889</v>
       </c>
       <c r="E1332"/>
     </row>
@@ -20823,7 +20823,7 @@
         <v>1996</v>
       </c>
       <c r="D1333" t="n">
-        <v>59.8533333333333</v>
+        <v>59.8533333333</v>
       </c>
       <c r="E1333"/>
     </row>
@@ -20838,7 +20838,7 @@
         <v>1997</v>
       </c>
       <c r="D1334" t="n">
-        <v>58.0277777777778</v>
+        <v>58.0277777778</v>
       </c>
       <c r="E1334"/>
     </row>
@@ -20853,7 +20853,7 @@
         <v>1998</v>
       </c>
       <c r="D1335" t="n">
-        <v>56.2022222222222</v>
+        <v>56.2022222222</v>
       </c>
       <c r="E1335"/>
     </row>
@@ -20868,7 +20868,7 @@
         <v>1999</v>
       </c>
       <c r="D1336" t="n">
-        <v>54.3766666666667</v>
+        <v>54.3766666667</v>
       </c>
       <c r="E1336"/>
     </row>
@@ -20883,7 +20883,7 @@
         <v>2000</v>
       </c>
       <c r="D1337" t="n">
-        <v>52.5511111111111</v>
+        <v>52.5511111111</v>
       </c>
       <c r="E1337"/>
     </row>
@@ -20898,7 +20898,7 @@
         <v>2001</v>
       </c>
       <c r="D1338" t="n">
-        <v>50.7255555555556</v>
+        <v>50.7255555556</v>
       </c>
       <c r="E1338"/>
     </row>
@@ -21129,7 +21129,7 @@
         <v>1993</v>
       </c>
       <c r="D1355" t="n">
-        <v>7.20833333333333</v>
+        <v>7.2083333333</v>
       </c>
       <c r="E1355"/>
     </row>
@@ -21144,7 +21144,7 @@
         <v>1994</v>
       </c>
       <c r="D1356" t="n">
-        <v>7.50666666666667</v>
+        <v>7.5066666667</v>
       </c>
       <c r="E1356"/>
     </row>
@@ -21174,7 +21174,7 @@
         <v>1996</v>
       </c>
       <c r="D1358" t="n">
-        <v>8.10333333333333</v>
+        <v>8.1033333333</v>
       </c>
       <c r="E1358"/>
     </row>
@@ -21189,7 +21189,7 @@
         <v>1997</v>
       </c>
       <c r="D1359" t="n">
-        <v>8.40166666666667</v>
+        <v>8.4016666667</v>
       </c>
       <c r="E1359"/>
     </row>
@@ -22612,7 +22612,7 @@
         <v>1994</v>
       </c>
       <c r="D1456" t="n">
-        <v>48.6945454545455</v>
+        <v>48.6945454545</v>
       </c>
       <c r="E1456"/>
     </row>
@@ -22627,7 +22627,7 @@
         <v>1995</v>
       </c>
       <c r="D1457" t="n">
-        <v>47.9890909090909</v>
+        <v>47.9890909091</v>
       </c>
       <c r="E1457"/>
     </row>
@@ -22642,7 +22642,7 @@
         <v>1996</v>
       </c>
       <c r="D1458" t="n">
-        <v>47.2836363636364</v>
+        <v>47.2836363636</v>
       </c>
       <c r="E1458"/>
     </row>
@@ -22657,7 +22657,7 @@
         <v>1997</v>
       </c>
       <c r="D1459" t="n">
-        <v>46.5781818181818</v>
+        <v>46.5781818182</v>
       </c>
       <c r="E1459"/>
     </row>
@@ -22672,7 +22672,7 @@
         <v>1998</v>
       </c>
       <c r="D1460" t="n">
-        <v>45.8727272727273</v>
+        <v>45.8727272727</v>
       </c>
       <c r="E1460"/>
     </row>
@@ -22687,7 +22687,7 @@
         <v>1999</v>
       </c>
       <c r="D1461" t="n">
-        <v>45.1672727272727</v>
+        <v>45.1672727273</v>
       </c>
       <c r="E1461"/>
     </row>
@@ -22702,7 +22702,7 @@
         <v>2000</v>
       </c>
       <c r="D1462" t="n">
-        <v>44.4618181818182</v>
+        <v>44.4618181818</v>
       </c>
       <c r="E1462"/>
     </row>
@@ -22717,7 +22717,7 @@
         <v>2001</v>
       </c>
       <c r="D1463" t="n">
-        <v>43.7563636363636</v>
+        <v>43.7563636364</v>
       </c>
       <c r="E1463"/>
     </row>
@@ -22732,7 +22732,7 @@
         <v>2002</v>
       </c>
       <c r="D1464" t="n">
-        <v>43.0509090909091</v>
+        <v>43.0509090909</v>
       </c>
       <c r="E1464"/>
     </row>
@@ -22747,7 +22747,7 @@
         <v>2003</v>
       </c>
       <c r="D1465" t="n">
-        <v>42.3454545454545</v>
+        <v>42.3454545455</v>
       </c>
       <c r="E1465"/>
     </row>
@@ -22856,7 +22856,7 @@
         <v>2010</v>
       </c>
       <c r="D1472" t="n">
-        <v>28.1547318942645</v>
+        <v>28.1547318943</v>
       </c>
       <c r="E1472"/>
     </row>
@@ -22871,10 +22871,10 @@
         <v>2011</v>
       </c>
       <c r="D1473" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
       <c r="E1473" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
     </row>
     <row r="1474">
@@ -22944,7 +22944,7 @@
         <v>1991</v>
       </c>
       <c r="D1478" t="n">
-        <v>54.3133333333333</v>
+        <v>54.3133333333</v>
       </c>
       <c r="E1478"/>
     </row>
@@ -22959,7 +22959,7 @@
         <v>1992</v>
       </c>
       <c r="D1479" t="n">
-        <v>54.3566666666667</v>
+        <v>54.3566666667</v>
       </c>
       <c r="E1479"/>
     </row>
@@ -22991,7 +22991,7 @@
         <v>1994</v>
       </c>
       <c r="D1481" t="n">
-        <v>50.7266666666667</v>
+        <v>50.7266666667</v>
       </c>
       <c r="E1481"/>
     </row>
@@ -23006,7 +23006,7 @@
         <v>1995</v>
       </c>
       <c r="D1482" t="n">
-        <v>47.0533333333333</v>
+        <v>47.0533333333</v>
       </c>
       <c r="E1482"/>
     </row>
@@ -23085,7 +23085,7 @@
         <v>2000</v>
       </c>
       <c r="D1487" t="n">
-        <v>41.5966666666667</v>
+        <v>41.5966666667</v>
       </c>
       <c r="E1487"/>
     </row>
@@ -23100,7 +23100,7 @@
         <v>2001</v>
       </c>
       <c r="D1488" t="n">
-        <v>35.4933333333333</v>
+        <v>35.4933333333</v>
       </c>
       <c r="E1488"/>
     </row>
@@ -23132,7 +23132,7 @@
         <v>2003</v>
       </c>
       <c r="D1490" t="n">
-        <v>26.7766666666667</v>
+        <v>26.7766666667</v>
       </c>
       <c r="E1490"/>
     </row>
@@ -23147,7 +23147,7 @@
         <v>2004</v>
       </c>
       <c r="D1491" t="n">
-        <v>24.1633333333333</v>
+        <v>24.1633333333</v>
       </c>
       <c r="E1491"/>
     </row>
@@ -23179,7 +23179,7 @@
         <v>2006</v>
       </c>
       <c r="D1493" t="n">
-        <v>21.9366666666667</v>
+        <v>21.9366666667</v>
       </c>
       <c r="E1493"/>
     </row>
@@ -23194,7 +23194,7 @@
         <v>2007</v>
       </c>
       <c r="D1494" t="n">
-        <v>22.3233333333333</v>
+        <v>22.3233333333</v>
       </c>
       <c r="E1494"/>
     </row>
@@ -23455,7 +23455,7 @@
         <v>1999</v>
       </c>
       <c r="D1511" t="n">
-        <v>1.28714285714286</v>
+        <v>1.2871428571</v>
       </c>
       <c r="E1511"/>
     </row>
@@ -23470,7 +23470,7 @@
         <v>2000</v>
       </c>
       <c r="D1512" t="n">
-        <v>1.31428571428571</v>
+        <v>1.3142857143</v>
       </c>
       <c r="E1512"/>
     </row>
@@ -23485,7 +23485,7 @@
         <v>2001</v>
       </c>
       <c r="D1513" t="n">
-        <v>1.34142857142857</v>
+        <v>1.3414285714</v>
       </c>
       <c r="E1513"/>
     </row>
@@ -23500,7 +23500,7 @@
         <v>2002</v>
       </c>
       <c r="D1514" t="n">
-        <v>1.36857142857143</v>
+        <v>1.3685714286</v>
       </c>
       <c r="E1514"/>
     </row>
@@ -23515,7 +23515,7 @@
         <v>2003</v>
       </c>
       <c r="D1515" t="n">
-        <v>1.39571428571429</v>
+        <v>1.3957142857</v>
       </c>
       <c r="E1515"/>
     </row>
@@ -23530,7 +23530,7 @@
         <v>2004</v>
       </c>
       <c r="D1516" t="n">
-        <v>1.42285714285714</v>
+        <v>1.4228571429</v>
       </c>
       <c r="E1516"/>
     </row>
@@ -24084,7 +24084,7 @@
         <v>1994</v>
       </c>
       <c r="D1556" t="n">
-        <v>3.13333333333333</v>
+        <v>3.1333333333</v>
       </c>
       <c r="E1556"/>
     </row>
@@ -24099,7 +24099,7 @@
         <v>1995</v>
       </c>
       <c r="D1557" t="n">
-        <v>2.44666666666667</v>
+        <v>2.4466666667</v>
       </c>
       <c r="E1557"/>
     </row>
@@ -24131,7 +24131,7 @@
         <v>1997</v>
       </c>
       <c r="D1559" t="n">
-        <v>1.61666666666667</v>
+        <v>1.6166666667</v>
       </c>
       <c r="E1559"/>
     </row>
@@ -24146,7 +24146,7 @@
         <v>1998</v>
       </c>
       <c r="D1560" t="n">
-        <v>1.47333333333333</v>
+        <v>1.4733333333</v>
       </c>
       <c r="E1560"/>
     </row>
@@ -24820,7 +24820,7 @@
         <v>1994</v>
       </c>
       <c r="D1606" t="n">
-        <v>4.46666666666667</v>
+        <v>4.4666666667</v>
       </c>
       <c r="E1606"/>
     </row>
@@ -24835,7 +24835,7 @@
         <v>1995</v>
       </c>
       <c r="D1607" t="n">
-        <v>4.72333333333333</v>
+        <v>4.7233333333</v>
       </c>
       <c r="E1607"/>
     </row>
@@ -28715,7 +28715,7 @@
         <v>1994</v>
       </c>
       <c r="D1881" t="n">
-        <v>1.43333333333333</v>
+        <v>1.4333333333</v>
       </c>
       <c r="E1881"/>
     </row>
@@ -28730,7 +28730,7 @@
         <v>1995</v>
       </c>
       <c r="D1882" t="n">
-        <v>0.716666666666667</v>
+        <v>0.7166666667</v>
       </c>
       <c r="E1882"/>
     </row>
@@ -29892,7 +29892,7 @@
         <v>1998</v>
       </c>
       <c r="D1960" t="n">
-        <v>82.0385714285714</v>
+        <v>82.0385714286</v>
       </c>
       <c r="E1960"/>
     </row>
@@ -29907,7 +29907,7 @@
         <v>1999</v>
       </c>
       <c r="D1961" t="n">
-        <v>80.8571428571429</v>
+        <v>80.8571428571</v>
       </c>
       <c r="E1961"/>
     </row>
@@ -29922,7 +29922,7 @@
         <v>2000</v>
       </c>
       <c r="D1962" t="n">
-        <v>79.6757142857143</v>
+        <v>79.6757142857</v>
       </c>
       <c r="E1962"/>
     </row>
@@ -29937,7 +29937,7 @@
         <v>2001</v>
       </c>
       <c r="D1963" t="n">
-        <v>78.4942857142857</v>
+        <v>78.4942857143</v>
       </c>
       <c r="E1963"/>
     </row>
@@ -29952,7 +29952,7 @@
         <v>2002</v>
       </c>
       <c r="D1964" t="n">
-        <v>77.3128571428571</v>
+        <v>77.3128571429</v>
       </c>
       <c r="E1964"/>
     </row>
@@ -29967,7 +29967,7 @@
         <v>2003</v>
       </c>
       <c r="D1965" t="n">
-        <v>76.1314285714286</v>
+        <v>76.1314285714</v>
       </c>
       <c r="E1965"/>
     </row>
@@ -30186,7 +30186,7 @@
         <v>1993</v>
       </c>
       <c r="D1980" t="n">
-        <v>1.78333333333333</v>
+        <v>1.7833333333</v>
       </c>
       <c r="E1980"/>
     </row>
@@ -30201,7 +30201,7 @@
         <v>1994</v>
       </c>
       <c r="D1981" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="E1981"/>
     </row>
@@ -30637,7 +30637,7 @@
         <v>1999</v>
       </c>
       <c r="D2011" t="n">
-        <v>21.5716666666667</v>
+        <v>21.5716666667</v>
       </c>
       <c r="E2011"/>
     </row>
@@ -30652,7 +30652,7 @@
         <v>2000</v>
       </c>
       <c r="D2012" t="n">
-        <v>17.5533333333333</v>
+        <v>17.5533333333</v>
       </c>
       <c r="E2012"/>
     </row>
@@ -30682,7 +30682,7 @@
         <v>2002</v>
       </c>
       <c r="D2014" t="n">
-        <v>9.51666666666667</v>
+        <v>9.5166666667</v>
       </c>
       <c r="E2014"/>
     </row>
@@ -30697,7 +30697,7 @@
         <v>2003</v>
       </c>
       <c r="D2015" t="n">
-        <v>5.49833333333333</v>
+        <v>5.4983333333</v>
       </c>
       <c r="E2015"/>
     </row>
@@ -30928,7 +30928,7 @@
         <v>1995</v>
       </c>
       <c r="D2032" t="n">
-        <v>82.3857142857143</v>
+        <v>82.3857142857</v>
       </c>
       <c r="E2032"/>
     </row>
@@ -30943,7 +30943,7 @@
         <v>1996</v>
       </c>
       <c r="D2033" t="n">
-        <v>78.8514285714286</v>
+        <v>78.8514285714</v>
       </c>
       <c r="E2033"/>
     </row>
@@ -30958,7 +30958,7 @@
         <v>1997</v>
       </c>
       <c r="D2034" t="n">
-        <v>75.3171428571429</v>
+        <v>75.3171428571</v>
       </c>
       <c r="E2034"/>
     </row>
@@ -30973,7 +30973,7 @@
         <v>1998</v>
       </c>
       <c r="D2035" t="n">
-        <v>71.7828571428571</v>
+        <v>71.7828571429</v>
       </c>
       <c r="E2035"/>
     </row>
@@ -30988,7 +30988,7 @@
         <v>1999</v>
       </c>
       <c r="D2036" t="n">
-        <v>68.2485714285714</v>
+        <v>68.2485714286</v>
       </c>
       <c r="E2036"/>
     </row>
@@ -31003,7 +31003,7 @@
         <v>2000</v>
       </c>
       <c r="D2037" t="n">
-        <v>64.7142857142857</v>
+        <v>64.7142857143</v>
       </c>
       <c r="E2037"/>
     </row>
@@ -32143,7 +32143,7 @@
         <v>2007</v>
       </c>
       <c r="D2119" t="n">
-        <v>0.246666666666667</v>
+        <v>0.2466666667</v>
       </c>
       <c r="E2119"/>
     </row>
@@ -32158,7 +32158,7 @@
         <v>2008</v>
       </c>
       <c r="D2120" t="n">
-        <v>0.283333333333333</v>
+        <v>0.2833333333</v>
       </c>
       <c r="E2120"/>
     </row>
@@ -32188,7 +32188,7 @@
         <v>2010</v>
       </c>
       <c r="D2122" t="n">
-        <v>0.356666666666667</v>
+        <v>0.3566666667</v>
       </c>
       <c r="E2122"/>
     </row>
@@ -32203,7 +32203,7 @@
         <v>2011</v>
       </c>
       <c r="D2123" t="n">
-        <v>0.393333333333333</v>
+        <v>0.3933333333</v>
       </c>
       <c r="E2123"/>
     </row>
@@ -34193,7 +34193,7 @@
         <v>1999</v>
       </c>
       <c r="D2261" t="n">
-        <v>6.59666666666667</v>
+        <v>6.5966666667</v>
       </c>
       <c r="E2261"/>
     </row>
@@ -34208,7 +34208,7 @@
         <v>2000</v>
       </c>
       <c r="D2262" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4333333333</v>
       </c>
       <c r="E2262"/>
     </row>
@@ -34240,7 +34240,7 @@
         <v>2002</v>
       </c>
       <c r="D2264" t="n">
-        <v>5.65333333333333</v>
+        <v>5.6533333333</v>
       </c>
       <c r="E2264"/>
     </row>
@@ -34255,7 +34255,7 @@
         <v>2003</v>
       </c>
       <c r="D2265" t="n">
-        <v>5.03666666666667</v>
+        <v>5.0366666667</v>
       </c>
       <c r="E2265"/>
     </row>
@@ -34285,7 +34285,7 @@
         <v>2005</v>
       </c>
       <c r="D2267" t="n">
-        <v>3.80333333333333</v>
+        <v>3.8033333333</v>
       </c>
       <c r="E2267"/>
     </row>
@@ -34300,7 +34300,7 @@
         <v>2006</v>
       </c>
       <c r="D2268" t="n">
-        <v>3.18666666666667</v>
+        <v>3.1866666667</v>
       </c>
       <c r="E2268"/>
     </row>
@@ -34518,7 +34518,7 @@
         <v>1997</v>
       </c>
       <c r="D2284" t="n">
-        <v>79.6066666666667</v>
+        <v>79.6066666667</v>
       </c>
       <c r="E2284"/>
     </row>
@@ -34533,7 +34533,7 @@
         <v>1998</v>
       </c>
       <c r="D2285" t="n">
-        <v>78.6233333333333</v>
+        <v>78.6233333333</v>
       </c>
       <c r="E2285"/>
     </row>
@@ -34563,7 +34563,7 @@
         <v>2000</v>
       </c>
       <c r="D2287" t="n">
-        <v>76.6566666666667</v>
+        <v>76.6566666667</v>
       </c>
       <c r="E2287"/>
     </row>
@@ -34578,7 +34578,7 @@
         <v>2001</v>
       </c>
       <c r="D2288" t="n">
-        <v>75.6733333333333</v>
+        <v>75.6733333333</v>
       </c>
       <c r="E2288"/>
     </row>
@@ -34610,7 +34610,7 @@
         <v>2003</v>
       </c>
       <c r="D2290" t="n">
-        <v>72.6928571428571</v>
+        <v>72.6928571429</v>
       </c>
       <c r="E2290"/>
     </row>
@@ -34625,7 +34625,7 @@
         <v>2004</v>
       </c>
       <c r="D2291" t="n">
-        <v>70.6957142857143</v>
+        <v>70.6957142857</v>
       </c>
       <c r="E2291"/>
     </row>
@@ -34640,7 +34640,7 @@
         <v>2005</v>
       </c>
       <c r="D2292" t="n">
-        <v>68.6985714285714</v>
+        <v>68.6985714286</v>
       </c>
       <c r="E2292"/>
     </row>
@@ -34655,7 +34655,7 @@
         <v>2006</v>
       </c>
       <c r="D2293" t="n">
-        <v>66.7014285714286</v>
+        <v>66.7014285714</v>
       </c>
       <c r="E2293"/>
     </row>
@@ -34670,7 +34670,7 @@
         <v>2007</v>
       </c>
       <c r="D2294" t="n">
-        <v>64.7042857142857</v>
+        <v>64.7042857143</v>
       </c>
       <c r="E2294"/>
     </row>
@@ -34685,7 +34685,7 @@
         <v>2008</v>
       </c>
       <c r="D2295" t="n">
-        <v>62.7071428571429</v>
+        <v>62.7071428571</v>
       </c>
       <c r="E2295"/>
     </row>
@@ -35163,7 +35163,7 @@
         <v>1994</v>
       </c>
       <c r="D2331" t="n">
-        <v>47.5736363636364</v>
+        <v>47.5736363636</v>
       </c>
       <c r="E2331"/>
     </row>
@@ -35178,7 +35178,7 @@
         <v>1995</v>
       </c>
       <c r="D2332" t="n">
-        <v>46.0072727272727</v>
+        <v>46.0072727273</v>
       </c>
       <c r="E2332"/>
     </row>
@@ -35193,7 +35193,7 @@
         <v>1996</v>
       </c>
       <c r="D2333" t="n">
-        <v>44.4409090909091</v>
+        <v>44.4409090909</v>
       </c>
       <c r="E2333"/>
     </row>
@@ -35208,7 +35208,7 @@
         <v>1997</v>
       </c>
       <c r="D2334" t="n">
-        <v>42.8745454545455</v>
+        <v>42.8745454545</v>
       </c>
       <c r="E2334"/>
     </row>
@@ -35223,7 +35223,7 @@
         <v>1998</v>
       </c>
       <c r="D2335" t="n">
-        <v>41.3081818181818</v>
+        <v>41.3081818182</v>
       </c>
       <c r="E2335"/>
     </row>
@@ -35238,7 +35238,7 @@
         <v>1999</v>
       </c>
       <c r="D2336" t="n">
-        <v>39.7418181818182</v>
+        <v>39.7418181818</v>
       </c>
       <c r="E2336"/>
     </row>
@@ -35253,7 +35253,7 @@
         <v>2000</v>
       </c>
       <c r="D2337" t="n">
-        <v>38.1754545454545</v>
+        <v>38.1754545455</v>
       </c>
       <c r="E2337"/>
     </row>
@@ -35268,7 +35268,7 @@
         <v>2001</v>
       </c>
       <c r="D2338" t="n">
-        <v>36.6090909090909</v>
+        <v>36.6090909091</v>
       </c>
       <c r="E2338"/>
     </row>
@@ -35283,7 +35283,7 @@
         <v>2002</v>
       </c>
       <c r="D2339" t="n">
-        <v>35.0427272727273</v>
+        <v>35.0427272727</v>
       </c>
       <c r="E2339"/>
     </row>
@@ -35298,7 +35298,7 @@
         <v>2003</v>
       </c>
       <c r="D2340" t="n">
-        <v>33.4763636363636</v>
+        <v>33.4763636364</v>
       </c>
       <c r="E2340"/>
     </row>
@@ -35676,7 +35676,7 @@
         <v>2004</v>
       </c>
       <c r="D2366" t="n">
-        <v>48.9314285714286</v>
+        <v>48.9314285714</v>
       </c>
       <c r="E2366"/>
     </row>
@@ -35691,7 +35691,7 @@
         <v>2005</v>
       </c>
       <c r="D2367" t="n">
-        <v>44.7328571428571</v>
+        <v>44.7328571429</v>
       </c>
       <c r="E2367"/>
     </row>
@@ -35706,7 +35706,7 @@
         <v>2006</v>
       </c>
       <c r="D2368" t="n">
-        <v>40.5342857142857</v>
+        <v>40.5342857143</v>
       </c>
       <c r="E2368"/>
     </row>
@@ -35721,7 +35721,7 @@
         <v>2007</v>
       </c>
       <c r="D2369" t="n">
-        <v>36.3357142857143</v>
+        <v>36.3357142857</v>
       </c>
       <c r="E2369"/>
     </row>
@@ -35736,7 +35736,7 @@
         <v>2008</v>
       </c>
       <c r="D2370" t="n">
-        <v>32.1371428571429</v>
+        <v>32.1371428571</v>
       </c>
       <c r="E2370"/>
     </row>
@@ -35751,7 +35751,7 @@
         <v>2009</v>
       </c>
       <c r="D2371" t="n">
-        <v>27.9385714285714</v>
+        <v>27.9385714286</v>
       </c>
       <c r="E2371"/>
     </row>
@@ -36279,7 +36279,7 @@
         <v>1995</v>
       </c>
       <c r="D2407" t="n">
-        <v>75.7227272727273</v>
+        <v>75.7227272727</v>
       </c>
       <c r="E2407"/>
     </row>
@@ -36294,7 +36294,7 @@
         <v>1996</v>
       </c>
       <c r="D2408" t="n">
-        <v>73.2754545454546</v>
+        <v>73.2754545455</v>
       </c>
       <c r="E2408"/>
     </row>
@@ -36309,7 +36309,7 @@
         <v>1997</v>
       </c>
       <c r="D2409" t="n">
-        <v>70.8281818181818</v>
+        <v>70.8281818182</v>
       </c>
       <c r="E2409"/>
     </row>
@@ -36324,7 +36324,7 @@
         <v>1998</v>
       </c>
       <c r="D2410" t="n">
-        <v>68.3809090909091</v>
+        <v>68.3809090909</v>
       </c>
       <c r="E2410"/>
     </row>
@@ -36339,7 +36339,7 @@
         <v>1999</v>
       </c>
       <c r="D2411" t="n">
-        <v>65.9336363636364</v>
+        <v>65.9336363636</v>
       </c>
       <c r="E2411"/>
     </row>
@@ -36354,7 +36354,7 @@
         <v>2000</v>
       </c>
       <c r="D2412" t="n">
-        <v>63.4863636363636</v>
+        <v>63.4863636364</v>
       </c>
       <c r="E2412"/>
     </row>
@@ -36369,7 +36369,7 @@
         <v>2001</v>
       </c>
       <c r="D2413" t="n">
-        <v>61.0390909090909</v>
+        <v>61.0390909091</v>
       </c>
       <c r="E2413"/>
     </row>
@@ -36384,7 +36384,7 @@
         <v>2002</v>
       </c>
       <c r="D2414" t="n">
-        <v>58.5918181818182</v>
+        <v>58.5918181818</v>
       </c>
       <c r="E2414"/>
     </row>
@@ -36399,7 +36399,7 @@
         <v>2003</v>
       </c>
       <c r="D2415" t="n">
-        <v>56.1445454545455</v>
+        <v>56.1445454545</v>
       </c>
       <c r="E2415"/>
     </row>
@@ -36414,7 +36414,7 @@
         <v>2004</v>
       </c>
       <c r="D2416" t="n">
-        <v>53.6972727272727</v>
+        <v>53.6972727273</v>
       </c>
       <c r="E2416"/>
     </row>
@@ -36806,7 +36806,7 @@
         <v>2005</v>
       </c>
       <c r="D2442" t="n">
-        <v>61.8716666666667</v>
+        <v>61.8716666667</v>
       </c>
       <c r="E2442"/>
     </row>
@@ -36821,7 +36821,7 @@
         <v>2006</v>
       </c>
       <c r="D2443" t="n">
-        <v>61.9033333333333</v>
+        <v>61.9033333333</v>
       </c>
       <c r="E2443"/>
     </row>
@@ -36851,7 +36851,7 @@
         <v>2008</v>
       </c>
       <c r="D2445" t="n">
-        <v>61.9666666666667</v>
+        <v>61.9666666667</v>
       </c>
       <c r="E2445"/>
     </row>
@@ -36866,7 +36866,7 @@
         <v>2009</v>
       </c>
       <c r="D2446" t="n">
-        <v>61.9983333333333</v>
+        <v>61.9983333333</v>
       </c>
       <c r="E2446"/>
     </row>
@@ -36967,7 +36967,7 @@
         <v>1991</v>
       </c>
       <c r="D2453" t="n">
-        <v>61.9483333333333</v>
+        <v>61.9483333333</v>
       </c>
       <c r="E2453"/>
     </row>
@@ -36982,7 +36982,7 @@
         <v>1992</v>
       </c>
       <c r="D2454" t="n">
-        <v>59.1866666666667</v>
+        <v>59.1866666667</v>
       </c>
       <c r="E2454"/>
     </row>
@@ -37012,7 +37012,7 @@
         <v>1994</v>
       </c>
       <c r="D2456" t="n">
-        <v>53.6633333333333</v>
+        <v>53.6633333333</v>
       </c>
       <c r="E2456"/>
     </row>
@@ -37027,7 +37027,7 @@
         <v>1995</v>
       </c>
       <c r="D2457" t="n">
-        <v>50.9016666666667</v>
+        <v>50.9016666667</v>
       </c>
       <c r="E2457"/>
     </row>
@@ -37091,7 +37091,7 @@
         <v>1999</v>
       </c>
       <c r="D2461" t="n">
-        <v>31.3233333333333</v>
+        <v>31.3233333333</v>
       </c>
       <c r="E2461"/>
     </row>
@@ -37106,7 +37106,7 @@
         <v>2000</v>
       </c>
       <c r="D2462" t="n">
-        <v>33.5966666666667</v>
+        <v>33.5966666667</v>
       </c>
       <c r="E2462"/>
     </row>
@@ -37138,7 +37138,7 @@
         <v>2002</v>
       </c>
       <c r="D2464" t="n">
-        <v>31.4433333333333</v>
+        <v>31.4433333333</v>
       </c>
       <c r="E2464"/>
     </row>
@@ -37153,7 +37153,7 @@
         <v>2003</v>
       </c>
       <c r="D2465" t="n">
-        <v>27.0166666666667</v>
+        <v>27.0166666667</v>
       </c>
       <c r="E2465"/>
     </row>
@@ -39205,7 +39205,7 @@
         <v>1995</v>
       </c>
       <c r="D2607" t="n">
-        <v>6.86333333333333</v>
+        <v>6.8633333333</v>
       </c>
       <c r="E2607"/>
     </row>
@@ -39220,7 +39220,7 @@
         <v>1996</v>
       </c>
       <c r="D2608" t="n">
-        <v>3.91666666666667</v>
+        <v>3.9166666667</v>
       </c>
       <c r="E2608"/>
     </row>
@@ -39657,7 +39657,7 @@
         <v>1998</v>
       </c>
       <c r="D2635" t="n">
-        <v>23.9966666666667</v>
+        <v>23.9966666667</v>
       </c>
       <c r="E2635"/>
     </row>
@@ -39672,7 +39672,7 @@
         <v>1999</v>
       </c>
       <c r="D2636" t="n">
-        <v>24.2933333333333</v>
+        <v>24.2933333333</v>
       </c>
       <c r="E2636"/>
     </row>
@@ -39798,7 +39798,7 @@
         <v>2007</v>
       </c>
       <c r="D2644" t="n">
-        <v>21.0866666666667</v>
+        <v>21.0866666667</v>
       </c>
       <c r="E2644"/>
     </row>
@@ -39813,7 +39813,7 @@
         <v>2008</v>
       </c>
       <c r="D2645" t="n">
-        <v>19.5933333333333</v>
+        <v>19.5933333333</v>
       </c>
       <c r="E2645"/>
     </row>
@@ -39845,7 +39845,7 @@
         <v>2010</v>
       </c>
       <c r="D2647" t="n">
-        <v>18.3866666666667</v>
+        <v>18.3866666667</v>
       </c>
       <c r="E2647"/>
     </row>
@@ -39860,7 +39860,7 @@
         <v>2011</v>
       </c>
       <c r="D2648" t="n">
-        <v>18.6733333333333</v>
+        <v>18.6733333333</v>
       </c>
       <c r="E2648"/>
     </row>
@@ -40768,7 +40768,7 @@
         <v>1994</v>
       </c>
       <c r="D2706" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="E2706"/>
     </row>
@@ -40783,7 +40783,7 @@
         <v>1995</v>
       </c>
       <c r="D2707" t="n">
-        <v>2.37333333333333</v>
+        <v>2.3733333333</v>
       </c>
       <c r="E2707"/>
     </row>
@@ -41242,7 +41242,7 @@
         <v>2001</v>
       </c>
       <c r="D2738" t="n">
-        <v>78.1366666666667</v>
+        <v>78.1366666667</v>
       </c>
       <c r="E2738"/>
     </row>
@@ -41257,7 +41257,7 @@
         <v>2002</v>
       </c>
       <c r="D2739" t="n">
-        <v>76.9033333333333</v>
+        <v>76.9033333333</v>
       </c>
       <c r="E2739"/>
     </row>
@@ -41287,7 +41287,7 @@
         <v>2004</v>
       </c>
       <c r="D2741" t="n">
-        <v>74.4366666666667</v>
+        <v>74.4366666667</v>
       </c>
       <c r="E2741"/>
     </row>
@@ -41302,7 +41302,7 @@
         <v>2005</v>
       </c>
       <c r="D2742" t="n">
-        <v>73.2033333333333</v>
+        <v>73.2033333333</v>
       </c>
       <c r="E2742"/>
     </row>
@@ -43135,7 +43135,7 @@
         <v>1992</v>
       </c>
       <c r="D2879" t="n">
-        <v>61.6366666666667</v>
+        <v>61.6366666667</v>
       </c>
       <c r="E2879"/>
     </row>
@@ -43150,7 +43150,7 @@
         <v>1993</v>
       </c>
       <c r="D2880" t="n">
-        <v>57.5633333333333</v>
+        <v>57.5633333333</v>
       </c>
       <c r="E2880"/>
     </row>
@@ -43182,7 +43182,7 @@
         <v>1995</v>
       </c>
       <c r="D2882" t="n">
-        <v>52.1528571428571</v>
+        <v>52.1528571429</v>
       </c>
       <c r="E2882"/>
     </row>
@@ -43197,7 +43197,7 @@
         <v>1996</v>
       </c>
       <c r="D2883" t="n">
-        <v>50.8157142857143</v>
+        <v>50.8157142857</v>
       </c>
       <c r="E2883"/>
     </row>
@@ -43212,7 +43212,7 @@
         <v>1997</v>
       </c>
       <c r="D2884" t="n">
-        <v>49.4785714285714</v>
+        <v>49.4785714286</v>
       </c>
       <c r="E2884"/>
     </row>
@@ -43227,7 +43227,7 @@
         <v>1998</v>
       </c>
       <c r="D2885" t="n">
-        <v>48.1414285714286</v>
+        <v>48.1414285714</v>
       </c>
       <c r="E2885"/>
     </row>
@@ -43242,7 +43242,7 @@
         <v>1999</v>
       </c>
       <c r="D2886" t="n">
-        <v>46.8042857142857</v>
+        <v>46.8042857143</v>
       </c>
       <c r="E2886"/>
     </row>
@@ -43257,7 +43257,7 @@
         <v>2000</v>
       </c>
       <c r="D2887" t="n">
-        <v>45.4671428571429</v>
+        <v>45.4671428571</v>
       </c>
       <c r="E2887"/>
     </row>
@@ -43351,7 +43351,7 @@
         <v>2006</v>
       </c>
       <c r="D2893" t="n">
-        <v>33.5933333333333</v>
+        <v>33.5933333333</v>
       </c>
       <c r="E2893"/>
     </row>
@@ -43366,7 +43366,7 @@
         <v>2007</v>
       </c>
       <c r="D2894" t="n">
-        <v>33.6866666666667</v>
+        <v>33.6866666667</v>
       </c>
       <c r="E2894"/>
     </row>
@@ -43396,7 +43396,7 @@
         <v>2009</v>
       </c>
       <c r="D2896" t="n">
-        <v>33.8733333333333</v>
+        <v>33.8733333333</v>
       </c>
       <c r="E2896"/>
     </row>
@@ -43411,7 +43411,7 @@
         <v>2010</v>
       </c>
       <c r="D2897" t="n">
-        <v>33.9666666666667</v>
+        <v>33.9666666667</v>
       </c>
       <c r="E2897"/>
     </row>
@@ -43977,7 +43977,7 @@
         <v>2000</v>
       </c>
       <c r="D2937" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.0357142857</v>
       </c>
       <c r="E2937"/>
     </row>
@@ -43992,7 +43992,7 @@
         <v>2001</v>
       </c>
       <c r="D2938" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0714285714</v>
       </c>
       <c r="E2938"/>
     </row>
@@ -44007,7 +44007,7 @@
         <v>2002</v>
       </c>
       <c r="D2939" t="n">
-        <v>0.107142857142857</v>
+        <v>0.1071428571</v>
       </c>
       <c r="E2939"/>
     </row>
@@ -44022,7 +44022,7 @@
         <v>2003</v>
       </c>
       <c r="D2940" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1428571429</v>
       </c>
       <c r="E2940"/>
     </row>
@@ -44037,7 +44037,7 @@
         <v>2004</v>
       </c>
       <c r="D2941" t="n">
-        <v>0.178571428571429</v>
+        <v>0.1785714286</v>
       </c>
       <c r="E2941"/>
     </row>
@@ -44052,7 +44052,7 @@
         <v>2005</v>
       </c>
       <c r="D2942" t="n">
-        <v>0.214285714285714</v>
+        <v>0.2142857143</v>
       </c>
       <c r="E2942"/>
     </row>
@@ -46150,7 +46150,7 @@
         <v>2007</v>
       </c>
       <c r="D3094" t="n">
-        <v>15.7033333333333</v>
+        <v>15.7033333333</v>
       </c>
       <c r="E3094"/>
     </row>
@@ -46165,7 +46165,7 @@
         <v>2008</v>
       </c>
       <c r="D3095" t="n">
-        <v>14.6866666666667</v>
+        <v>14.6866666667</v>
       </c>
       <c r="E3095"/>
     </row>
@@ -46687,7 +46687,7 @@
         <v>1996</v>
       </c>
       <c r="D3133" t="n">
-        <v>15.9814285714286</v>
+        <v>15.9814285714</v>
       </c>
       <c r="E3133"/>
     </row>
@@ -46702,7 +46702,7 @@
         <v>1997</v>
       </c>
       <c r="D3134" t="n">
-        <v>15.6428571428571</v>
+        <v>15.6428571429</v>
       </c>
       <c r="E3134"/>
     </row>
@@ -46717,7 +46717,7 @@
         <v>1998</v>
       </c>
       <c r="D3135" t="n">
-        <v>15.3042857142857</v>
+        <v>15.3042857143</v>
       </c>
       <c r="E3135"/>
     </row>
@@ -46732,7 +46732,7 @@
         <v>1999</v>
       </c>
       <c r="D3136" t="n">
-        <v>14.9657142857143</v>
+        <v>14.9657142857</v>
       </c>
       <c r="E3136"/>
     </row>
@@ -46747,7 +46747,7 @@
         <v>2000</v>
       </c>
       <c r="D3137" t="n">
-        <v>14.6271428571429</v>
+        <v>14.6271428571</v>
       </c>
       <c r="E3137"/>
     </row>
@@ -46762,7 +46762,7 @@
         <v>2001</v>
       </c>
       <c r="D3138" t="n">
-        <v>14.2885714285714</v>
+        <v>14.2885714286</v>
       </c>
       <c r="E3138"/>
     </row>
@@ -46856,7 +46856,7 @@
         <v>2007</v>
       </c>
       <c r="D3144" t="n">
-        <v>6.06333333333333</v>
+        <v>6.0633333333</v>
       </c>
       <c r="E3144"/>
     </row>
@@ -46871,7 +46871,7 @@
         <v>2008</v>
       </c>
       <c r="D3145" t="n">
-        <v>5.08666666666667</v>
+        <v>5.0866666667</v>
       </c>
       <c r="E3145"/>
     </row>
@@ -47695,7 +47695,7 @@
         <v>1995</v>
       </c>
       <c r="D3207" t="n">
-        <v>72.6616666666667</v>
+        <v>72.6616666667</v>
       </c>
       <c r="E3207"/>
     </row>
@@ -47710,7 +47710,7 @@
         <v>1996</v>
       </c>
       <c r="D3208" t="n">
-        <v>66.7333333333333</v>
+        <v>66.7333333333</v>
       </c>
       <c r="E3208"/>
     </row>
@@ -47740,7 +47740,7 @@
         <v>1998</v>
       </c>
       <c r="D3210" t="n">
-        <v>54.8766666666667</v>
+        <v>54.8766666667</v>
       </c>
       <c r="E3210"/>
     </row>
@@ -47755,7 +47755,7 @@
         <v>1999</v>
       </c>
       <c r="D3211" t="n">
-        <v>48.9483333333333</v>
+        <v>48.9483333333</v>
       </c>
       <c r="E3211"/>
     </row>
@@ -47787,7 +47787,7 @@
         <v>2001</v>
       </c>
       <c r="D3213" t="n">
-        <v>42.6066666666667</v>
+        <v>42.6066666667</v>
       </c>
       <c r="E3213"/>
     </row>
@@ -47802,7 +47802,7 @@
         <v>2002</v>
       </c>
       <c r="D3214" t="n">
-        <v>42.1933333333333</v>
+        <v>42.1933333333</v>
       </c>
       <c r="E3214"/>
     </row>
@@ -47832,7 +47832,7 @@
         <v>2004</v>
       </c>
       <c r="D3216" t="n">
-        <v>41.3666666666667</v>
+        <v>41.3666666667</v>
       </c>
       <c r="E3216"/>
     </row>
@@ -47847,7 +47847,7 @@
         <v>2005</v>
       </c>
       <c r="D3217" t="n">
-        <v>40.9533333333333</v>
+        <v>40.9533333333</v>
       </c>
       <c r="E3217"/>
     </row>
@@ -47877,7 +47877,7 @@
         <v>2007</v>
       </c>
       <c r="D3219" t="n">
-        <v>40.1266666666667</v>
+        <v>40.1266666667</v>
       </c>
       <c r="E3219"/>
     </row>
@@ -47892,7 +47892,7 @@
         <v>2008</v>
       </c>
       <c r="D3220" t="n">
-        <v>39.7133333333333</v>
+        <v>39.7133333333</v>
       </c>
       <c r="E3220"/>
     </row>
@@ -48840,7 +48840,7 @@
         <v>2001</v>
       </c>
       <c r="D3288" t="n">
-        <v>81.8928571428572</v>
+        <v>81.8928571429</v>
       </c>
       <c r="E3288"/>
     </row>
@@ -48855,7 +48855,7 @@
         <v>2002</v>
       </c>
       <c r="D3289" t="n">
-        <v>79.5557142857143</v>
+        <v>79.5557142857</v>
       </c>
       <c r="E3289"/>
     </row>
@@ -48870,7 +48870,7 @@
         <v>2003</v>
       </c>
       <c r="D3290" t="n">
-        <v>77.2185714285714</v>
+        <v>77.2185714286</v>
       </c>
       <c r="E3290"/>
     </row>
@@ -48885,7 +48885,7 @@
         <v>2004</v>
       </c>
       <c r="D3291" t="n">
-        <v>74.8814285714286</v>
+        <v>74.8814285714</v>
       </c>
       <c r="E3291"/>
     </row>
@@ -48900,7 +48900,7 @@
         <v>2005</v>
       </c>
       <c r="D3292" t="n">
-        <v>72.5442857142857</v>
+        <v>72.5442857143</v>
       </c>
       <c r="E3292"/>
     </row>
@@ -48915,7 +48915,7 @@
         <v>2006</v>
       </c>
       <c r="D3293" t="n">
-        <v>70.2071428571429</v>
+        <v>70.2071428571</v>
       </c>
       <c r="E3293"/>
     </row>
@@ -52294,7 +52294,7 @@
         <v>1997</v>
       </c>
       <c r="D3534" t="n">
-        <v>61.8166666666667</v>
+        <v>61.8166666667</v>
       </c>
       <c r="E3534"/>
     </row>
@@ -52309,7 +52309,7 @@
         <v>1998</v>
       </c>
       <c r="D3535" t="n">
-        <v>60.6233333333333</v>
+        <v>60.6233333333</v>
       </c>
       <c r="E3535"/>
     </row>
@@ -52341,7 +52341,7 @@
         <v>2000</v>
       </c>
       <c r="D3537" t="n">
-        <v>58.4766666666667</v>
+        <v>58.4766666667</v>
       </c>
       <c r="E3537"/>
     </row>
@@ -52356,7 +52356,7 @@
         <v>2001</v>
       </c>
       <c r="D3538" t="n">
-        <v>57.5233333333333</v>
+        <v>57.5233333333</v>
       </c>
       <c r="E3538"/>
     </row>
@@ -52388,7 +52388,7 @@
         <v>2003</v>
       </c>
       <c r="D3540" t="n">
-        <v>54.9533333333333</v>
+        <v>54.9533333333</v>
       </c>
       <c r="E3540"/>
     </row>
@@ -52403,7 +52403,7 @@
         <v>2004</v>
       </c>
       <c r="D3541" t="n">
-        <v>53.3366666666667</v>
+        <v>53.3366666667</v>
       </c>
       <c r="E3541"/>
     </row>
@@ -52497,7 +52497,7 @@
         <v>2010</v>
       </c>
       <c r="D3547" t="n">
-        <v>37.8666666666667</v>
+        <v>37.8666666667</v>
       </c>
       <c r="E3547"/>
     </row>
@@ -52512,7 +52512,7 @@
         <v>2011</v>
       </c>
       <c r="D3548" t="n">
-        <v>37.8233333333333</v>
+        <v>37.8233333333</v>
       </c>
       <c r="E3548"/>
     </row>
@@ -52613,7 +52613,7 @@
         <v>1993</v>
       </c>
       <c r="D3555" t="n">
-        <v>0.673333333333333</v>
+        <v>0.6733333333</v>
       </c>
       <c r="E3555"/>
     </row>
@@ -52628,7 +52628,7 @@
         <v>1994</v>
       </c>
       <c r="D3556" t="n">
-        <v>1.31666666666667</v>
+        <v>1.3166666667</v>
       </c>
       <c r="E3556"/>
     </row>
@@ -52677,7 +52677,7 @@
         <v>1997</v>
       </c>
       <c r="D3559" t="n">
-        <v>1.96333333333333</v>
+        <v>1.9633333333</v>
       </c>
       <c r="E3559"/>
     </row>
@@ -52692,7 +52692,7 @@
         <v>1998</v>
       </c>
       <c r="D3560" t="n">
-        <v>1.99666666666667</v>
+        <v>1.9966666667</v>
       </c>
       <c r="E3560"/>
     </row>
@@ -52724,7 +52724,7 @@
         <v>2000</v>
       </c>
       <c r="D3562" t="n">
-        <v>1.49333333333333</v>
+        <v>1.4933333333</v>
       </c>
       <c r="E3562"/>
     </row>
@@ -52739,7 +52739,7 @@
         <v>2001</v>
       </c>
       <c r="D3563" t="n">
-        <v>0.956666666666667</v>
+        <v>0.9566666667</v>
       </c>
       <c r="E3563"/>
     </row>
@@ -53002,7 +53002,7 @@
         <v>1993</v>
       </c>
       <c r="D3580" t="n">
-        <v>0.783333333333333</v>
+        <v>0.7833333333</v>
       </c>
       <c r="E3580"/>
     </row>
@@ -53017,7 +53017,7 @@
         <v>1994</v>
       </c>
       <c r="D3581" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6666666667</v>
       </c>
       <c r="E3581"/>
     </row>
@@ -54102,7 +54102,7 @@
         <v>1996</v>
       </c>
       <c r="D3658" t="n">
-        <v>9.66666666666667</v>
+        <v>9.6666666667</v>
       </c>
       <c r="E3658"/>
     </row>
@@ -54117,7 +54117,7 @@
         <v>1997</v>
       </c>
       <c r="D3659" t="n">
-        <v>9.77333333333333</v>
+        <v>9.7733333333</v>
       </c>
       <c r="E3659"/>
     </row>
@@ -54889,7 +54889,7 @@
         <v>1999</v>
       </c>
       <c r="D3711" t="n">
-        <v>10.3714285714286</v>
+        <v>10.3714285714</v>
       </c>
       <c r="E3711"/>
     </row>
@@ -54904,7 +54904,7 @@
         <v>2000</v>
       </c>
       <c r="D3712" t="n">
-        <v>10.2728571428571</v>
+        <v>10.2728571429</v>
       </c>
       <c r="E3712"/>
     </row>
@@ -54919,7 +54919,7 @@
         <v>2001</v>
       </c>
       <c r="D3713" t="n">
-        <v>10.1742857142857</v>
+        <v>10.1742857143</v>
       </c>
       <c r="E3713"/>
     </row>
@@ -54934,7 +54934,7 @@
         <v>2002</v>
       </c>
       <c r="D3714" t="n">
-        <v>10.0757142857143</v>
+        <v>10.0757142857</v>
       </c>
       <c r="E3714"/>
     </row>
@@ -54949,7 +54949,7 @@
         <v>2003</v>
       </c>
       <c r="D3715" t="n">
-        <v>9.97714285714286</v>
+        <v>9.9771428571</v>
       </c>
       <c r="E3715"/>
     </row>
@@ -54964,7 +54964,7 @@
         <v>2004</v>
       </c>
       <c r="D3716" t="n">
-        <v>9.87857142857143</v>
+        <v>9.8785714286</v>
       </c>
       <c r="E3716"/>
     </row>
@@ -55175,7 +55175,7 @@
         <v>1994</v>
       </c>
       <c r="D3731" t="n">
-        <v>64.2033333333333</v>
+        <v>64.2033333333</v>
       </c>
       <c r="E3731"/>
     </row>
@@ -55190,7 +55190,7 @@
         <v>1995</v>
       </c>
       <c r="D3732" t="n">
-        <v>63.1366666666667</v>
+        <v>63.1366666667</v>
       </c>
       <c r="E3732"/>
     </row>
@@ -55955,19 +55955,19 @@
         <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.288333333333333</v>
+        <v>0.2883333333</v>
       </c>
       <c r="K3" t="n">
-        <v>0.376666666666667</v>
+        <v>0.3766666667</v>
       </c>
       <c r="L3" t="n">
         <v>0.465</v>
       </c>
       <c r="M3" t="n">
-        <v>0.553333333333333</v>
+        <v>0.5533333333</v>
       </c>
       <c r="N3" t="n">
-        <v>0.641666666666667</v>
+        <v>0.6416666667</v>
       </c>
       <c r="O3" t="n">
         <v>0.73</v>
@@ -56312,10 +56312,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.103333333333333</v>
+        <v>0.1033333333</v>
       </c>
       <c r="T9" t="n">
-        <v>0.206666666666667</v>
+        <v>0.2066666667</v>
       </c>
       <c r="U9" t="n">
         <v>0.31</v>
@@ -56763,28 +56763,28 @@
         <v>31.23</v>
       </c>
       <c r="H17" t="n">
-        <v>30.4666666666667</v>
+        <v>30.4666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>29.7033333333333</v>
+        <v>29.7033333333</v>
       </c>
       <c r="J17" t="n">
         <v>28.94</v>
       </c>
       <c r="K17" t="n">
-        <v>28.1766666666667</v>
+        <v>28.1766666667</v>
       </c>
       <c r="L17" t="n">
-        <v>27.4133333333333</v>
+        <v>27.4133333333</v>
       </c>
       <c r="M17" t="n">
         <v>26.65</v>
       </c>
       <c r="N17" t="n">
-        <v>25.8866666666667</v>
+        <v>25.8866666667</v>
       </c>
       <c r="O17" t="n">
-        <v>25.1233333333333</v>
+        <v>25.1233333333</v>
       </c>
       <c r="P17" t="n">
         <v>24.36</v>
@@ -57134,19 +57134,19 @@
         <v>29.66</v>
       </c>
       <c r="P22" t="n">
-        <v>30.5566666666667</v>
+        <v>30.5566666667</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.4533333333333</v>
+        <v>31.4533333333</v>
       </c>
       <c r="R22" t="n">
         <v>32.35</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2466666666667</v>
+        <v>33.2466666667</v>
       </c>
       <c r="T22" t="n">
-        <v>34.1433333333333</v>
+        <v>34.1433333333</v>
       </c>
       <c r="U22" t="n">
         <v>35.04</v>
@@ -57259,19 +57259,19 @@
         <v>24.86</v>
       </c>
       <c r="O24" t="n">
-        <v>25.3183333333333</v>
+        <v>25.3183333333</v>
       </c>
       <c r="P24" t="n">
-        <v>25.7766666666667</v>
+        <v>25.7766666667</v>
       </c>
       <c r="Q24" t="n">
         <v>26.235</v>
       </c>
       <c r="R24" t="n">
-        <v>26.6933333333333</v>
+        <v>26.6933333333</v>
       </c>
       <c r="S24" t="n">
-        <v>27.1516666666667</v>
+        <v>27.1516666667</v>
       </c>
       <c r="T24" t="n">
         <v>27.61</v>
@@ -57342,34 +57342,34 @@
         <v>83.15</v>
       </c>
       <c r="F26" t="n">
-        <v>81.2663636363636</v>
+        <v>81.2663636364</v>
       </c>
       <c r="G26" t="n">
-        <v>79.3827272727273</v>
+        <v>79.3827272727</v>
       </c>
       <c r="H26" t="n">
-        <v>77.4990909090909</v>
+        <v>77.4990909091</v>
       </c>
       <c r="I26" t="n">
-        <v>75.6154545454546</v>
+        <v>75.6154545455</v>
       </c>
       <c r="J26" t="n">
-        <v>73.7318181818182</v>
+        <v>73.7318181818</v>
       </c>
       <c r="K26" t="n">
-        <v>71.8481818181818</v>
+        <v>71.8481818182</v>
       </c>
       <c r="L26" t="n">
-        <v>69.9645454545455</v>
+        <v>69.9645454545</v>
       </c>
       <c r="M26" t="n">
-        <v>68.0809090909091</v>
+        <v>68.0809090909</v>
       </c>
       <c r="N26" t="n">
-        <v>66.1972727272727</v>
+        <v>66.1972727273</v>
       </c>
       <c r="O26" t="n">
-        <v>64.3136363636364</v>
+        <v>64.3136363636</v>
       </c>
       <c r="P26" t="n">
         <v>62.43</v>
@@ -57419,28 +57419,28 @@
         <v>61.94</v>
       </c>
       <c r="P27" t="n">
-        <v>59.1155555555556</v>
+        <v>59.1155555556</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.2911111111111</v>
+        <v>56.2911111111</v>
       </c>
       <c r="R27" t="n">
-        <v>53.4666666666667</v>
+        <v>53.4666666667</v>
       </c>
       <c r="S27" t="n">
-        <v>50.6422222222222</v>
+        <v>50.6422222222</v>
       </c>
       <c r="T27" t="n">
-        <v>47.8177777777778</v>
+        <v>47.8177777778</v>
       </c>
       <c r="U27" t="n">
-        <v>44.9933333333333</v>
+        <v>44.9933333333</v>
       </c>
       <c r="V27" t="n">
-        <v>42.1688888888889</v>
+        <v>42.1688888889</v>
       </c>
       <c r="W27" t="n">
-        <v>39.3444444444444</v>
+        <v>39.3444444444</v>
       </c>
       <c r="X27" t="n">
         <v>36.52</v>
@@ -57490,10 +57490,10 @@
         <v>2.16</v>
       </c>
       <c r="N28" t="n">
-        <v>2.01666666666667</v>
+        <v>2.0166666667</v>
       </c>
       <c r="O28" t="n">
-        <v>1.87333333333333</v>
+        <v>1.8733333333</v>
       </c>
       <c r="P28" t="n">
         <v>1.73</v>
@@ -57555,37 +57555,37 @@
         <v>37.39</v>
       </c>
       <c r="J29" t="n">
-        <v>36.9266666666667</v>
+        <v>36.9266666667</v>
       </c>
       <c r="K29" t="n">
-        <v>36.4633333333333</v>
+        <v>36.4633333333</v>
       </c>
       <c r="L29" t="n">
         <v>36</v>
       </c>
       <c r="M29" t="n">
-        <v>33.3533333333333</v>
+        <v>33.3533333333</v>
       </c>
       <c r="N29" t="n">
-        <v>30.7066666666667</v>
+        <v>30.7066666667</v>
       </c>
       <c r="O29" t="n">
         <v>28.06</v>
       </c>
       <c r="P29" t="n">
-        <v>23.9633333333333</v>
+        <v>23.9633333333</v>
       </c>
       <c r="Q29" t="n">
-        <v>19.8666666666667</v>
+        <v>19.8666666667</v>
       </c>
       <c r="R29" t="n">
         <v>15.77</v>
       </c>
       <c r="S29" t="n">
-        <v>14.6266666666667</v>
+        <v>14.6266666667</v>
       </c>
       <c r="T29" t="n">
-        <v>13.4833333333333</v>
+        <v>13.4833333333</v>
       </c>
       <c r="U29" t="n">
         <v>12.34</v>
@@ -57741,19 +57741,19 @@
         <v>54.1</v>
       </c>
       <c r="S32" t="n">
-        <v>50.5533333333333</v>
+        <v>50.5533333333</v>
       </c>
       <c r="T32" t="n">
-        <v>47.0066666666667</v>
+        <v>47.0066666667</v>
       </c>
       <c r="U32" t="n">
         <v>43.46</v>
       </c>
       <c r="V32" t="n">
-        <v>39.9133333333333</v>
+        <v>39.9133333333</v>
       </c>
       <c r="W32" t="n">
-        <v>36.3666666666667</v>
+        <v>36.3666666667</v>
       </c>
       <c r="X32" t="n">
         <v>32.82</v>
@@ -57943,37 +57943,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="I36" t="n">
         <v>0.13</v>
       </c>
       <c r="J36" t="n">
-        <v>0.115555555555556</v>
+        <v>0.1155555556</v>
       </c>
       <c r="K36" t="n">
-        <v>0.101111111111111</v>
+        <v>0.1011111111</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.0722222222</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0577777778</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0288888888888889</v>
+        <v>0.0288888889</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0144444444444445</v>
+        <v>0.0144444444</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -58096,10 +58096,10 @@
         <v>4.95</v>
       </c>
       <c r="K39" t="n">
-        <v>5.04666666666667</v>
+        <v>5.0466666667</v>
       </c>
       <c r="L39" t="n">
-        <v>5.14333333333333</v>
+        <v>5.1433333333</v>
       </c>
       <c r="M39" t="n">
         <v>5.24</v>
@@ -58189,19 +58189,19 @@
         <v>4.46</v>
       </c>
       <c r="D41" t="n">
-        <v>4.12666666666667</v>
+        <v>4.1266666667</v>
       </c>
       <c r="E41" t="n">
-        <v>3.79333333333333</v>
+        <v>3.7933333333</v>
       </c>
       <c r="F41" t="n">
         <v>3.46</v>
       </c>
       <c r="G41" t="n">
-        <v>3.12666666666667</v>
+        <v>3.1266666667</v>
       </c>
       <c r="H41" t="n">
-        <v>2.79333333333333</v>
+        <v>2.7933333333</v>
       </c>
       <c r="I41" t="n">
         <v>2.46</v>
@@ -58412,10 +58412,10 @@
         <v>0.25</v>
       </c>
       <c r="I45" t="n">
-        <v>0.183333333333333</v>
+        <v>0.1833333333</v>
       </c>
       <c r="J45" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1166666667</v>
       </c>
       <c r="K45" t="n">
         <v>0.05</v>
@@ -58491,19 +58491,19 @@
         <v>54.57</v>
       </c>
       <c r="M46" t="n">
-        <v>51.9683333333333</v>
+        <v>51.9683333333</v>
       </c>
       <c r="N46" t="n">
-        <v>49.3666666666667</v>
+        <v>49.3666666667</v>
       </c>
       <c r="O46" t="n">
         <v>46.765</v>
       </c>
       <c r="P46" t="n">
-        <v>44.1633333333333</v>
+        <v>44.1633333333</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.5616666666667</v>
+        <v>41.5616666667</v>
       </c>
       <c r="R46" t="n">
         <v>38.96</v>
@@ -58734,43 +58734,43 @@
         <v>51.07</v>
       </c>
       <c r="E51" t="n">
-        <v>49.3628571428571</v>
+        <v>49.3628571429</v>
       </c>
       <c r="F51" t="n">
-        <v>47.6557142857143</v>
+        <v>47.6557142857</v>
       </c>
       <c r="G51" t="n">
-        <v>45.9485714285714</v>
+        <v>45.9485714286</v>
       </c>
       <c r="H51" t="n">
-        <v>44.2414285714286</v>
+        <v>44.2414285714</v>
       </c>
       <c r="I51" t="n">
-        <v>42.5342857142857</v>
+        <v>42.5342857143</v>
       </c>
       <c r="J51" t="n">
-        <v>40.8271428571429</v>
+        <v>40.8271428571</v>
       </c>
       <c r="K51" t="n">
         <v>39.12</v>
       </c>
       <c r="L51" t="n">
-        <v>37.6157142857143</v>
+        <v>37.6157142857</v>
       </c>
       <c r="M51" t="n">
-        <v>36.1114285714286</v>
+        <v>36.1114285714</v>
       </c>
       <c r="N51" t="n">
-        <v>34.6071428571429</v>
+        <v>34.6071428571</v>
       </c>
       <c r="O51" t="n">
-        <v>33.1028571428571</v>
+        <v>33.1028571429</v>
       </c>
       <c r="P51" t="n">
-        <v>31.5985714285714</v>
+        <v>31.5985714286</v>
       </c>
       <c r="Q51" t="n">
-        <v>30.0942857142857</v>
+        <v>30.0942857143</v>
       </c>
       <c r="R51" t="n">
         <v>28.59</v>
@@ -58891,37 +58891,37 @@
         <v>93.74</v>
       </c>
       <c r="E54" t="n">
-        <v>83.7633333333333</v>
+        <v>83.7633333333</v>
       </c>
       <c r="F54" t="n">
-        <v>73.7866666666667</v>
+        <v>73.7866666667</v>
       </c>
       <c r="G54" t="n">
         <v>63.81</v>
       </c>
       <c r="H54" t="n">
-        <v>62.9777777777778</v>
+        <v>62.9777777778</v>
       </c>
       <c r="I54" t="n">
-        <v>62.1455555555556</v>
+        <v>62.1455555556</v>
       </c>
       <c r="J54" t="n">
-        <v>61.3133333333333</v>
+        <v>61.3133333333</v>
       </c>
       <c r="K54" t="n">
-        <v>60.4811111111111</v>
+        <v>60.4811111111</v>
       </c>
       <c r="L54" t="n">
-        <v>59.6488888888889</v>
+        <v>59.6488888889</v>
       </c>
       <c r="M54" t="n">
-        <v>58.8166666666667</v>
+        <v>58.8166666667</v>
       </c>
       <c r="N54" t="n">
-        <v>57.9844444444444</v>
+        <v>57.9844444444</v>
       </c>
       <c r="O54" t="n">
-        <v>57.1522222222222</v>
+        <v>57.1522222222</v>
       </c>
       <c r="P54" t="n">
         <v>56.32</v>
@@ -58974,28 +58974,28 @@
         <v>65.33</v>
       </c>
       <c r="G55" t="n">
-        <v>63.5044444444444</v>
+        <v>63.5044444444</v>
       </c>
       <c r="H55" t="n">
-        <v>61.6788888888889</v>
+        <v>61.6788888889</v>
       </c>
       <c r="I55" t="n">
-        <v>59.8533333333333</v>
+        <v>59.8533333333</v>
       </c>
       <c r="J55" t="n">
-        <v>58.0277777777778</v>
+        <v>58.0277777778</v>
       </c>
       <c r="K55" t="n">
-        <v>56.2022222222222</v>
+        <v>56.2022222222</v>
       </c>
       <c r="L55" t="n">
-        <v>54.3766666666667</v>
+        <v>54.3766666667</v>
       </c>
       <c r="M55" t="n">
-        <v>52.5511111111111</v>
+        <v>52.5511111111</v>
       </c>
       <c r="N55" t="n">
-        <v>50.7255555555556</v>
+        <v>50.7255555556</v>
       </c>
       <c r="O55" t="n">
         <v>48.9</v>
@@ -59026,19 +59026,19 @@
         <v>6.91</v>
       </c>
       <c r="F56" t="n">
-        <v>7.20833333333333</v>
+        <v>7.2083333333</v>
       </c>
       <c r="G56" t="n">
-        <v>7.50666666666667</v>
+        <v>7.5066666667</v>
       </c>
       <c r="H56" t="n">
         <v>7.805</v>
       </c>
       <c r="I56" t="n">
-        <v>8.10333333333333</v>
+        <v>8.1033333333</v>
       </c>
       <c r="J56" t="n">
-        <v>8.40166666666667</v>
+        <v>8.4016666667</v>
       </c>
       <c r="K56" t="n">
         <v>8.7</v>
@@ -59257,34 +59257,34 @@
         <v>49.4</v>
       </c>
       <c r="G60" t="n">
-        <v>48.6945454545455</v>
+        <v>48.6945454545</v>
       </c>
       <c r="H60" t="n">
-        <v>47.9890909090909</v>
+        <v>47.9890909091</v>
       </c>
       <c r="I60" t="n">
-        <v>47.2836363636364</v>
+        <v>47.2836363636</v>
       </c>
       <c r="J60" t="n">
-        <v>46.5781818181818</v>
+        <v>46.5781818182</v>
       </c>
       <c r="K60" t="n">
-        <v>45.8727272727273</v>
+        <v>45.8727272727</v>
       </c>
       <c r="L60" t="n">
-        <v>45.1672727272727</v>
+        <v>45.1672727273</v>
       </c>
       <c r="M60" t="n">
-        <v>44.4618181818182</v>
+        <v>44.4618181818</v>
       </c>
       <c r="N60" t="n">
-        <v>43.7563636363636</v>
+        <v>43.7563636364</v>
       </c>
       <c r="O60" t="n">
-        <v>43.0509090909091</v>
+        <v>43.0509090909</v>
       </c>
       <c r="P60" t="n">
-        <v>42.3454545454545</v>
+        <v>42.3454545455</v>
       </c>
       <c r="Q60" t="n">
         <v>41.64</v>
@@ -59305,10 +59305,10 @@
         <v>32.68</v>
       </c>
       <c r="W60" t="n">
-        <v>28.1547318942645</v>
+        <v>28.1547318943</v>
       </c>
       <c r="X60" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>
@@ -59325,19 +59325,19 @@
         <v>54.27</v>
       </c>
       <c r="D61" t="n">
-        <v>54.3133333333333</v>
+        <v>54.3133333333</v>
       </c>
       <c r="E61" t="n">
-        <v>54.3566666666667</v>
+        <v>54.3566666667</v>
       </c>
       <c r="F61" t="n">
         <v>54.4</v>
       </c>
       <c r="G61" t="n">
-        <v>50.7266666666667</v>
+        <v>50.7266666667</v>
       </c>
       <c r="H61" t="n">
-        <v>47.0533333333333</v>
+        <v>47.0533333333</v>
       </c>
       <c r="I61" t="n">
         <v>43.38</v>
@@ -59352,28 +59352,28 @@
         <v>47.7</v>
       </c>
       <c r="M61" t="n">
-        <v>41.5966666666667</v>
+        <v>41.5966666667</v>
       </c>
       <c r="N61" t="n">
-        <v>35.4933333333333</v>
+        <v>35.4933333333</v>
       </c>
       <c r="O61" t="n">
         <v>29.39</v>
       </c>
       <c r="P61" t="n">
-        <v>26.7766666666667</v>
+        <v>26.7766666667</v>
       </c>
       <c r="Q61" t="n">
-        <v>24.1633333333333</v>
+        <v>24.1633333333</v>
       </c>
       <c r="R61" t="n">
         <v>21.55</v>
       </c>
       <c r="S61" t="n">
-        <v>21.9366666666667</v>
+        <v>21.9366666667</v>
       </c>
       <c r="T61" t="n">
-        <v>22.3233333333333</v>
+        <v>22.3233333333</v>
       </c>
       <c r="U61" t="n">
         <v>22.71</v>
@@ -59426,22 +59426,22 @@
         <v>1.26</v>
       </c>
       <c r="L62" t="n">
-        <v>1.28714285714286</v>
+        <v>1.2871428571</v>
       </c>
       <c r="M62" t="n">
-        <v>1.31428571428571</v>
+        <v>1.3142857143</v>
       </c>
       <c r="N62" t="n">
-        <v>1.34142857142857</v>
+        <v>1.3414285714</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36857142857143</v>
+        <v>1.3685714286</v>
       </c>
       <c r="P62" t="n">
-        <v>1.39571428571429</v>
+        <v>1.3957142857</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.42285714285714</v>
+        <v>1.4228571429</v>
       </c>
       <c r="R62" t="n">
         <v>1.45</v>
@@ -59521,19 +59521,19 @@
         <v>3.82</v>
       </c>
       <c r="G64" t="n">
-        <v>3.13333333333333</v>
+        <v>3.1333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>2.44666666666667</v>
+        <v>2.4466666667</v>
       </c>
       <c r="I64" t="n">
         <v>1.76</v>
       </c>
       <c r="J64" t="n">
-        <v>1.61666666666667</v>
+        <v>1.6166666667</v>
       </c>
       <c r="K64" t="n">
-        <v>1.47333333333333</v>
+        <v>1.4733333333</v>
       </c>
       <c r="L64" t="n">
         <v>1.33</v>
@@ -59649,10 +59649,10 @@
         <v>4.21</v>
       </c>
       <c r="G66" t="n">
-        <v>4.46666666666667</v>
+        <v>4.4666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>4.72333333333333</v>
+        <v>4.7233333333</v>
       </c>
       <c r="I66" t="n">
         <v>4.98</v>
@@ -60232,10 +60232,10 @@
         <v>2.15</v>
       </c>
       <c r="G77" t="n">
-        <v>1.43333333333333</v>
+        <v>1.4333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0.716666666666667</v>
+        <v>0.7166666667</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -60431,22 +60431,22 @@
         <v>83.22</v>
       </c>
       <c r="K80" t="n">
-        <v>82.0385714285714</v>
+        <v>82.0385714286</v>
       </c>
       <c r="L80" t="n">
-        <v>80.8571428571429</v>
+        <v>80.8571428571</v>
       </c>
       <c r="M80" t="n">
-        <v>79.6757142857143</v>
+        <v>79.6757142857</v>
       </c>
       <c r="N80" t="n">
-        <v>78.4942857142857</v>
+        <v>78.4942857143</v>
       </c>
       <c r="O80" t="n">
-        <v>77.3128571428571</v>
+        <v>77.3128571429</v>
       </c>
       <c r="P80" t="n">
-        <v>76.1314285714286</v>
+        <v>76.1314285714</v>
       </c>
       <c r="Q80" t="n">
         <v>74.95</v>
@@ -60487,10 +60487,10 @@
         <v>1.63</v>
       </c>
       <c r="F81" t="n">
-        <v>1.78333333333333</v>
+        <v>1.7833333333</v>
       </c>
       <c r="G81" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="H81" t="n">
         <v>2.09</v>
@@ -60562,19 +60562,19 @@
         <v>25.59</v>
       </c>
       <c r="L82" t="n">
-        <v>21.5716666666667</v>
+        <v>21.5716666667</v>
       </c>
       <c r="M82" t="n">
-        <v>17.5533333333333</v>
+        <v>17.5533333333</v>
       </c>
       <c r="N82" t="n">
         <v>13.535</v>
       </c>
       <c r="O82" t="n">
-        <v>9.51666666666667</v>
+        <v>9.5166666667</v>
       </c>
       <c r="P82" t="n">
-        <v>5.49833333333333</v>
+        <v>5.4983333333</v>
       </c>
       <c r="Q82" t="n">
         <v>1.48</v>
@@ -60605,22 +60605,22 @@
         <v>85.92</v>
       </c>
       <c r="H83" t="n">
-        <v>82.3857142857143</v>
+        <v>82.3857142857</v>
       </c>
       <c r="I83" t="n">
-        <v>78.8514285714286</v>
+        <v>78.8514285714</v>
       </c>
       <c r="J83" t="n">
-        <v>75.3171428571429</v>
+        <v>75.3171428571</v>
       </c>
       <c r="K83" t="n">
-        <v>71.7828571428571</v>
+        <v>71.7828571429</v>
       </c>
       <c r="L83" t="n">
-        <v>68.2485714285714</v>
+        <v>68.2485714286</v>
       </c>
       <c r="M83" t="n">
-        <v>64.7142857142857</v>
+        <v>64.7142857143</v>
       </c>
       <c r="N83" t="n">
         <v>61.18</v>
@@ -60782,19 +60782,19 @@
         <v>0.21</v>
       </c>
       <c r="T86" t="n">
-        <v>0.246666666666667</v>
+        <v>0.2466666667</v>
       </c>
       <c r="U86" t="n">
-        <v>0.283333333333333</v>
+        <v>0.2833333333</v>
       </c>
       <c r="V86" t="n">
         <v>0.32</v>
       </c>
       <c r="W86" t="n">
-        <v>0.356666666666667</v>
+        <v>0.3566666667</v>
       </c>
       <c r="X86" t="n">
-        <v>0.393333333333333</v>
+        <v>0.3933333333</v>
       </c>
       <c r="Y86" t="n">
         <v>0.43</v>
@@ -61100,28 +61100,28 @@
         <v>6.76</v>
       </c>
       <c r="L92" t="n">
-        <v>6.59666666666667</v>
+        <v>6.5966666667</v>
       </c>
       <c r="M92" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4333333333</v>
       </c>
       <c r="N92" t="n">
         <v>6.27</v>
       </c>
       <c r="O92" t="n">
-        <v>5.65333333333333</v>
+        <v>5.6533333333</v>
       </c>
       <c r="P92" t="n">
-        <v>5.03666666666667</v>
+        <v>5.0366666667</v>
       </c>
       <c r="Q92" t="n">
         <v>4.42</v>
       </c>
       <c r="R92" t="n">
-        <v>3.80333333333333</v>
+        <v>3.8033333333</v>
       </c>
       <c r="S92" t="n">
-        <v>3.18666666666667</v>
+        <v>3.1866666667</v>
       </c>
       <c r="T92" t="n">
         <v>2.57</v>
@@ -61151,40 +61151,40 @@
         <v>80.59</v>
       </c>
       <c r="J93" t="n">
-        <v>79.6066666666667</v>
+        <v>79.6066666667</v>
       </c>
       <c r="K93" t="n">
-        <v>78.6233333333333</v>
+        <v>78.6233333333</v>
       </c>
       <c r="L93" t="n">
         <v>77.64</v>
       </c>
       <c r="M93" t="n">
-        <v>76.6566666666667</v>
+        <v>76.6566666667</v>
       </c>
       <c r="N93" t="n">
-        <v>75.6733333333333</v>
+        <v>75.6733333333</v>
       </c>
       <c r="O93" t="n">
         <v>74.69</v>
       </c>
       <c r="P93" t="n">
-        <v>72.6928571428571</v>
+        <v>72.6928571429</v>
       </c>
       <c r="Q93" t="n">
-        <v>70.6957142857143</v>
+        <v>70.6957142857</v>
       </c>
       <c r="R93" t="n">
-        <v>68.6985714285714</v>
+        <v>68.6985714286</v>
       </c>
       <c r="S93" t="n">
-        <v>66.7014285714286</v>
+        <v>66.7014285714</v>
       </c>
       <c r="T93" t="n">
-        <v>64.7042857142857</v>
+        <v>64.7042857143</v>
       </c>
       <c r="U93" t="n">
-        <v>62.7071428571429</v>
+        <v>62.7071428571</v>
       </c>
       <c r="V93" t="n">
         <v>60.71</v>
@@ -61242,34 +61242,34 @@
         <v>49.14</v>
       </c>
       <c r="G95" t="n">
-        <v>47.5736363636364</v>
+        <v>47.5736363636</v>
       </c>
       <c r="H95" t="n">
-        <v>46.0072727272727</v>
+        <v>46.0072727273</v>
       </c>
       <c r="I95" t="n">
-        <v>44.4409090909091</v>
+        <v>44.4409090909</v>
       </c>
       <c r="J95" t="n">
-        <v>42.8745454545455</v>
+        <v>42.8745454545</v>
       </c>
       <c r="K95" t="n">
-        <v>41.3081818181818</v>
+        <v>41.3081818182</v>
       </c>
       <c r="L95" t="n">
-        <v>39.7418181818182</v>
+        <v>39.7418181818</v>
       </c>
       <c r="M95" t="n">
-        <v>38.1754545454545</v>
+        <v>38.1754545455</v>
       </c>
       <c r="N95" t="n">
-        <v>36.6090909090909</v>
+        <v>36.6090909091</v>
       </c>
       <c r="O95" t="n">
-        <v>35.0427272727273</v>
+        <v>35.0427272727</v>
       </c>
       <c r="P95" t="n">
-        <v>33.4763636363636</v>
+        <v>33.4763636364</v>
       </c>
       <c r="Q95" t="n">
         <v>31.91</v>
@@ -61335,22 +61335,22 @@
         <v>53.13</v>
       </c>
       <c r="Q96" t="n">
-        <v>48.9314285714286</v>
+        <v>48.9314285714</v>
       </c>
       <c r="R96" t="n">
-        <v>44.7328571428571</v>
+        <v>44.7328571429</v>
       </c>
       <c r="S96" t="n">
-        <v>40.5342857142857</v>
+        <v>40.5342857143</v>
       </c>
       <c r="T96" t="n">
-        <v>36.3357142857143</v>
+        <v>36.3357142857</v>
       </c>
       <c r="U96" t="n">
-        <v>32.1371428571429</v>
+        <v>32.1371428571</v>
       </c>
       <c r="V96" t="n">
-        <v>27.9385714285714</v>
+        <v>27.9385714286</v>
       </c>
       <c r="W96" t="n">
         <v>23.74</v>
@@ -61446,34 +61446,34 @@
         <v>78.17</v>
       </c>
       <c r="H98" t="n">
-        <v>75.7227272727273</v>
+        <v>75.7227272727</v>
       </c>
       <c r="I98" t="n">
-        <v>73.2754545454546</v>
+        <v>73.2754545455</v>
       </c>
       <c r="J98" t="n">
-        <v>70.8281818181818</v>
+        <v>70.8281818182</v>
       </c>
       <c r="K98" t="n">
-        <v>68.3809090909091</v>
+        <v>68.3809090909</v>
       </c>
       <c r="L98" t="n">
-        <v>65.9336363636364</v>
+        <v>65.9336363636</v>
       </c>
       <c r="M98" t="n">
-        <v>63.4863636363636</v>
+        <v>63.4863636364</v>
       </c>
       <c r="N98" t="n">
-        <v>61.0390909090909</v>
+        <v>61.0390909091</v>
       </c>
       <c r="O98" t="n">
-        <v>58.5918181818182</v>
+        <v>58.5918181818</v>
       </c>
       <c r="P98" t="n">
-        <v>56.1445454545455</v>
+        <v>56.1445454545</v>
       </c>
       <c r="Q98" t="n">
-        <v>53.6972727272727</v>
+        <v>53.6972727273</v>
       </c>
       <c r="R98" t="n">
         <v>51.25</v>
@@ -61549,19 +61549,19 @@
         <v>61.84</v>
       </c>
       <c r="R99" t="n">
-        <v>61.8716666666667</v>
+        <v>61.8716666667</v>
       </c>
       <c r="S99" t="n">
-        <v>61.9033333333333</v>
+        <v>61.9033333333</v>
       </c>
       <c r="T99" t="n">
         <v>61.935</v>
       </c>
       <c r="U99" t="n">
-        <v>61.9666666666667</v>
+        <v>61.9666666667</v>
       </c>
       <c r="V99" t="n">
-        <v>61.9983333333333</v>
+        <v>61.9983333333</v>
       </c>
       <c r="W99" t="n">
         <v>62.03</v>
@@ -61582,19 +61582,19 @@
         <v>64.71</v>
       </c>
       <c r="D100" t="n">
-        <v>61.9483333333333</v>
+        <v>61.9483333333</v>
       </c>
       <c r="E100" t="n">
-        <v>59.1866666666667</v>
+        <v>59.1866666667</v>
       </c>
       <c r="F100" t="n">
         <v>56.425</v>
       </c>
       <c r="G100" t="n">
-        <v>53.6633333333333</v>
+        <v>53.6633333333</v>
       </c>
       <c r="H100" t="n">
-        <v>50.9016666666667</v>
+        <v>50.9016666667</v>
       </c>
       <c r="I100" t="n">
         <v>48.14</v>
@@ -61606,19 +61606,19 @@
         <v>29.05</v>
       </c>
       <c r="L100" t="n">
-        <v>31.3233333333333</v>
+        <v>31.3233333333</v>
       </c>
       <c r="M100" t="n">
-        <v>33.5966666666667</v>
+        <v>33.5966666667</v>
       </c>
       <c r="N100" t="n">
         <v>35.87</v>
       </c>
       <c r="O100" t="n">
-        <v>31.4433333333333</v>
+        <v>31.4433333333</v>
       </c>
       <c r="P100" t="n">
-        <v>27.0166666666667</v>
+        <v>27.0166666667</v>
       </c>
       <c r="Q100" t="n">
         <v>22.59</v>
@@ -61930,10 +61930,10 @@
         <v>9.81</v>
       </c>
       <c r="H106" t="n">
-        <v>6.86333333333333</v>
+        <v>6.8633333333</v>
       </c>
       <c r="I106" t="n">
-        <v>3.91666666666667</v>
+        <v>3.9166666667</v>
       </c>
       <c r="J106" t="n">
         <v>0.97</v>
@@ -62016,10 +62016,10 @@
         <v>23.7</v>
       </c>
       <c r="K107" t="n">
-        <v>23.9966666666667</v>
+        <v>23.9966666667</v>
       </c>
       <c r="L107" t="n">
-        <v>24.2933333333333</v>
+        <v>24.2933333333</v>
       </c>
       <c r="M107" t="n">
         <v>24.59</v>
@@ -62043,19 +62043,19 @@
         <v>22.58</v>
       </c>
       <c r="T107" t="n">
-        <v>21.0866666666667</v>
+        <v>21.0866666667</v>
       </c>
       <c r="U107" t="n">
-        <v>19.5933333333333</v>
+        <v>19.5933333333</v>
       </c>
       <c r="V107" t="n">
         <v>18.1</v>
       </c>
       <c r="W107" t="n">
-        <v>18.3866666666667</v>
+        <v>18.3866666667</v>
       </c>
       <c r="X107" t="n">
-        <v>18.6733333333333</v>
+        <v>18.6733333333</v>
       </c>
       <c r="Y107" t="n">
         <v>18.96</v>
@@ -62225,10 +62225,10 @@
         <v>1.5</v>
       </c>
       <c r="G110" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="H110" t="n">
-        <v>2.37333333333333</v>
+        <v>2.3733333333</v>
       </c>
       <c r="I110" t="n">
         <v>2.81</v>
@@ -62299,19 +62299,19 @@
         <v>79.37</v>
       </c>
       <c r="N111" t="n">
-        <v>78.1366666666667</v>
+        <v>78.1366666667</v>
       </c>
       <c r="O111" t="n">
-        <v>76.9033333333333</v>
+        <v>76.9033333333</v>
       </c>
       <c r="P111" t="n">
         <v>75.67</v>
       </c>
       <c r="Q111" t="n">
-        <v>74.4366666666667</v>
+        <v>74.4366666667</v>
       </c>
       <c r="R111" t="n">
-        <v>73.2033333333333</v>
+        <v>73.2033333333</v>
       </c>
       <c r="S111" t="n">
         <v>71.97</v>
@@ -62536,31 +62536,31 @@
         <v>65.71</v>
       </c>
       <c r="E117" t="n">
-        <v>61.6366666666667</v>
+        <v>61.6366666667</v>
       </c>
       <c r="F117" t="n">
-        <v>57.5633333333333</v>
+        <v>57.5633333333</v>
       </c>
       <c r="G117" t="n">
         <v>53.49</v>
       </c>
       <c r="H117" t="n">
-        <v>52.1528571428571</v>
+        <v>52.1528571429</v>
       </c>
       <c r="I117" t="n">
-        <v>50.8157142857143</v>
+        <v>50.8157142857</v>
       </c>
       <c r="J117" t="n">
-        <v>49.4785714285714</v>
+        <v>49.4785714286</v>
       </c>
       <c r="K117" t="n">
-        <v>48.1414285714286</v>
+        <v>48.1414285714</v>
       </c>
       <c r="L117" t="n">
-        <v>46.8042857142857</v>
+        <v>46.8042857143</v>
       </c>
       <c r="M117" t="n">
-        <v>45.4671428571429</v>
+        <v>45.4671428571</v>
       </c>
       <c r="N117" t="n">
         <v>44.13</v>
@@ -62578,19 +62578,19 @@
         <v>33.5</v>
       </c>
       <c r="S117" t="n">
-        <v>33.5933333333333</v>
+        <v>33.5933333333</v>
       </c>
       <c r="T117" t="n">
-        <v>33.6866666666667</v>
+        <v>33.6866666667</v>
       </c>
       <c r="U117" t="n">
         <v>33.78</v>
       </c>
       <c r="V117" t="n">
-        <v>33.8733333333333</v>
+        <v>33.8733333333</v>
       </c>
       <c r="W117" t="n">
-        <v>33.9666666666667</v>
+        <v>33.9666666667</v>
       </c>
       <c r="X117" t="n">
         <v>34.06</v>
@@ -62670,22 +62670,22 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.0357142857</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0714285714</v>
       </c>
       <c r="O119" t="n">
-        <v>0.107142857142857</v>
+        <v>0.1071428571</v>
       </c>
       <c r="P119" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1428571429</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.178571428571429</v>
+        <v>0.1785714286</v>
       </c>
       <c r="R119" t="n">
-        <v>0.214285714285714</v>
+        <v>0.2142857143</v>
       </c>
       <c r="S119" t="n">
         <v>0.25</v>
@@ -62975,10 +62975,10 @@
         <v>16.72</v>
       </c>
       <c r="T125" t="n">
-        <v>15.7033333333333</v>
+        <v>15.7033333333</v>
       </c>
       <c r="U125" t="n">
-        <v>14.6866666666667</v>
+        <v>14.6866666667</v>
       </c>
       <c r="V125" t="n">
         <v>13.67</v>
@@ -63052,22 +63052,22 @@
         <v>16.32</v>
       </c>
       <c r="I127" t="n">
-        <v>15.9814285714286</v>
+        <v>15.9814285714</v>
       </c>
       <c r="J127" t="n">
-        <v>15.6428571428571</v>
+        <v>15.6428571429</v>
       </c>
       <c r="K127" t="n">
-        <v>15.3042857142857</v>
+        <v>15.3042857143</v>
       </c>
       <c r="L127" t="n">
-        <v>14.9657142857143</v>
+        <v>14.9657142857</v>
       </c>
       <c r="M127" t="n">
-        <v>14.6271428571429</v>
+        <v>14.6271428571</v>
       </c>
       <c r="N127" t="n">
-        <v>14.2885714285714</v>
+        <v>14.2885714286</v>
       </c>
       <c r="O127" t="n">
         <v>13.95</v>
@@ -63085,10 +63085,10 @@
         <v>7.04</v>
       </c>
       <c r="T127" t="n">
-        <v>6.06333333333333</v>
+        <v>6.0633333333</v>
       </c>
       <c r="U127" t="n">
-        <v>5.08666666666667</v>
+        <v>5.0866666667</v>
       </c>
       <c r="V127" t="n">
         <v>4.11</v>
@@ -63184,46 +63184,46 @@
         <v>78.59</v>
       </c>
       <c r="H130" t="n">
-        <v>72.6616666666667</v>
+        <v>72.6616666667</v>
       </c>
       <c r="I130" t="n">
-        <v>66.7333333333333</v>
+        <v>66.7333333333</v>
       </c>
       <c r="J130" t="n">
         <v>60.805</v>
       </c>
       <c r="K130" t="n">
-        <v>54.8766666666667</v>
+        <v>54.8766666667</v>
       </c>
       <c r="L130" t="n">
-        <v>48.9483333333333</v>
+        <v>48.9483333333</v>
       </c>
       <c r="M130" t="n">
         <v>43.02</v>
       </c>
       <c r="N130" t="n">
-        <v>42.6066666666667</v>
+        <v>42.6066666667</v>
       </c>
       <c r="O130" t="n">
-        <v>42.1933333333333</v>
+        <v>42.1933333333</v>
       </c>
       <c r="P130" t="n">
         <v>41.78</v>
       </c>
       <c r="Q130" t="n">
-        <v>41.3666666666667</v>
+        <v>41.3666666667</v>
       </c>
       <c r="R130" t="n">
-        <v>40.9533333333333</v>
+        <v>40.9533333333</v>
       </c>
       <c r="S130" t="n">
         <v>40.54</v>
       </c>
       <c r="T130" t="n">
-        <v>40.1266666666667</v>
+        <v>40.1266666667</v>
       </c>
       <c r="U130" t="n">
-        <v>39.7133333333333</v>
+        <v>39.7133333333</v>
       </c>
       <c r="V130" t="n">
         <v>39.3</v>
@@ -63361,22 +63361,22 @@
         <v>84.23</v>
       </c>
       <c r="N133" t="n">
-        <v>81.8928571428572</v>
+        <v>81.8928571429</v>
       </c>
       <c r="O133" t="n">
-        <v>79.5557142857143</v>
+        <v>79.5557142857</v>
       </c>
       <c r="P133" t="n">
-        <v>77.2185714285714</v>
+        <v>77.2185714286</v>
       </c>
       <c r="Q133" t="n">
-        <v>74.8814285714286</v>
+        <v>74.8814285714</v>
       </c>
       <c r="R133" t="n">
-        <v>72.5442857142857</v>
+        <v>72.5442857143</v>
       </c>
       <c r="S133" t="n">
-        <v>70.2071428571429</v>
+        <v>70.2071428571</v>
       </c>
       <c r="T133" t="n">
         <v>67.87</v>
@@ -63869,28 +63869,28 @@
         <v>63.01</v>
       </c>
       <c r="J143" t="n">
-        <v>61.8166666666667</v>
+        <v>61.8166666667</v>
       </c>
       <c r="K143" t="n">
-        <v>60.6233333333333</v>
+        <v>60.6233333333</v>
       </c>
       <c r="L143" t="n">
         <v>59.43</v>
       </c>
       <c r="M143" t="n">
-        <v>58.4766666666667</v>
+        <v>58.4766666667</v>
       </c>
       <c r="N143" t="n">
-        <v>57.5233333333333</v>
+        <v>57.5233333333</v>
       </c>
       <c r="O143" t="n">
         <v>56.57</v>
       </c>
       <c r="P143" t="n">
-        <v>54.9533333333333</v>
+        <v>54.9533333333</v>
       </c>
       <c r="Q143" t="n">
-        <v>53.3366666666667</v>
+        <v>53.3366666667</v>
       </c>
       <c r="R143" t="n">
         <v>51.72</v>
@@ -63908,10 +63908,10 @@
         <v>37.91</v>
       </c>
       <c r="W143" t="n">
-        <v>37.8666666666667</v>
+        <v>37.8666666667</v>
       </c>
       <c r="X143" t="n">
-        <v>37.8233333333333</v>
+        <v>37.8233333333</v>
       </c>
       <c r="Y143" t="n">
         <v>37.78</v>
@@ -63932,10 +63932,10 @@
         <v>0.03</v>
       </c>
       <c r="F144" t="n">
-        <v>0.673333333333333</v>
+        <v>0.6733333333</v>
       </c>
       <c r="G144" t="n">
-        <v>1.31666666666667</v>
+        <v>1.3166666667</v>
       </c>
       <c r="H144" t="n">
         <v>1.96</v>
@@ -63944,19 +63944,19 @@
         <v>1.93</v>
       </c>
       <c r="J144" t="n">
-        <v>1.96333333333333</v>
+        <v>1.9633333333</v>
       </c>
       <c r="K144" t="n">
-        <v>1.99666666666667</v>
+        <v>1.9966666667</v>
       </c>
       <c r="L144" t="n">
         <v>2.03</v>
       </c>
       <c r="M144" t="n">
-        <v>1.49333333333333</v>
+        <v>1.4933333333</v>
       </c>
       <c r="N144" t="n">
-        <v>0.956666666666667</v>
+        <v>0.9566666667</v>
       </c>
       <c r="O144" t="n">
         <v>0.42</v>
@@ -64003,10 +64003,10 @@
         <v>0.9</v>
       </c>
       <c r="F145" t="n">
-        <v>0.783333333333333</v>
+        <v>0.7833333333</v>
       </c>
       <c r="G145" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0.55</v>
@@ -64153,10 +64153,10 @@
         <v>9.56</v>
       </c>
       <c r="I148" t="n">
-        <v>9.66666666666667</v>
+        <v>9.6666666667</v>
       </c>
       <c r="J148" t="n">
-        <v>9.77333333333333</v>
+        <v>9.7733333333</v>
       </c>
       <c r="K148" t="n">
         <v>9.88</v>
@@ -64286,22 +64286,22 @@
         <v>10.47</v>
       </c>
       <c r="L150" t="n">
-        <v>10.3714285714286</v>
+        <v>10.3714285714</v>
       </c>
       <c r="M150" t="n">
-        <v>10.2728571428571</v>
+        <v>10.2728571429</v>
       </c>
       <c r="N150" t="n">
-        <v>10.1742857142857</v>
+        <v>10.1742857143</v>
       </c>
       <c r="O150" t="n">
-        <v>10.0757142857143</v>
+        <v>10.0757142857</v>
       </c>
       <c r="P150" t="n">
-        <v>9.97714285714286</v>
+        <v>9.9771428571</v>
       </c>
       <c r="Q150" t="n">
-        <v>9.87857142857143</v>
+        <v>9.8785714286</v>
       </c>
       <c r="R150" t="n">
         <v>9.78</v>
@@ -64334,10 +64334,10 @@
         <v>65.27</v>
       </c>
       <c r="G151" t="n">
-        <v>64.2033333333333</v>
+        <v>64.2033333333</v>
       </c>
       <c r="H151" t="n">
-        <v>63.1366666666667</v>
+        <v>63.1366666667</v>
       </c>
       <c r="I151" t="n">
         <v>62.07</v>
@@ -67216,7 +67216,7 @@
       </c>
       <c r="W60"/>
       <c r="X60" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>

--- a/user-data/poverty-125/poverty-125.xlsx
+++ b/user-data/poverty-125/poverty-125.xlsx
@@ -59,7 +59,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -119,7 +119,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -707,7 +707,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -719,7 +719,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -851,7 +851,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1055,7 +1055,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8882,12 +8882,8 @@
       <c r="C505" t="n">
         <v>1993</v>
       </c>
-      <c r="D505" t="n">
-        <v>26.47</v>
-      </c>
-      <c r="E505" t="n">
-        <v>26.47</v>
-      </c>
+      <c r="D505"/>
+      <c r="E505"/>
     </row>
     <row r="506">
       <c r="A506" t="s">
@@ -8900,9 +8896,11 @@
         <v>1994</v>
       </c>
       <c r="D506" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="E506"/>
+        <v>44.5</v>
+      </c>
+      <c r="E506" t="n">
+        <v>44.5</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8915,11 +8913,9 @@
         <v>1995</v>
       </c>
       <c r="D507" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="E507" t="n">
-        <v>21.09</v>
-      </c>
+        <v>43.327</v>
+      </c>
+      <c r="E507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8932,7 +8928,7 @@
         <v>1996</v>
       </c>
       <c r="D508" t="n">
-        <v>24.08</v>
+        <v>42.154</v>
       </c>
       <c r="E508"/>
     </row>
@@ -8947,7 +8943,7 @@
         <v>1997</v>
       </c>
       <c r="D509" t="n">
-        <v>27.07</v>
+        <v>40.981</v>
       </c>
       <c r="E509"/>
     </row>
@@ -8962,11 +8958,9 @@
         <v>1998</v>
       </c>
       <c r="D510" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="E510" t="n">
-        <v>30.06</v>
-      </c>
+        <v>39.808</v>
+      </c>
+      <c r="E510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8979,7 +8973,7 @@
         <v>1999</v>
       </c>
       <c r="D511" t="n">
-        <v>29.96</v>
+        <v>38.635</v>
       </c>
       <c r="E511"/>
     </row>
@@ -8994,7 +8988,7 @@
         <v>2000</v>
       </c>
       <c r="D512" t="n">
-        <v>29.86</v>
+        <v>37.462</v>
       </c>
       <c r="E512"/>
     </row>
@@ -9009,7 +9003,7 @@
         <v>2001</v>
       </c>
       <c r="D513" t="n">
-        <v>29.76</v>
+        <v>36.289</v>
       </c>
       <c r="E513"/>
     </row>
@@ -9024,11 +9018,9 @@
         <v>2002</v>
       </c>
       <c r="D514" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="E514" t="n">
-        <v>29.66</v>
-      </c>
+        <v>35.116</v>
+      </c>
+      <c r="E514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -9041,7 +9033,7 @@
         <v>2003</v>
       </c>
       <c r="D515" t="n">
-        <v>30.5566666666667</v>
+        <v>33.943</v>
       </c>
       <c r="E515"/>
     </row>
@@ -9056,9 +9048,11 @@
         <v>2004</v>
       </c>
       <c r="D516" t="n">
-        <v>31.4533333333333</v>
-      </c>
-      <c r="E516"/>
+        <v>32.77</v>
+      </c>
+      <c r="E516" t="n">
+        <v>32.77</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -9071,7 +9065,7 @@
         <v>2005</v>
       </c>
       <c r="D517" t="n">
-        <v>32.35</v>
+        <v>32.12</v>
       </c>
       <c r="E517"/>
     </row>
@@ -9086,7 +9080,7 @@
         <v>2006</v>
       </c>
       <c r="D518" t="n">
-        <v>33.2466666666667</v>
+        <v>31.47</v>
       </c>
       <c r="E518"/>
     </row>
@@ -9101,9 +9095,11 @@
         <v>2007</v>
       </c>
       <c r="D519" t="n">
-        <v>34.1433333333333</v>
-      </c>
-      <c r="E519"/>
+        <v>30.82</v>
+      </c>
+      <c r="E519" t="n">
+        <v>30.82</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -9116,10 +9112,10 @@
         <v>2008</v>
       </c>
       <c r="D520" t="n">
-        <v>35.04</v>
+        <v>20.89</v>
       </c>
       <c r="E520" t="n">
-        <v>35.04</v>
+        <v>20.89</v>
       </c>
     </row>
     <row r="521">
@@ -9132,8 +9128,12 @@
       <c r="C521" t="n">
         <v>2009</v>
       </c>
-      <c r="D521"/>
-      <c r="E521"/>
+      <c r="D521" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="E521" t="n">
+        <v>12.93</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -9145,8 +9145,12 @@
       <c r="C522" t="n">
         <v>2010</v>
       </c>
-      <c r="D522"/>
-      <c r="E522"/>
+      <c r="D522" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E522" t="n">
+        <v>11.25</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9158,8 +9162,12 @@
       <c r="C523" t="n">
         <v>2011</v>
       </c>
-      <c r="D523"/>
-      <c r="E523"/>
+      <c r="D523" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="E523" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9262,12 +9270,8 @@
       <c r="C531" t="n">
         <v>1994</v>
       </c>
-      <c r="D531" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="E531" t="n">
-        <v>44.5</v>
-      </c>
+      <c r="D531"/>
+      <c r="E531"/>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9279,9 +9283,7 @@
       <c r="C532" t="n">
         <v>1995</v>
       </c>
-      <c r="D532" t="n">
-        <v>43.327</v>
-      </c>
+      <c r="D532"/>
       <c r="E532"/>
     </row>
     <row r="533">
@@ -9295,9 +9297,11 @@
         <v>1996</v>
       </c>
       <c r="D533" t="n">
-        <v>42.154</v>
-      </c>
-      <c r="E533"/>
+        <v>47.43</v>
+      </c>
+      <c r="E533" t="n">
+        <v>47.43</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9310,7 +9314,7 @@
         <v>1997</v>
       </c>
       <c r="D534" t="n">
-        <v>40.981</v>
+        <v>42.916</v>
       </c>
       <c r="E534"/>
     </row>
@@ -9325,7 +9329,7 @@
         <v>1998</v>
       </c>
       <c r="D535" t="n">
-        <v>39.808</v>
+        <v>38.402</v>
       </c>
       <c r="E535"/>
     </row>
@@ -9340,7 +9344,7 @@
         <v>1999</v>
       </c>
       <c r="D536" t="n">
-        <v>38.635</v>
+        <v>33.888</v>
       </c>
       <c r="E536"/>
     </row>
@@ -9355,7 +9359,7 @@
         <v>2000</v>
       </c>
       <c r="D537" t="n">
-        <v>37.462</v>
+        <v>29.374</v>
       </c>
       <c r="E537"/>
     </row>
@@ -9370,9 +9374,11 @@
         <v>2001</v>
       </c>
       <c r="D538" t="n">
-        <v>36.289</v>
-      </c>
-      <c r="E538"/>
+        <v>24.86</v>
+      </c>
+      <c r="E538" t="n">
+        <v>24.86</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
@@ -9385,7 +9391,7 @@
         <v>2002</v>
       </c>
       <c r="D539" t="n">
-        <v>35.116</v>
+        <v>25.3183333333333</v>
       </c>
       <c r="E539"/>
     </row>
@@ -9400,7 +9406,7 @@
         <v>2003</v>
       </c>
       <c r="D540" t="n">
-        <v>33.943</v>
+        <v>25.7766666666667</v>
       </c>
       <c r="E540"/>
     </row>
@@ -9415,11 +9421,9 @@
         <v>2004</v>
       </c>
       <c r="D541" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="E541" t="n">
-        <v>32.77</v>
-      </c>
+        <v>26.235</v>
+      </c>
+      <c r="E541"/>
     </row>
     <row r="542">
       <c r="A542" t="s">
@@ -9432,7 +9436,7 @@
         <v>2005</v>
       </c>
       <c r="D542" t="n">
-        <v>32.12</v>
+        <v>26.6933333333333</v>
       </c>
       <c r="E542"/>
     </row>
@@ -9447,7 +9451,7 @@
         <v>2006</v>
       </c>
       <c r="D543" t="n">
-        <v>31.47</v>
+        <v>27.1516666666667</v>
       </c>
       <c r="E543"/>
     </row>
@@ -9462,10 +9466,10 @@
         <v>2007</v>
       </c>
       <c r="D544" t="n">
-        <v>30.82</v>
+        <v>27.61</v>
       </c>
       <c r="E544" t="n">
-        <v>30.82</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="545">
@@ -9478,12 +9482,8 @@
       <c r="C545" t="n">
         <v>2008</v>
       </c>
-      <c r="D545" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="E545" t="n">
-        <v>20.89</v>
-      </c>
+      <c r="D545"/>
+      <c r="E545"/>
     </row>
     <row r="546">
       <c r="A546" t="s">
@@ -9495,12 +9495,8 @@
       <c r="C546" t="n">
         <v>2009</v>
       </c>
-      <c r="D546" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="E546" t="n">
-        <v>12.93</v>
-      </c>
+      <c r="D546"/>
+      <c r="E546"/>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -9512,12 +9508,8 @@
       <c r="C547" t="n">
         <v>2010</v>
       </c>
-      <c r="D547" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="E547" t="n">
-        <v>11.25</v>
-      </c>
+      <c r="D547"/>
+      <c r="E547"/>
     </row>
     <row r="548">
       <c r="A548" t="s">
@@ -9529,12 +9521,8 @@
       <c r="C548" t="n">
         <v>2011</v>
       </c>
-      <c r="D548" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="E548" t="n">
-        <v>10.05</v>
-      </c>
+      <c r="D548"/>
+      <c r="E548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -9663,12 +9651,8 @@
       <c r="C558" t="n">
         <v>1996</v>
       </c>
-      <c r="D558" t="n">
-        <v>47.43</v>
-      </c>
-      <c r="E558" t="n">
-        <v>47.43</v>
-      </c>
+      <c r="D558"/>
+      <c r="E558"/>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -9680,9 +9664,7 @@
       <c r="C559" t="n">
         <v>1997</v>
       </c>
-      <c r="D559" t="n">
-        <v>42.916</v>
-      </c>
+      <c r="D559"/>
       <c r="E559"/>
     </row>
     <row r="560">
@@ -9695,9 +9677,7 @@
       <c r="C560" t="n">
         <v>1998</v>
       </c>
-      <c r="D560" t="n">
-        <v>38.402</v>
-      </c>
+      <c r="D560"/>
       <c r="E560"/>
     </row>
     <row r="561">
@@ -9710,9 +9690,7 @@
       <c r="C561" t="n">
         <v>1999</v>
       </c>
-      <c r="D561" t="n">
-        <v>33.888</v>
-      </c>
+      <c r="D561"/>
       <c r="E561"/>
     </row>
     <row r="562">
@@ -9725,9 +9703,7 @@
       <c r="C562" t="n">
         <v>2000</v>
       </c>
-      <c r="D562" t="n">
-        <v>29.374</v>
-      </c>
+      <c r="D562"/>
       <c r="E562"/>
     </row>
     <row r="563">
@@ -9740,12 +9716,8 @@
       <c r="C563" t="n">
         <v>2001</v>
       </c>
-      <c r="D563" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="E563" t="n">
-        <v>24.86</v>
-      </c>
+      <c r="D563"/>
+      <c r="E563"/>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -9758,9 +9730,11 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>25.3183333333333</v>
-      </c>
-      <c r="E564"/>
+        <v>21.02</v>
+      </c>
+      <c r="E564" t="n">
+        <v>21.02</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -9773,7 +9747,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>25.7766666666667</v>
+        <v>19.56</v>
       </c>
       <c r="E565"/>
     </row>
@@ -9788,7 +9762,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>26.235</v>
+        <v>18.1</v>
       </c>
       <c r="E566"/>
     </row>
@@ -9803,7 +9777,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>26.6933333333333</v>
+        <v>16.64</v>
       </c>
       <c r="E567"/>
     </row>
@@ -9818,7 +9792,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>27.1516666666667</v>
+        <v>15.18</v>
       </c>
       <c r="E568"/>
     </row>
@@ -9833,10 +9807,10 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>27.61</v>
+        <v>13.72</v>
       </c>
       <c r="E569" t="n">
-        <v>27.61</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="570">
@@ -9966,8 +9940,12 @@
       <c r="C579" t="n">
         <v>1992</v>
       </c>
-      <c r="D579"/>
-      <c r="E579"/>
+      <c r="D579" t="n">
+        <v>83.15</v>
+      </c>
+      <c r="E579" t="n">
+        <v>83.15</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
@@ -9979,7 +9957,9 @@
       <c r="C580" t="n">
         <v>1993</v>
       </c>
-      <c r="D580"/>
+      <c r="D580" t="n">
+        <v>81.2663636363636</v>
+      </c>
       <c r="E580"/>
     </row>
     <row r="581">
@@ -9992,7 +9972,9 @@
       <c r="C581" t="n">
         <v>1994</v>
       </c>
-      <c r="D581"/>
+      <c r="D581" t="n">
+        <v>79.3827272727273</v>
+      </c>
       <c r="E581"/>
     </row>
     <row r="582">
@@ -10005,7 +9987,9 @@
       <c r="C582" t="n">
         <v>1995</v>
       </c>
-      <c r="D582"/>
+      <c r="D582" t="n">
+        <v>77.4990909090909</v>
+      </c>
       <c r="E582"/>
     </row>
     <row r="583">
@@ -10018,7 +10002,9 @@
       <c r="C583" t="n">
         <v>1996</v>
       </c>
-      <c r="D583"/>
+      <c r="D583" t="n">
+        <v>75.6154545454546</v>
+      </c>
       <c r="E583"/>
     </row>
     <row r="584">
@@ -10031,7 +10017,9 @@
       <c r="C584" t="n">
         <v>1997</v>
       </c>
-      <c r="D584"/>
+      <c r="D584" t="n">
+        <v>73.7318181818182</v>
+      </c>
       <c r="E584"/>
     </row>
     <row r="585">
@@ -10044,7 +10032,9 @@
       <c r="C585" t="n">
         <v>1998</v>
       </c>
-      <c r="D585"/>
+      <c r="D585" t="n">
+        <v>71.8481818181818</v>
+      </c>
       <c r="E585"/>
     </row>
     <row r="586">
@@ -10057,7 +10047,9 @@
       <c r="C586" t="n">
         <v>1999</v>
       </c>
-      <c r="D586"/>
+      <c r="D586" t="n">
+        <v>69.9645454545455</v>
+      </c>
       <c r="E586"/>
     </row>
     <row r="587">
@@ -10070,7 +10062,9 @@
       <c r="C587" t="n">
         <v>2000</v>
       </c>
-      <c r="D587"/>
+      <c r="D587" t="n">
+        <v>68.0809090909091</v>
+      </c>
       <c r="E587"/>
     </row>
     <row r="588">
@@ -10083,7 +10077,9 @@
       <c r="C588" t="n">
         <v>2001</v>
       </c>
-      <c r="D588"/>
+      <c r="D588" t="n">
+        <v>66.1972727272727</v>
+      </c>
       <c r="E588"/>
     </row>
     <row r="589">
@@ -10097,11 +10093,9 @@
         <v>2002</v>
       </c>
       <c r="D589" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="E589" t="n">
-        <v>21.02</v>
-      </c>
+        <v>64.3136363636364</v>
+      </c>
+      <c r="E589"/>
     </row>
     <row r="590">
       <c r="A590" t="s">
@@ -10114,9 +10108,11 @@
         <v>2003</v>
       </c>
       <c r="D590" t="n">
-        <v>19.56</v>
-      </c>
-      <c r="E590"/>
+        <v>62.43</v>
+      </c>
+      <c r="E590" t="n">
+        <v>62.43</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
@@ -10129,7 +10125,7 @@
         <v>2004</v>
       </c>
       <c r="D591" t="n">
-        <v>18.1</v>
+        <v>62.51</v>
       </c>
       <c r="E591"/>
     </row>
@@ -10144,7 +10140,7 @@
         <v>2005</v>
       </c>
       <c r="D592" t="n">
-        <v>16.64</v>
+        <v>62.59</v>
       </c>
       <c r="E592"/>
     </row>
@@ -10159,7 +10155,7 @@
         <v>2006</v>
       </c>
       <c r="D593" t="n">
-        <v>15.18</v>
+        <v>62.67</v>
       </c>
       <c r="E593"/>
     </row>
@@ -10174,11 +10170,9 @@
         <v>2007</v>
       </c>
       <c r="D594" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E594" t="n">
-        <v>13.72</v>
-      </c>
+        <v>62.75</v>
+      </c>
+      <c r="E594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -10190,8 +10184,12 @@
       <c r="C595" t="n">
         <v>2008</v>
       </c>
-      <c r="D595"/>
-      <c r="E595"/>
+      <c r="D595" t="n">
+        <v>62.83</v>
+      </c>
+      <c r="E595" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -10307,12 +10305,8 @@
       <c r="C604" t="n">
         <v>1992</v>
       </c>
-      <c r="D604" t="n">
-        <v>83.15</v>
-      </c>
-      <c r="E604" t="n">
-        <v>83.15</v>
-      </c>
+      <c r="D604"/>
+      <c r="E604"/>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -10324,9 +10318,7 @@
       <c r="C605" t="n">
         <v>1993</v>
       </c>
-      <c r="D605" t="n">
-        <v>81.2663636363636</v>
-      </c>
+      <c r="D605"/>
       <c r="E605"/>
     </row>
     <row r="606">
@@ -10339,9 +10331,7 @@
       <c r="C606" t="n">
         <v>1994</v>
       </c>
-      <c r="D606" t="n">
-        <v>79.3827272727273</v>
-      </c>
+      <c r="D606"/>
       <c r="E606"/>
     </row>
     <row r="607">
@@ -10354,9 +10344,7 @@
       <c r="C607" t="n">
         <v>1995</v>
       </c>
-      <c r="D607" t="n">
-        <v>77.4990909090909</v>
-      </c>
+      <c r="D607"/>
       <c r="E607"/>
     </row>
     <row r="608">
@@ -10369,9 +10357,7 @@
       <c r="C608" t="n">
         <v>1996</v>
       </c>
-      <c r="D608" t="n">
-        <v>75.6154545454546</v>
-      </c>
+      <c r="D608"/>
       <c r="E608"/>
     </row>
     <row r="609">
@@ -10384,9 +10370,7 @@
       <c r="C609" t="n">
         <v>1997</v>
       </c>
-      <c r="D609" t="n">
-        <v>73.7318181818182</v>
-      </c>
+      <c r="D609"/>
       <c r="E609"/>
     </row>
     <row r="610">
@@ -10399,9 +10383,7 @@
       <c r="C610" t="n">
         <v>1998</v>
       </c>
-      <c r="D610" t="n">
-        <v>71.8481818181818</v>
-      </c>
+      <c r="D610"/>
       <c r="E610"/>
     </row>
     <row r="611">
@@ -10414,9 +10396,7 @@
       <c r="C611" t="n">
         <v>1999</v>
       </c>
-      <c r="D611" t="n">
-        <v>69.9645454545455</v>
-      </c>
+      <c r="D611"/>
       <c r="E611"/>
     </row>
     <row r="612">
@@ -10429,9 +10409,7 @@
       <c r="C612" t="n">
         <v>2000</v>
       </c>
-      <c r="D612" t="n">
-        <v>68.0809090909091</v>
-      </c>
+      <c r="D612"/>
       <c r="E612"/>
     </row>
     <row r="613">
@@ -10444,9 +10422,7 @@
       <c r="C613" t="n">
         <v>2001</v>
       </c>
-      <c r="D613" t="n">
-        <v>66.1972727272727</v>
-      </c>
+      <c r="D613"/>
       <c r="E613"/>
     </row>
     <row r="614">
@@ -10460,9 +10436,11 @@
         <v>2002</v>
       </c>
       <c r="D614" t="n">
-        <v>64.3136363636364</v>
-      </c>
-      <c r="E614"/>
+        <v>61.94</v>
+      </c>
+      <c r="E614" t="n">
+        <v>61.94</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -10475,11 +10453,9 @@
         <v>2003</v>
       </c>
       <c r="D615" t="n">
-        <v>62.43</v>
-      </c>
-      <c r="E615" t="n">
-        <v>62.43</v>
-      </c>
+        <v>59.1155555555556</v>
+      </c>
+      <c r="E615"/>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -10492,7 +10468,7 @@
         <v>2004</v>
       </c>
       <c r="D616" t="n">
-        <v>62.51</v>
+        <v>56.2911111111111</v>
       </c>
       <c r="E616"/>
     </row>
@@ -10507,7 +10483,7 @@
         <v>2005</v>
       </c>
       <c r="D617" t="n">
-        <v>62.59</v>
+        <v>53.4666666666667</v>
       </c>
       <c r="E617"/>
     </row>
@@ -10522,7 +10498,7 @@
         <v>2006</v>
       </c>
       <c r="D618" t="n">
-        <v>62.67</v>
+        <v>50.6422222222222</v>
       </c>
       <c r="E618"/>
     </row>
@@ -10537,7 +10513,7 @@
         <v>2007</v>
       </c>
       <c r="D619" t="n">
-        <v>62.75</v>
+        <v>47.8177777777778</v>
       </c>
       <c r="E619"/>
     </row>
@@ -10552,11 +10528,9 @@
         <v>2008</v>
       </c>
       <c r="D620" t="n">
-        <v>62.83</v>
-      </c>
-      <c r="E620" t="n">
-        <v>62.83</v>
-      </c>
+        <v>44.9933333333333</v>
+      </c>
+      <c r="E620"/>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -10568,7 +10542,9 @@
       <c r="C621" t="n">
         <v>2009</v>
       </c>
-      <c r="D621"/>
+      <c r="D621" t="n">
+        <v>42.1688888888889</v>
+      </c>
       <c r="E621"/>
     </row>
     <row r="622">
@@ -10581,7 +10557,9 @@
       <c r="C622" t="n">
         <v>2010</v>
       </c>
-      <c r="D622"/>
+      <c r="D622" t="n">
+        <v>39.3444444444444</v>
+      </c>
       <c r="E622"/>
     </row>
     <row r="623">
@@ -10594,8 +10572,12 @@
       <c r="C623" t="n">
         <v>2011</v>
       </c>
-      <c r="D623"/>
-      <c r="E623"/>
+      <c r="D623" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="E623" t="n">
+        <v>36.52</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -10646,8 +10628,12 @@
       <c r="C627" t="n">
         <v>1990</v>
       </c>
-      <c r="D627"/>
-      <c r="E627"/>
+      <c r="D627" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E627" t="n">
+        <v>4.91</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -10659,7 +10645,9 @@
       <c r="C628" t="n">
         <v>1991</v>
       </c>
-      <c r="D628"/>
+      <c r="D628" t="n">
+        <v>3.825</v>
+      </c>
       <c r="E628"/>
     </row>
     <row r="629">
@@ -10672,8 +10660,12 @@
       <c r="C629" t="n">
         <v>1992</v>
       </c>
-      <c r="D629"/>
-      <c r="E629"/>
+      <c r="D629" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E629" t="n">
+        <v>2.74</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
@@ -10685,7 +10677,9 @@
       <c r="C630" t="n">
         <v>1993</v>
       </c>
-      <c r="D630"/>
+      <c r="D630" t="n">
+        <v>2.895</v>
+      </c>
       <c r="E630"/>
     </row>
     <row r="631">
@@ -10698,8 +10692,12 @@
       <c r="C631" t="n">
         <v>1994</v>
       </c>
-      <c r="D631"/>
-      <c r="E631"/>
+      <c r="D631" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E631" t="n">
+        <v>3.05</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
@@ -10711,7 +10709,9 @@
       <c r="C632" t="n">
         <v>1995</v>
       </c>
-      <c r="D632"/>
+      <c r="D632" t="n">
+        <v>2.625</v>
+      </c>
       <c r="E632"/>
     </row>
     <row r="633">
@@ -10724,8 +10724,12 @@
       <c r="C633" t="n">
         <v>1996</v>
       </c>
-      <c r="D633"/>
-      <c r="E633"/>
+      <c r="D633" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E633" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
@@ -10737,7 +10741,9 @@
       <c r="C634" t="n">
         <v>1997</v>
       </c>
-      <c r="D634"/>
+      <c r="D634" t="n">
+        <v>2.26</v>
+      </c>
       <c r="E634"/>
     </row>
     <row r="635">
@@ -10750,8 +10756,12 @@
       <c r="C635" t="n">
         <v>1998</v>
       </c>
-      <c r="D635"/>
-      <c r="E635"/>
+      <c r="D635" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E635" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
@@ -10763,7 +10773,9 @@
       <c r="C636" t="n">
         <v>1999</v>
       </c>
-      <c r="D636"/>
+      <c r="D636" t="n">
+        <v>2.24</v>
+      </c>
       <c r="E636"/>
     </row>
     <row r="637">
@@ -10776,8 +10788,12 @@
       <c r="C637" t="n">
         <v>2000</v>
       </c>
-      <c r="D637"/>
-      <c r="E637"/>
+      <c r="D637" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E637" t="n">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
@@ -10789,7 +10805,9 @@
       <c r="C638" t="n">
         <v>2001</v>
       </c>
-      <c r="D638"/>
+      <c r="D638" t="n">
+        <v>2.01666666666667</v>
+      </c>
       <c r="E638"/>
     </row>
     <row r="639">
@@ -10803,11 +10821,9 @@
         <v>2002</v>
       </c>
       <c r="D639" t="n">
-        <v>61.94</v>
-      </c>
-      <c r="E639" t="n">
-        <v>61.94</v>
-      </c>
+        <v>1.87333333333333</v>
+      </c>
+      <c r="E639"/>
     </row>
     <row r="640">
       <c r="A640" t="s">
@@ -10820,9 +10836,11 @@
         <v>2003</v>
       </c>
       <c r="D640" t="n">
-        <v>59.1155555555556</v>
-      </c>
-      <c r="E640"/>
+        <v>1.73</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -10835,7 +10853,7 @@
         <v>2004</v>
       </c>
       <c r="D641" t="n">
-        <v>56.2911111111111</v>
+        <v>1.51</v>
       </c>
       <c r="E641"/>
     </row>
@@ -10850,7 +10868,7 @@
         <v>2005</v>
       </c>
       <c r="D642" t="n">
-        <v>53.4666666666667</v>
+        <v>1.29</v>
       </c>
       <c r="E642"/>
     </row>
@@ -10865,9 +10883,11 @@
         <v>2006</v>
       </c>
       <c r="D643" t="n">
-        <v>50.6422222222222</v>
-      </c>
-      <c r="E643"/>
+        <v>1.07</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
@@ -10880,7 +10900,7 @@
         <v>2007</v>
       </c>
       <c r="D644" t="n">
-        <v>47.8177777777778</v>
+        <v>1.14</v>
       </c>
       <c r="E644"/>
     </row>
@@ -10895,7 +10915,7 @@
         <v>2008</v>
       </c>
       <c r="D645" t="n">
-        <v>44.9933333333333</v>
+        <v>1.21</v>
       </c>
       <c r="E645"/>
     </row>
@@ -10910,9 +10930,11 @@
         <v>2009</v>
       </c>
       <c r="D646" t="n">
-        <v>42.1688888888889</v>
-      </c>
-      <c r="E646"/>
+        <v>1.28</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
@@ -10925,7 +10947,7 @@
         <v>2010</v>
       </c>
       <c r="D647" t="n">
-        <v>39.3444444444444</v>
+        <v>1.055</v>
       </c>
       <c r="E647"/>
     </row>
@@ -10940,10 +10962,10 @@
         <v>2011</v>
       </c>
       <c r="D648" t="n">
-        <v>36.52</v>
+        <v>0.83</v>
       </c>
       <c r="E648" t="n">
-        <v>36.52</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="649">
@@ -10996,10 +11018,10 @@
         <v>1990</v>
       </c>
       <c r="D652" t="n">
-        <v>4.91</v>
+        <v>60.73</v>
       </c>
       <c r="E652" t="n">
-        <v>4.91</v>
+        <v>60.73</v>
       </c>
     </row>
     <row r="653">
@@ -11013,7 +11035,7 @@
         <v>1991</v>
       </c>
       <c r="D653" t="n">
-        <v>3.825</v>
+        <v>58.77</v>
       </c>
       <c r="E653"/>
     </row>
@@ -11028,11 +11050,9 @@
         <v>1992</v>
       </c>
       <c r="D654" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E654" t="n">
-        <v>2.74</v>
-      </c>
+        <v>56.81</v>
+      </c>
+      <c r="E654"/>
     </row>
     <row r="655">
       <c r="A655" t="s">
@@ -11045,9 +11065,11 @@
         <v>1993</v>
       </c>
       <c r="D655" t="n">
-        <v>2.895</v>
-      </c>
-      <c r="E655"/>
+        <v>54.85</v>
+      </c>
+      <c r="E655" t="n">
+        <v>54.85</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
@@ -11060,11 +11082,9 @@
         <v>1994</v>
       </c>
       <c r="D656" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E656" t="n">
-        <v>3.05</v>
-      </c>
+        <v>49.03</v>
+      </c>
+      <c r="E656"/>
     </row>
     <row r="657">
       <c r="A657" t="s">
@@ -11077,7 +11097,7 @@
         <v>1995</v>
       </c>
       <c r="D657" t="n">
-        <v>2.625</v>
+        <v>43.21</v>
       </c>
       <c r="E657"/>
     </row>
@@ -11092,10 +11112,10 @@
         <v>1996</v>
       </c>
       <c r="D658" t="n">
-        <v>2.2</v>
+        <v>37.39</v>
       </c>
       <c r="E658" t="n">
-        <v>2.2</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="659">
@@ -11109,7 +11129,7 @@
         <v>1997</v>
       </c>
       <c r="D659" t="n">
-        <v>2.26</v>
+        <v>36.9266666666667</v>
       </c>
       <c r="E659"/>
     </row>
@@ -11124,11 +11144,9 @@
         <v>1998</v>
       </c>
       <c r="D660" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E660" t="n">
-        <v>2.32</v>
-      </c>
+        <v>36.4633333333333</v>
+      </c>
+      <c r="E660"/>
     </row>
     <row r="661">
       <c r="A661" t="s">
@@ -11141,9 +11159,11 @@
         <v>1999</v>
       </c>
       <c r="D661" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E661"/>
+        <v>36</v>
+      </c>
+      <c r="E661" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
@@ -11156,11 +11176,9 @@
         <v>2000</v>
       </c>
       <c r="D662" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E662" t="n">
-        <v>2.16</v>
-      </c>
+        <v>33.3533333333333</v>
+      </c>
+      <c r="E662"/>
     </row>
     <row r="663">
       <c r="A663" t="s">
@@ -11173,7 +11191,7 @@
         <v>2001</v>
       </c>
       <c r="D663" t="n">
-        <v>2.01666666666667</v>
+        <v>30.7066666666667</v>
       </c>
       <c r="E663"/>
     </row>
@@ -11188,9 +11206,11 @@
         <v>2002</v>
       </c>
       <c r="D664" t="n">
-        <v>1.87333333333333</v>
-      </c>
-      <c r="E664"/>
+        <v>28.06</v>
+      </c>
+      <c r="E664" t="n">
+        <v>28.06</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
@@ -11203,11 +11223,9 @@
         <v>2003</v>
       </c>
       <c r="D665" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E665" t="n">
-        <v>1.73</v>
-      </c>
+        <v>23.9633333333333</v>
+      </c>
+      <c r="E665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
@@ -11220,7 +11238,7 @@
         <v>2004</v>
       </c>
       <c r="D666" t="n">
-        <v>1.51</v>
+        <v>19.8666666666667</v>
       </c>
       <c r="E666"/>
     </row>
@@ -11235,9 +11253,11 @@
         <v>2005</v>
       </c>
       <c r="D667" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="E667"/>
+        <v>15.77</v>
+      </c>
+      <c r="E667" t="n">
+        <v>15.77</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
@@ -11250,11 +11270,9 @@
         <v>2006</v>
       </c>
       <c r="D668" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E668" t="n">
-        <v>1.07</v>
-      </c>
+        <v>14.6266666666667</v>
+      </c>
+      <c r="E668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
@@ -11267,7 +11285,7 @@
         <v>2007</v>
       </c>
       <c r="D669" t="n">
-        <v>1.14</v>
+        <v>13.4833333333333</v>
       </c>
       <c r="E669"/>
     </row>
@@ -11282,9 +11300,11 @@
         <v>2008</v>
       </c>
       <c r="D670" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E670"/>
+        <v>12.34</v>
+      </c>
+      <c r="E670" t="n">
+        <v>12.34</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
@@ -11297,11 +11317,9 @@
         <v>2009</v>
       </c>
       <c r="D671" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="E671" t="n">
-        <v>1.28</v>
-      </c>
+        <v>10.765</v>
+      </c>
+      <c r="E671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
@@ -11314,9 +11332,11 @@
         <v>2010</v>
       </c>
       <c r="D672" t="n">
-        <v>1.055</v>
-      </c>
-      <c r="E672"/>
+        <v>9.19</v>
+      </c>
+      <c r="E672" t="n">
+        <v>9.19</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
@@ -11329,10 +11349,10 @@
         <v>2011</v>
       </c>
       <c r="D673" t="n">
-        <v>0.83</v>
+        <v>6.26</v>
       </c>
       <c r="E673" t="n">
-        <v>0.83</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="674">
@@ -11384,12 +11404,8 @@
       <c r="C677" t="n">
         <v>1990</v>
       </c>
-      <c r="D677" t="n">
-        <v>60.73</v>
-      </c>
-      <c r="E677" t="n">
-        <v>60.73</v>
-      </c>
+      <c r="D677"/>
+      <c r="E677"/>
     </row>
     <row r="678">
       <c r="A678" t="s">
@@ -11402,9 +11418,11 @@
         <v>1991</v>
       </c>
       <c r="D678" t="n">
-        <v>58.77</v>
-      </c>
-      <c r="E678"/>
+        <v>8.18</v>
+      </c>
+      <c r="E678" t="n">
+        <v>8.18</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
@@ -11417,9 +11435,11 @@
         <v>1992</v>
       </c>
       <c r="D679" t="n">
-        <v>56.81</v>
-      </c>
-      <c r="E679"/>
+        <v>6.29</v>
+      </c>
+      <c r="E679" t="n">
+        <v>6.29</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
@@ -11432,11 +11452,9 @@
         <v>1993</v>
       </c>
       <c r="D680" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="E680" t="n">
-        <v>54.85</v>
-      </c>
+        <v>7.9675</v>
+      </c>
+      <c r="E680"/>
     </row>
     <row r="681">
       <c r="A681" t="s">
@@ -11449,7 +11467,7 @@
         <v>1994</v>
       </c>
       <c r="D681" t="n">
-        <v>49.03</v>
+        <v>9.645</v>
       </c>
       <c r="E681"/>
     </row>
@@ -11464,7 +11482,7 @@
         <v>1995</v>
       </c>
       <c r="D682" t="n">
-        <v>43.21</v>
+        <v>11.3225</v>
       </c>
       <c r="E682"/>
     </row>
@@ -11479,10 +11497,10 @@
         <v>1996</v>
       </c>
       <c r="D683" t="n">
-        <v>37.39</v>
+        <v>13</v>
       </c>
       <c r="E683" t="n">
-        <v>37.39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="684">
@@ -11496,7 +11514,7 @@
         <v>1997</v>
       </c>
       <c r="D684" t="n">
-        <v>36.9266666666667</v>
+        <v>14.06</v>
       </c>
       <c r="E684"/>
     </row>
@@ -11511,7 +11529,7 @@
         <v>1998</v>
       </c>
       <c r="D685" t="n">
-        <v>36.4633333333333</v>
+        <v>15.12</v>
       </c>
       <c r="E685"/>
     </row>
@@ -11526,10 +11544,10 @@
         <v>1999</v>
       </c>
       <c r="D686" t="n">
-        <v>36</v>
+        <v>16.18</v>
       </c>
       <c r="E686" t="n">
-        <v>36</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="687">
@@ -11543,9 +11561,11 @@
         <v>2000</v>
       </c>
       <c r="D687" t="n">
-        <v>33.3533333333333</v>
-      </c>
-      <c r="E687"/>
+        <v>17.85</v>
+      </c>
+      <c r="E687" t="n">
+        <v>17.85</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
@@ -11558,9 +11578,11 @@
         <v>2001</v>
       </c>
       <c r="D688" t="n">
-        <v>30.7066666666667</v>
-      </c>
-      <c r="E688"/>
+        <v>17.86</v>
+      </c>
+      <c r="E688" t="n">
+        <v>17.86</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="s">
@@ -11573,10 +11595,10 @@
         <v>2002</v>
       </c>
       <c r="D689" t="n">
-        <v>28.06</v>
+        <v>11.14</v>
       </c>
       <c r="E689" t="n">
-        <v>28.06</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="690">
@@ -11590,9 +11612,11 @@
         <v>2003</v>
       </c>
       <c r="D690" t="n">
-        <v>23.9633333333333</v>
-      </c>
-      <c r="E690"/>
+        <v>10.34</v>
+      </c>
+      <c r="E690" t="n">
+        <v>10.34</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
@@ -11605,9 +11629,11 @@
         <v>2004</v>
       </c>
       <c r="D691" t="n">
-        <v>19.8666666666667</v>
-      </c>
-      <c r="E691"/>
+        <v>9.01</v>
+      </c>
+      <c r="E691" t="n">
+        <v>9.01</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="s">
@@ -11620,10 +11646,10 @@
         <v>2005</v>
       </c>
       <c r="D692" t="n">
-        <v>15.77</v>
+        <v>7.87</v>
       </c>
       <c r="E692" t="n">
-        <v>15.77</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="693">
@@ -11637,9 +11663,11 @@
         <v>2006</v>
       </c>
       <c r="D693" t="n">
-        <v>14.6266666666667</v>
-      </c>
-      <c r="E693"/>
+        <v>11.04</v>
+      </c>
+      <c r="E693" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="s">
@@ -11652,9 +11680,11 @@
         <v>2007</v>
       </c>
       <c r="D694" t="n">
-        <v>13.4833333333333</v>
-      </c>
-      <c r="E694"/>
+        <v>8.84</v>
+      </c>
+      <c r="E694" t="n">
+        <v>8.84</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
@@ -11667,10 +11697,10 @@
         <v>2008</v>
       </c>
       <c r="D695" t="n">
-        <v>12.34</v>
+        <v>8.5</v>
       </c>
       <c r="E695" t="n">
-        <v>12.34</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="696">
@@ -11684,9 +11714,11 @@
         <v>2009</v>
       </c>
       <c r="D696" t="n">
-        <v>10.765</v>
-      </c>
-      <c r="E696"/>
+        <v>7.26</v>
+      </c>
+      <c r="E696" t="n">
+        <v>7.26</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
@@ -11699,10 +11731,10 @@
         <v>2010</v>
       </c>
       <c r="D697" t="n">
-        <v>9.19</v>
+        <v>6.17</v>
       </c>
       <c r="E697" t="n">
-        <v>9.19</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="698">
@@ -11716,10 +11748,10 @@
         <v>2011</v>
       </c>
       <c r="D698" t="n">
-        <v>6.26</v>
+        <v>4.95</v>
       </c>
       <c r="E698" t="n">
-        <v>6.26</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="699">
@@ -11732,8 +11764,12 @@
       <c r="C699" t="n">
         <v>2012</v>
       </c>
-      <c r="D699"/>
-      <c r="E699"/>
+      <c r="D699" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E699" t="n">
+        <v>5.63</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
@@ -11784,12 +11820,8 @@
       <c r="C703" t="n">
         <v>1991</v>
       </c>
-      <c r="D703" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E703" t="n">
-        <v>8.18</v>
-      </c>
+      <c r="D703"/>
+      <c r="E703"/>
     </row>
     <row r="704">
       <c r="A704" t="s">
@@ -11801,12 +11833,8 @@
       <c r="C704" t="n">
         <v>1992</v>
       </c>
-      <c r="D704" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E704" t="n">
-        <v>6.29</v>
-      </c>
+      <c r="D704"/>
+      <c r="E704"/>
     </row>
     <row r="705">
       <c r="A705" t="s">
@@ -11818,9 +11846,7 @@
       <c r="C705" t="n">
         <v>1993</v>
       </c>
-      <c r="D705" t="n">
-        <v>7.9675</v>
-      </c>
+      <c r="D705"/>
       <c r="E705"/>
     </row>
     <row r="706">
@@ -11833,9 +11859,7 @@
       <c r="C706" t="n">
         <v>1994</v>
       </c>
-      <c r="D706" t="n">
-        <v>9.645</v>
-      </c>
+      <c r="D706"/>
       <c r="E706"/>
     </row>
     <row r="707">
@@ -11848,9 +11872,7 @@
       <c r="C707" t="n">
         <v>1995</v>
       </c>
-      <c r="D707" t="n">
-        <v>11.3225</v>
-      </c>
+      <c r="D707"/>
       <c r="E707"/>
     </row>
     <row r="708">
@@ -11863,12 +11885,8 @@
       <c r="C708" t="n">
         <v>1996</v>
       </c>
-      <c r="D708" t="n">
-        <v>13</v>
-      </c>
-      <c r="E708" t="n">
-        <v>13</v>
-      </c>
+      <c r="D708"/>
+      <c r="E708"/>
     </row>
     <row r="709">
       <c r="A709" t="s">
@@ -11880,9 +11898,7 @@
       <c r="C709" t="n">
         <v>1997</v>
       </c>
-      <c r="D709" t="n">
-        <v>14.06</v>
-      </c>
+      <c r="D709"/>
       <c r="E709"/>
     </row>
     <row r="710">
@@ -11895,9 +11911,7 @@
       <c r="C710" t="n">
         <v>1998</v>
       </c>
-      <c r="D710" t="n">
-        <v>15.12</v>
-      </c>
+      <c r="D710"/>
       <c r="E710"/>
     </row>
     <row r="711">
@@ -11910,12 +11924,8 @@
       <c r="C711" t="n">
         <v>1999</v>
       </c>
-      <c r="D711" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="E711" t="n">
-        <v>16.18</v>
-      </c>
+      <c r="D711"/>
+      <c r="E711"/>
     </row>
     <row r="712">
       <c r="A712" t="s">
@@ -11927,12 +11937,8 @@
       <c r="C712" t="n">
         <v>2000</v>
       </c>
-      <c r="D712" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="E712" t="n">
-        <v>17.85</v>
-      </c>
+      <c r="D712"/>
+      <c r="E712"/>
     </row>
     <row r="713">
       <c r="A713" t="s">
@@ -11944,12 +11950,8 @@
       <c r="C713" t="n">
         <v>2001</v>
       </c>
-      <c r="D713" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="E713" t="n">
-        <v>17.86</v>
-      </c>
+      <c r="D713"/>
+      <c r="E713"/>
     </row>
     <row r="714">
       <c r="A714" t="s">
@@ -11961,12 +11963,8 @@
       <c r="C714" t="n">
         <v>2002</v>
       </c>
-      <c r="D714" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="E714" t="n">
-        <v>11.14</v>
-      </c>
+      <c r="D714"/>
+      <c r="E714"/>
     </row>
     <row r="715">
       <c r="A715" t="s">
@@ -11978,12 +11976,8 @@
       <c r="C715" t="n">
         <v>2003</v>
       </c>
-      <c r="D715" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="E715" t="n">
-        <v>10.34</v>
-      </c>
+      <c r="D715"/>
+      <c r="E715"/>
     </row>
     <row r="716">
       <c r="A716" t="s">
@@ -11996,10 +11990,10 @@
         <v>2004</v>
       </c>
       <c r="D716" t="n">
-        <v>9.01</v>
+        <v>46.11</v>
       </c>
       <c r="E716" t="n">
-        <v>9.01</v>
+        <v>46.11</v>
       </c>
     </row>
     <row r="717">
@@ -12012,12 +12006,8 @@
       <c r="C717" t="n">
         <v>2005</v>
       </c>
-      <c r="D717" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="E717" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="D717"/>
+      <c r="E717"/>
     </row>
     <row r="718">
       <c r="A718" t="s">
@@ -12029,12 +12019,8 @@
       <c r="C718" t="n">
         <v>2006</v>
       </c>
-      <c r="D718" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="E718" t="n">
-        <v>11.04</v>
-      </c>
+      <c r="D718"/>
+      <c r="E718"/>
     </row>
     <row r="719">
       <c r="A719" t="s">
@@ -12046,12 +12032,8 @@
       <c r="C719" t="n">
         <v>2007</v>
       </c>
-      <c r="D719" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="E719" t="n">
-        <v>8.84</v>
-      </c>
+      <c r="D719"/>
+      <c r="E719"/>
     </row>
     <row r="720">
       <c r="A720" t="s">
@@ -12063,12 +12045,8 @@
       <c r="C720" t="n">
         <v>2008</v>
       </c>
-      <c r="D720" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E720" t="n">
-        <v>8.5</v>
-      </c>
+      <c r="D720"/>
+      <c r="E720"/>
     </row>
     <row r="721">
       <c r="A721" t="s">
@@ -12080,12 +12058,8 @@
       <c r="C721" t="n">
         <v>2009</v>
       </c>
-      <c r="D721" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E721" t="n">
-        <v>7.26</v>
-      </c>
+      <c r="D721"/>
+      <c r="E721"/>
     </row>
     <row r="722">
       <c r="A722" t="s">
@@ -12097,12 +12071,8 @@
       <c r="C722" t="n">
         <v>2010</v>
       </c>
-      <c r="D722" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="E722" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="D722"/>
+      <c r="E722"/>
     </row>
     <row r="723">
       <c r="A723" t="s">
@@ -12114,12 +12084,8 @@
       <c r="C723" t="n">
         <v>2011</v>
       </c>
-      <c r="D723" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E723" t="n">
-        <v>4.95</v>
-      </c>
+      <c r="D723"/>
+      <c r="E723"/>
     </row>
     <row r="724">
       <c r="A724" t="s">
@@ -12131,12 +12097,8 @@
       <c r="C724" t="n">
         <v>2012</v>
       </c>
-      <c r="D724" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E724" t="n">
-        <v>5.63</v>
-      </c>
+      <c r="D724"/>
+      <c r="E724"/>
     </row>
     <row r="725">
       <c r="A725" t="s">
@@ -12356,12 +12318,8 @@
       <c r="C741" t="n">
         <v>2004</v>
       </c>
-      <c r="D741" t="n">
-        <v>46.11</v>
-      </c>
-      <c r="E741" t="n">
-        <v>46.11</v>
-      </c>
+      <c r="D741"/>
+      <c r="E741"/>
     </row>
     <row r="742">
       <c r="A742" t="s">
@@ -12373,8 +12331,12 @@
       <c r="C742" t="n">
         <v>2005</v>
       </c>
-      <c r="D742"/>
-      <c r="E742"/>
+      <c r="D742" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="E742" t="n">
+        <v>54.1</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
@@ -12386,7 +12348,9 @@
       <c r="C743" t="n">
         <v>2006</v>
       </c>
-      <c r="D743"/>
+      <c r="D743" t="n">
+        <v>50.5533333333333</v>
+      </c>
       <c r="E743"/>
     </row>
     <row r="744">
@@ -12399,7 +12363,9 @@
       <c r="C744" t="n">
         <v>2007</v>
       </c>
-      <c r="D744"/>
+      <c r="D744" t="n">
+        <v>47.0066666666667</v>
+      </c>
       <c r="E744"/>
     </row>
     <row r="745">
@@ -12412,7 +12378,9 @@
       <c r="C745" t="n">
         <v>2008</v>
       </c>
-      <c r="D745"/>
+      <c r="D745" t="n">
+        <v>43.46</v>
+      </c>
       <c r="E745"/>
     </row>
     <row r="746">
@@ -12425,7 +12393,9 @@
       <c r="C746" t="n">
         <v>2009</v>
       </c>
-      <c r="D746"/>
+      <c r="D746" t="n">
+        <v>39.9133333333333</v>
+      </c>
       <c r="E746"/>
     </row>
     <row r="747">
@@ -12438,7 +12408,9 @@
       <c r="C747" t="n">
         <v>2010</v>
       </c>
-      <c r="D747"/>
+      <c r="D747" t="n">
+        <v>36.3666666666667</v>
+      </c>
       <c r="E747"/>
     </row>
     <row r="748">
@@ -12451,8 +12423,12 @@
       <c r="C748" t="n">
         <v>2011</v>
       </c>
-      <c r="D748"/>
-      <c r="E748"/>
+      <c r="D748" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="E748" t="n">
+        <v>32.82</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
@@ -12503,8 +12479,12 @@
       <c r="C752" t="n">
         <v>1990</v>
       </c>
-      <c r="D752"/>
-      <c r="E752"/>
+      <c r="D752" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="E752" t="n">
+        <v>8.45</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
@@ -12516,8 +12496,12 @@
       <c r="C753" t="n">
         <v>1991</v>
       </c>
-      <c r="D753"/>
-      <c r="E753"/>
+      <c r="D753" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E753" t="n">
+        <v>9.69</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
@@ -12529,8 +12513,12 @@
       <c r="C754" t="n">
         <v>1992</v>
       </c>
-      <c r="D754"/>
-      <c r="E754"/>
+      <c r="D754" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="E754" t="n">
+        <v>8.12</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
@@ -12542,8 +12530,12 @@
       <c r="C755" t="n">
         <v>1993</v>
       </c>
-      <c r="D755"/>
-      <c r="E755"/>
+      <c r="D755" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E755" t="n">
+        <v>6.89</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
@@ -12555,8 +12547,12 @@
       <c r="C756" t="n">
         <v>1994</v>
       </c>
-      <c r="D756"/>
-      <c r="E756"/>
+      <c r="D756" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E756" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
@@ -12568,8 +12564,12 @@
       <c r="C757" t="n">
         <v>1995</v>
       </c>
-      <c r="D757"/>
-      <c r="E757"/>
+      <c r="D757" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E757" t="n">
+        <v>6.01</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
@@ -12581,8 +12581,12 @@
       <c r="C758" t="n">
         <v>1996</v>
       </c>
-      <c r="D758"/>
-      <c r="E758"/>
+      <c r="D758" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="E758" t="n">
+        <v>7.02</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
@@ -12594,8 +12598,12 @@
       <c r="C759" t="n">
         <v>1997</v>
       </c>
-      <c r="D759"/>
-      <c r="E759"/>
+      <c r="D759" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E759" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
@@ -12607,8 +12615,12 @@
       <c r="C760" t="n">
         <v>1998</v>
       </c>
-      <c r="D760"/>
-      <c r="E760"/>
+      <c r="D760" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E760" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
@@ -12620,8 +12632,12 @@
       <c r="C761" t="n">
         <v>1999</v>
       </c>
-      <c r="D761"/>
-      <c r="E761"/>
+      <c r="D761" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E761" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
@@ -12633,8 +12649,12 @@
       <c r="C762" t="n">
         <v>2000</v>
       </c>
-      <c r="D762"/>
-      <c r="E762"/>
+      <c r="D762" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E762" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
@@ -12646,8 +12666,12 @@
       <c r="C763" t="n">
         <v>2001</v>
       </c>
-      <c r="D763"/>
-      <c r="E763"/>
+      <c r="D763" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E763" t="n">
+        <v>5.51</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
@@ -12659,8 +12683,12 @@
       <c r="C764" t="n">
         <v>2002</v>
       </c>
-      <c r="D764"/>
-      <c r="E764"/>
+      <c r="D764" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E764" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
@@ -12672,8 +12700,12 @@
       <c r="C765" t="n">
         <v>2003</v>
       </c>
-      <c r="D765"/>
-      <c r="E765"/>
+      <c r="D765" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E765" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
@@ -12685,8 +12717,12 @@
       <c r="C766" t="n">
         <v>2004</v>
       </c>
-      <c r="D766"/>
-      <c r="E766"/>
+      <c r="D766" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E766" t="n">
+        <v>4.85</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
@@ -12699,10 +12735,10 @@
         <v>2005</v>
       </c>
       <c r="D767" t="n">
-        <v>54.1</v>
+        <v>3.57</v>
       </c>
       <c r="E767" t="n">
-        <v>54.1</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="768">
@@ -12716,9 +12752,11 @@
         <v>2006</v>
       </c>
       <c r="D768" t="n">
-        <v>50.5533333333333</v>
-      </c>
-      <c r="E768"/>
+        <v>3.72</v>
+      </c>
+      <c r="E768" t="n">
+        <v>3.72</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
@@ -12731,9 +12769,11 @@
         <v>2007</v>
       </c>
       <c r="D769" t="n">
-        <v>47.0066666666667</v>
-      </c>
-      <c r="E769"/>
+        <v>2.06</v>
+      </c>
+      <c r="E769" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="s">
@@ -12746,9 +12786,11 @@
         <v>2008</v>
       </c>
       <c r="D770" t="n">
-        <v>43.46</v>
-      </c>
-      <c r="E770"/>
+        <v>2.28</v>
+      </c>
+      <c r="E770" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
@@ -12761,9 +12803,11 @@
         <v>2009</v>
       </c>
       <c r="D771" t="n">
-        <v>39.9133333333333</v>
-      </c>
-      <c r="E771"/>
+        <v>2.86</v>
+      </c>
+      <c r="E771" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
@@ -12776,9 +12820,11 @@
         <v>2010</v>
       </c>
       <c r="D772" t="n">
-        <v>36.3666666666667</v>
-      </c>
-      <c r="E772"/>
+        <v>1.27</v>
+      </c>
+      <c r="E772" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
@@ -12791,10 +12837,10 @@
         <v>2011</v>
       </c>
       <c r="D773" t="n">
-        <v>32.82</v>
+        <v>1.36</v>
       </c>
       <c r="E773" t="n">
-        <v>32.82</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="774">
@@ -12807,8 +12853,12 @@
       <c r="C774" t="n">
         <v>2012</v>
       </c>
-      <c r="D774"/>
-      <c r="E774"/>
+      <c r="D774" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E774" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
@@ -12846,12 +12896,8 @@
       <c r="C777" t="n">
         <v>1990</v>
       </c>
-      <c r="D777" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="E777" t="n">
-        <v>8.45</v>
-      </c>
+      <c r="D777"/>
+      <c r="E777"/>
     </row>
     <row r="778">
       <c r="A778" t="s">
@@ -12863,12 +12909,8 @@
       <c r="C778" t="n">
         <v>1991</v>
       </c>
-      <c r="D778" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="E778" t="n">
-        <v>9.69</v>
-      </c>
+      <c r="D778"/>
+      <c r="E778"/>
     </row>
     <row r="779">
       <c r="A779" t="s">
@@ -12880,12 +12922,8 @@
       <c r="C779" t="n">
         <v>1992</v>
       </c>
-      <c r="D779" t="n">
-        <v>8.12</v>
-      </c>
-      <c r="E779" t="n">
-        <v>8.12</v>
-      </c>
+      <c r="D779"/>
+      <c r="E779"/>
     </row>
     <row r="780">
       <c r="A780" t="s">
@@ -12898,10 +12936,10 @@
         <v>1993</v>
       </c>
       <c r="D780" t="n">
-        <v>6.89</v>
+        <v>26.47</v>
       </c>
       <c r="E780" t="n">
-        <v>6.89</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="781">
@@ -12915,11 +12953,9 @@
         <v>1994</v>
       </c>
       <c r="D781" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E781" t="n">
-        <v>5.75</v>
-      </c>
+        <v>23.78</v>
+      </c>
+      <c r="E781"/>
     </row>
     <row r="782">
       <c r="A782" t="s">
@@ -12932,10 +12968,10 @@
         <v>1995</v>
       </c>
       <c r="D782" t="n">
-        <v>6.01</v>
+        <v>21.09</v>
       </c>
       <c r="E782" t="n">
-        <v>6.01</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="783">
@@ -12949,11 +12985,9 @@
         <v>1996</v>
       </c>
       <c r="D783" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="E783" t="n">
-        <v>7.02</v>
-      </c>
+        <v>24.08</v>
+      </c>
+      <c r="E783"/>
     </row>
     <row r="784">
       <c r="A784" t="s">
@@ -12966,11 +13000,9 @@
         <v>1997</v>
       </c>
       <c r="D784" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E784" t="n">
-        <v>5.3</v>
-      </c>
+        <v>27.07</v>
+      </c>
+      <c r="E784"/>
     </row>
     <row r="785">
       <c r="A785" t="s">
@@ -12983,10 +13015,10 @@
         <v>1998</v>
       </c>
       <c r="D785" t="n">
-        <v>4.22</v>
+        <v>30.06</v>
       </c>
       <c r="E785" t="n">
-        <v>4.22</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="786">
@@ -13000,11 +13032,9 @@
         <v>1999</v>
       </c>
       <c r="D786" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="E786" t="n">
-        <v>5.43</v>
-      </c>
+        <v>29.96</v>
+      </c>
+      <c r="E786"/>
     </row>
     <row r="787">
       <c r="A787" t="s">
@@ -13017,11 +13047,9 @@
         <v>2000</v>
       </c>
       <c r="D787" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="E787" t="n">
-        <v>5.56</v>
-      </c>
+        <v>29.86</v>
+      </c>
+      <c r="E787"/>
     </row>
     <row r="788">
       <c r="A788" t="s">
@@ -13034,11 +13062,9 @@
         <v>2001</v>
       </c>
       <c r="D788" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="E788" t="n">
-        <v>5.51</v>
-      </c>
+        <v>29.76</v>
+      </c>
+      <c r="E788"/>
     </row>
     <row r="789">
       <c r="A789" t="s">
@@ -13051,10 +13077,10 @@
         <v>2002</v>
       </c>
       <c r="D789" t="n">
-        <v>5.5</v>
+        <v>29.66</v>
       </c>
       <c r="E789" t="n">
-        <v>5.5</v>
+        <v>29.66</v>
       </c>
     </row>
     <row r="790">
@@ -13068,11 +13094,9 @@
         <v>2003</v>
       </c>
       <c r="D790" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E790" t="n">
-        <v>5.4</v>
-      </c>
+        <v>30.5566666666667</v>
+      </c>
+      <c r="E790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
@@ -13085,11 +13109,9 @@
         <v>2004</v>
       </c>
       <c r="D791" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="E791" t="n">
-        <v>4.85</v>
-      </c>
+        <v>31.4533333333333</v>
+      </c>
+      <c r="E791"/>
     </row>
     <row r="792">
       <c r="A792" t="s">
@@ -13102,11 +13124,9 @@
         <v>2005</v>
       </c>
       <c r="D792" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="E792" t="n">
-        <v>3.57</v>
-      </c>
+        <v>32.35</v>
+      </c>
+      <c r="E792"/>
     </row>
     <row r="793">
       <c r="A793" t="s">
@@ -13119,11 +13139,9 @@
         <v>2006</v>
       </c>
       <c r="D793" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="E793" t="n">
-        <v>3.72</v>
-      </c>
+        <v>33.2466666666667</v>
+      </c>
+      <c r="E793"/>
     </row>
     <row r="794">
       <c r="A794" t="s">
@@ -13136,11 +13154,9 @@
         <v>2007</v>
       </c>
       <c r="D794" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="E794" t="n">
-        <v>2.06</v>
-      </c>
+        <v>34.1433333333333</v>
+      </c>
+      <c r="E794"/>
     </row>
     <row r="795">
       <c r="A795" t="s">
@@ -13153,10 +13169,10 @@
         <v>2008</v>
       </c>
       <c r="D795" t="n">
-        <v>2.28</v>
+        <v>35.04</v>
       </c>
       <c r="E795" t="n">
-        <v>2.28</v>
+        <v>35.04</v>
       </c>
     </row>
     <row r="796">
@@ -13169,12 +13185,8 @@
       <c r="C796" t="n">
         <v>2009</v>
       </c>
-      <c r="D796" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="E796" t="n">
-        <v>2.86</v>
-      </c>
+      <c r="D796"/>
+      <c r="E796"/>
     </row>
     <row r="797">
       <c r="A797" t="s">
@@ -13186,12 +13198,8 @@
       <c r="C797" t="n">
         <v>2010</v>
       </c>
-      <c r="D797" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="E797" t="n">
-        <v>1.27</v>
-      </c>
+      <c r="D797"/>
+      <c r="E797"/>
     </row>
     <row r="798">
       <c r="A798" t="s">
@@ -13203,12 +13211,8 @@
       <c r="C798" t="n">
         <v>2011</v>
       </c>
-      <c r="D798" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="E798" t="n">
-        <v>1.36</v>
-      </c>
+      <c r="D798"/>
+      <c r="E798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
@@ -13220,12 +13224,8 @@
       <c r="C799" t="n">
         <v>2012</v>
       </c>
-      <c r="D799" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E799" t="n">
-        <v>1.35</v>
-      </c>
+      <c r="D799"/>
+      <c r="E799"/>
     </row>
     <row r="800">
       <c r="A800" t="s">
@@ -57103,57 +57103,61 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" t="n">
-        <v>26.47</v>
-      </c>
+      <c r="F22"/>
       <c r="G22" t="n">
-        <v>23.78</v>
+        <v>44.5</v>
       </c>
       <c r="H22" t="n">
-        <v>21.09</v>
+        <v>43.327</v>
       </c>
       <c r="I22" t="n">
-        <v>24.08</v>
+        <v>42.154</v>
       </c>
       <c r="J22" t="n">
-        <v>27.07</v>
+        <v>40.981</v>
       </c>
       <c r="K22" t="n">
-        <v>30.06</v>
+        <v>39.808</v>
       </c>
       <c r="L22" t="n">
-        <v>29.96</v>
+        <v>38.635</v>
       </c>
       <c r="M22" t="n">
-        <v>29.86</v>
+        <v>37.462</v>
       </c>
       <c r="N22" t="n">
-        <v>29.76</v>
+        <v>36.289</v>
       </c>
       <c r="O22" t="n">
-        <v>29.66</v>
+        <v>35.116</v>
       </c>
       <c r="P22" t="n">
-        <v>30.5566666666667</v>
+        <v>33.943</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.4533333333333</v>
+        <v>32.77</v>
       </c>
       <c r="R22" t="n">
-        <v>32.35</v>
+        <v>32.12</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2466666666667</v>
+        <v>31.47</v>
       </c>
       <c r="T22" t="n">
-        <v>34.1433333333333</v>
+        <v>30.82</v>
       </c>
       <c r="U22" t="n">
-        <v>35.04</v>
-      </c>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
+        <v>20.89</v>
+      </c>
+      <c r="V22" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10.05</v>
+      </c>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
@@ -57169,60 +57173,48 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>43.327</v>
-      </c>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="I23" t="n">
-        <v>42.154</v>
+        <v>47.43</v>
       </c>
       <c r="J23" t="n">
-        <v>40.981</v>
+        <v>42.916</v>
       </c>
       <c r="K23" t="n">
-        <v>39.808</v>
+        <v>38.402</v>
       </c>
       <c r="L23" t="n">
-        <v>38.635</v>
+        <v>33.888</v>
       </c>
       <c r="M23" t="n">
-        <v>37.462</v>
+        <v>29.374</v>
       </c>
       <c r="N23" t="n">
-        <v>36.289</v>
+        <v>24.86</v>
       </c>
       <c r="O23" t="n">
-        <v>35.116</v>
+        <v>25.3183333333333</v>
       </c>
       <c r="P23" t="n">
-        <v>33.943</v>
+        <v>25.7766666666667</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.77</v>
+        <v>26.235</v>
       </c>
       <c r="R23" t="n">
-        <v>32.12</v>
+        <v>26.6933333333333</v>
       </c>
       <c r="S23" t="n">
-        <v>31.47</v>
+        <v>27.1516666666667</v>
       </c>
       <c r="T23" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="U23" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="V23" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="W23" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X23" t="n">
-        <v>10.05</v>
-      </c>
+        <v>27.61</v>
+      </c>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
@@ -57240,41 +57232,29 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" t="n">
-        <v>47.43</v>
-      </c>
-      <c r="J24" t="n">
-        <v>42.916</v>
-      </c>
-      <c r="K24" t="n">
-        <v>38.402</v>
-      </c>
-      <c r="L24" t="n">
-        <v>33.888</v>
-      </c>
-      <c r="M24" t="n">
-        <v>29.374</v>
-      </c>
-      <c r="N24" t="n">
-        <v>24.86</v>
-      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
       <c r="O24" t="n">
-        <v>25.3183333333333</v>
+        <v>21.02</v>
       </c>
       <c r="P24" t="n">
-        <v>25.7766666666667</v>
+        <v>19.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.235</v>
+        <v>18.1</v>
       </c>
       <c r="R24" t="n">
-        <v>26.6933333333333</v>
+        <v>16.64</v>
       </c>
       <c r="S24" t="n">
-        <v>27.1516666666667</v>
+        <v>15.18</v>
       </c>
       <c r="T24" t="n">
-        <v>27.61</v>
+        <v>13.72</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
@@ -57293,35 +57273,57 @@
       </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="E25" t="n">
+        <v>83.15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>81.2663636363636</v>
+      </c>
+      <c r="G25" t="n">
+        <v>79.3827272727273</v>
+      </c>
+      <c r="H25" t="n">
+        <v>77.4990909090909</v>
+      </c>
+      <c r="I25" t="n">
+        <v>75.6154545454546</v>
+      </c>
+      <c r="J25" t="n">
+        <v>73.7318181818182</v>
+      </c>
+      <c r="K25" t="n">
+        <v>71.8481818181818</v>
+      </c>
+      <c r="L25" t="n">
+        <v>69.9645454545455</v>
+      </c>
+      <c r="M25" t="n">
+        <v>68.0809090909091</v>
+      </c>
+      <c r="N25" t="n">
+        <v>66.1972727272727</v>
+      </c>
       <c r="O25" t="n">
-        <v>21.02</v>
+        <v>64.3136363636364</v>
       </c>
       <c r="P25" t="n">
-        <v>19.56</v>
+        <v>62.43</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.1</v>
+        <v>62.51</v>
       </c>
       <c r="R25" t="n">
-        <v>16.64</v>
+        <v>62.59</v>
       </c>
       <c r="S25" t="n">
-        <v>15.18</v>
+        <v>62.67</v>
       </c>
       <c r="T25" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="U25"/>
+        <v>62.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>62.83</v>
+      </c>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
@@ -57338,60 +57340,46 @@
       </c>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" t="n">
-        <v>83.15</v>
-      </c>
-      <c r="F26" t="n">
-        <v>81.2663636363636</v>
-      </c>
-      <c r="G26" t="n">
-        <v>79.3827272727273</v>
-      </c>
-      <c r="H26" t="n">
-        <v>77.4990909090909</v>
-      </c>
-      <c r="I26" t="n">
-        <v>75.6154545454546</v>
-      </c>
-      <c r="J26" t="n">
-        <v>73.7318181818182</v>
-      </c>
-      <c r="K26" t="n">
-        <v>71.8481818181818</v>
-      </c>
-      <c r="L26" t="n">
-        <v>69.9645454545455</v>
-      </c>
-      <c r="M26" t="n">
-        <v>68.0809090909091</v>
-      </c>
-      <c r="N26" t="n">
-        <v>66.1972727272727</v>
-      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
       <c r="O26" t="n">
-        <v>64.3136363636364</v>
+        <v>61.94</v>
       </c>
       <c r="P26" t="n">
-        <v>62.43</v>
+        <v>59.1155555555556</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.51</v>
+        <v>56.2911111111111</v>
       </c>
       <c r="R26" t="n">
-        <v>62.59</v>
+        <v>53.4666666666667</v>
       </c>
       <c r="S26" t="n">
-        <v>62.67</v>
+        <v>50.6422222222222</v>
       </c>
       <c r="T26" t="n">
-        <v>62.75</v>
+        <v>47.8177777777778</v>
       </c>
       <c r="U26" t="n">
-        <v>62.83</v>
-      </c>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
+        <v>44.9933333333333</v>
+      </c>
+      <c r="V26" t="n">
+        <v>42.1688888888889</v>
+      </c>
+      <c r="W26" t="n">
+        <v>39.3444444444444</v>
+      </c>
+      <c r="X26" t="n">
+        <v>36.52</v>
+      </c>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -57403,47 +57391,71 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="C27" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.01666666666667</v>
+      </c>
       <c r="O27" t="n">
-        <v>61.94</v>
+        <v>1.87333333333333</v>
       </c>
       <c r="P27" t="n">
-        <v>59.1155555555556</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.2911111111111</v>
+        <v>1.51</v>
       </c>
       <c r="R27" t="n">
-        <v>53.4666666666667</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>50.6422222222222</v>
+        <v>1.07</v>
       </c>
       <c r="T27" t="n">
-        <v>47.8177777777778</v>
+        <v>1.14</v>
       </c>
       <c r="U27" t="n">
-        <v>44.9933333333333</v>
+        <v>1.21</v>
       </c>
       <c r="V27" t="n">
-        <v>42.1688888888889</v>
+        <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>39.3444444444444</v>
+        <v>1.055</v>
       </c>
       <c r="X27" t="n">
-        <v>36.52</v>
+        <v>0.83</v>
       </c>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -57457,70 +57469,70 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>4.91</v>
+        <v>60.73</v>
       </c>
       <c r="D28" t="n">
-        <v>3.825</v>
+        <v>58.77</v>
       </c>
       <c r="E28" t="n">
-        <v>2.74</v>
+        <v>56.81</v>
       </c>
       <c r="F28" t="n">
-        <v>2.895</v>
+        <v>54.85</v>
       </c>
       <c r="G28" t="n">
-        <v>3.05</v>
+        <v>49.03</v>
       </c>
       <c r="H28" t="n">
-        <v>2.625</v>
+        <v>43.21</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>37.39</v>
       </c>
       <c r="J28" t="n">
-        <v>2.26</v>
+        <v>36.9266666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>2.32</v>
+        <v>36.4633333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>2.24</v>
+        <v>36</v>
       </c>
       <c r="M28" t="n">
-        <v>2.16</v>
+        <v>33.3533333333333</v>
       </c>
       <c r="N28" t="n">
-        <v>2.01666666666667</v>
+        <v>30.7066666666667</v>
       </c>
       <c r="O28" t="n">
-        <v>1.87333333333333</v>
+        <v>28.06</v>
       </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>23.9633333333333</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.51</v>
+        <v>19.8666666666667</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>15.77</v>
       </c>
       <c r="S28" t="n">
-        <v>1.07</v>
+        <v>14.6266666666667</v>
       </c>
       <c r="T28" t="n">
-        <v>1.14</v>
+        <v>13.4833333333333</v>
       </c>
       <c r="U28" t="n">
-        <v>1.21</v>
+        <v>12.34</v>
       </c>
       <c r="V28" t="n">
-        <v>1.28</v>
+        <v>10.765</v>
       </c>
       <c r="W28" t="n">
-        <v>1.055</v>
+        <v>9.19</v>
       </c>
       <c r="X28" t="n">
-        <v>0.83</v>
+        <v>6.26</v>
       </c>
       <c r="Y28"/>
       <c r="Z28"/>
@@ -57533,73 +57545,73 @@
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="n">
-        <v>60.73</v>
-      </c>
+      <c r="C29"/>
       <c r="D29" t="n">
-        <v>58.77</v>
+        <v>8.18</v>
       </c>
       <c r="E29" t="n">
-        <v>56.81</v>
+        <v>6.29</v>
       </c>
       <c r="F29" t="n">
-        <v>54.85</v>
+        <v>7.9675</v>
       </c>
       <c r="G29" t="n">
-        <v>49.03</v>
+        <v>9.645</v>
       </c>
       <c r="H29" t="n">
-        <v>43.21</v>
+        <v>11.3225</v>
       </c>
       <c r="I29" t="n">
-        <v>37.39</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>36.9266666666667</v>
+        <v>14.06</v>
       </c>
       <c r="K29" t="n">
-        <v>36.4633333333333</v>
+        <v>15.12</v>
       </c>
       <c r="L29" t="n">
-        <v>36</v>
+        <v>16.18</v>
       </c>
       <c r="M29" t="n">
-        <v>33.3533333333333</v>
+        <v>17.85</v>
       </c>
       <c r="N29" t="n">
-        <v>30.7066666666667</v>
+        <v>17.86</v>
       </c>
       <c r="O29" t="n">
-        <v>28.06</v>
+        <v>11.14</v>
       </c>
       <c r="P29" t="n">
-        <v>23.9633333333333</v>
+        <v>10.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>19.8666666666667</v>
+        <v>9.01</v>
       </c>
       <c r="R29" t="n">
-        <v>15.77</v>
+        <v>7.87</v>
       </c>
       <c r="S29" t="n">
-        <v>14.6266666666667</v>
+        <v>11.04</v>
       </c>
       <c r="T29" t="n">
-        <v>13.4833333333333</v>
+        <v>8.84</v>
       </c>
       <c r="U29" t="n">
-        <v>12.34</v>
+        <v>8.5</v>
       </c>
       <c r="V29" t="n">
-        <v>10.765</v>
+        <v>7.26</v>
       </c>
       <c r="W29" t="n">
-        <v>9.19</v>
+        <v>6.17</v>
       </c>
       <c r="X29" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="Y29"/>
+        <v>4.95</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5.63</v>
+      </c>
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
@@ -57611,72 +57623,30 @@
         <v>62</v>
       </c>
       <c r="C30"/>
-      <c r="D30" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7.9675</v>
-      </c>
-      <c r="G30" t="n">
-        <v>9.645</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11.3225</v>
-      </c>
-      <c r="I30" t="n">
-        <v>13</v>
-      </c>
-      <c r="J30" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="K30" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="L30" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="M30" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="N30" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="O30" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10.34</v>
-      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
       <c r="Q30" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="R30" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="S30" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="T30" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="U30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V30" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="W30" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="X30" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>5.63</v>
-      </c>
+        <v>46.11</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
@@ -57701,16 +57671,28 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31" t="n">
-        <v>46.11</v>
-      </c>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
+      <c r="Q31"/>
+      <c r="R31" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>50.5533333333333</v>
+      </c>
+      <c r="T31" t="n">
+        <v>47.0066666666667</v>
+      </c>
+      <c r="U31" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="V31" t="n">
+        <v>39.9133333333333</v>
+      </c>
+      <c r="W31" t="n">
+        <v>36.3666666666667</v>
+      </c>
+      <c r="X31" t="n">
+        <v>32.82</v>
+      </c>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
@@ -57722,43 +57704,75 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="C32" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4.85</v>
+      </c>
       <c r="R32" t="n">
-        <v>54.1</v>
+        <v>3.57</v>
       </c>
       <c r="S32" t="n">
-        <v>50.5533333333333</v>
+        <v>3.72</v>
       </c>
       <c r="T32" t="n">
-        <v>47.0066666666667</v>
+        <v>2.06</v>
       </c>
       <c r="U32" t="n">
-        <v>43.46</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>39.9133333333333</v>
+        <v>2.86</v>
       </c>
       <c r="W32" t="n">
-        <v>36.3666666666667</v>
+        <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>32.82</v>
-      </c>
-      <c r="Y32"/>
+        <v>1.36</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.35</v>
+      </c>
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
@@ -57769,75 +57783,61 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="D33" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8.12</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33" t="n">
-        <v>6.89</v>
+        <v>26.47</v>
       </c>
       <c r="G33" t="n">
-        <v>5.75</v>
+        <v>23.78</v>
       </c>
       <c r="H33" t="n">
-        <v>6.01</v>
+        <v>21.09</v>
       </c>
       <c r="I33" t="n">
-        <v>7.02</v>
+        <v>24.08</v>
       </c>
       <c r="J33" t="n">
-        <v>5.3</v>
+        <v>27.07</v>
       </c>
       <c r="K33" t="n">
-        <v>4.22</v>
+        <v>30.06</v>
       </c>
       <c r="L33" t="n">
-        <v>5.43</v>
+        <v>29.96</v>
       </c>
       <c r="M33" t="n">
-        <v>5.56</v>
+        <v>29.86</v>
       </c>
       <c r="N33" t="n">
-        <v>5.51</v>
+        <v>29.76</v>
       </c>
       <c r="O33" t="n">
-        <v>5.5</v>
+        <v>29.66</v>
       </c>
       <c r="P33" t="n">
-        <v>5.4</v>
+        <v>30.5566666666667</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.85</v>
+        <v>31.4533333333333</v>
       </c>
       <c r="R33" t="n">
-        <v>3.57</v>
+        <v>32.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3.72</v>
+        <v>33.2466666666667</v>
       </c>
       <c r="T33" t="n">
-        <v>2.06</v>
+        <v>34.1433333333333</v>
       </c>
       <c r="U33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.35</v>
-      </c>
+        <v>35.04</v>
+      </c>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
@@ -65471,35 +65471,39 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" t="n">
-        <v>26.47</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" t="n">
-        <v>21.09</v>
-      </c>
+      <c r="F22"/>
+      <c r="G22" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22" t="n">
-        <v>30.06</v>
-      </c>
+      <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22" t="n">
-        <v>29.66</v>
-      </c>
+      <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22"/>
+      <c r="Q22" t="n">
+        <v>32.77</v>
+      </c>
       <c r="R22"/>
       <c r="S22"/>
-      <c r="T22"/>
+      <c r="T22" t="n">
+        <v>30.82</v>
+      </c>
       <c r="U22" t="n">
-        <v>35.04</v>
-      </c>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
+        <v>20.89</v>
+      </c>
+      <c r="V22" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10.05</v>
+      </c>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
@@ -65515,38 +65519,30 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" t="n">
-        <v>44.5</v>
-      </c>
+      <c r="G23"/>
       <c r="H23"/>
-      <c r="I23"/>
+      <c r="I23" t="n">
+        <v>47.43</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23"/>
+      <c r="N23" t="n">
+        <v>24.86</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23" t="n">
-        <v>32.77</v>
-      </c>
+      <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="U23" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="V23" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="W23" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X23" t="n">
-        <v>10.05</v>
-      </c>
+        <v>27.61</v>
+      </c>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
@@ -65564,23 +65560,21 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" t="n">
-        <v>47.43</v>
-      </c>
+      <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="O24"/>
+      <c r="N24"/>
+      <c r="O24" t="n">
+        <v>21.02</v>
+      </c>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24" t="n">
-        <v>27.61</v>
+        <v>13.72</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
@@ -65599,7 +65593,9 @@
       </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25"/>
+      <c r="E25" t="n">
+        <v>83.15</v>
+      </c>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -65609,17 +65605,17 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="P25"/>
+      <c r="O25"/>
+      <c r="P25" t="n">
+        <v>62.43</v>
+      </c>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="U25"/>
+      <c r="T25"/>
+      <c r="U25" t="n">
+        <v>62.83</v>
+      </c>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
@@ -65636,9 +65632,7 @@
       </c>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" t="n">
-        <v>83.15</v>
-      </c>
+      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -65648,20 +65642,20 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26" t="n">
-        <v>62.43</v>
-      </c>
+      <c r="O26" t="n">
+        <v>61.94</v>
+      </c>
+      <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
-      <c r="U26" t="n">
-        <v>62.83</v>
-      </c>
+      <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
-      <c r="X26"/>
+      <c r="X26" t="n">
+        <v>36.52</v>
+      </c>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -65673,31 +65667,47 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="n">
+        <v>4.91</v>
+      </c>
       <c r="D27"/>
-      <c r="E27"/>
+      <c r="E27" t="n">
+        <v>2.74</v>
+      </c>
       <c r="F27"/>
-      <c r="G27"/>
+      <c r="G27" t="n">
+        <v>3.05</v>
+      </c>
       <c r="H27"/>
-      <c r="I27"/>
+      <c r="I27" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J27"/>
-      <c r="K27"/>
+      <c r="K27" t="n">
+        <v>2.32</v>
+      </c>
       <c r="L27"/>
-      <c r="M27"/>
+      <c r="M27" t="n">
+        <v>2.16</v>
+      </c>
       <c r="N27"/>
-      <c r="O27" t="n">
-        <v>61.94</v>
-      </c>
-      <c r="P27"/>
+      <c r="O27"/>
+      <c r="P27" t="n">
+        <v>1.73</v>
+      </c>
       <c r="Q27"/>
       <c r="R27"/>
-      <c r="S27"/>
+      <c r="S27" t="n">
+        <v>1.07</v>
+      </c>
       <c r="T27"/>
       <c r="U27"/>
-      <c r="V27"/>
+      <c r="V27" t="n">
+        <v>1.28</v>
+      </c>
       <c r="W27"/>
       <c r="X27" t="n">
-        <v>36.52</v>
+        <v>0.83</v>
       </c>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -65711,46 +65721,44 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>4.91</v>
+        <v>60.73</v>
       </c>
       <c r="D28"/>
-      <c r="E28" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="E28"/>
+      <c r="F28" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>37.39</v>
       </c>
       <c r="J28"/>
-      <c r="K28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" t="n">
-        <v>2.16</v>
-      </c>
+      <c r="K28"/>
+      <c r="L28" t="n">
+        <v>36</v>
+      </c>
+      <c r="M28"/>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28" t="n">
-        <v>1.73</v>
-      </c>
+      <c r="O28" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28" t="n">
-        <v>1.07</v>
-      </c>
+      <c r="R28" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="S28"/>
       <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W28"/>
+      <c r="U28" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="V28"/>
+      <c r="W28" t="n">
+        <v>9.19</v>
+      </c>
       <c r="X28" t="n">
-        <v>0.83</v>
+        <v>6.26</v>
       </c>
       <c r="Y28"/>
       <c r="Z28"/>
@@ -65763,47 +65771,63 @@
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="n">
-        <v>60.73</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29" t="n">
-        <v>54.85</v>
-      </c>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>37.39</v>
+        <v>13</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>36</v>
-      </c>
-      <c r="M29"/>
-      <c r="N29"/>
+        <v>16.18</v>
+      </c>
+      <c r="M29" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17.86</v>
+      </c>
       <c r="O29" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="P29"/>
-      <c r="Q29"/>
+        <v>11.14</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.01</v>
+      </c>
       <c r="R29" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="S29"/>
-      <c r="T29"/>
+        <v>7.87</v>
+      </c>
+      <c r="S29" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8.84</v>
+      </c>
       <c r="U29" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="V29"/>
+        <v>8.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>7.26</v>
+      </c>
       <c r="W29" t="n">
-        <v>9.19</v>
+        <v>6.17</v>
       </c>
       <c r="X29" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="Y29"/>
+        <v>4.95</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5.63</v>
+      </c>
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
@@ -65815,62 +65839,30 @@
         <v>62</v>
       </c>
       <c r="C30"/>
-      <c r="D30" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.29</v>
-      </c>
+      <c r="D30"/>
+      <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" t="n">
-        <v>13</v>
-      </c>
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="M30" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="N30" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="O30" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10.34</v>
-      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
       <c r="Q30" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="R30" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="S30" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="T30" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="U30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V30" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="W30" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="X30" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>5.63</v>
-      </c>
+        <v>46.11</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
@@ -65895,16 +65887,18 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31" t="n">
-        <v>46.11</v>
-      </c>
-      <c r="R31"/>
+      <c r="Q31"/>
+      <c r="R31" t="n">
+        <v>54.1</v>
+      </c>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
-      <c r="X31"/>
+      <c r="X31" t="n">
+        <v>32.82</v>
+      </c>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
@@ -65916,33 +65910,75 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="C32" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4.85</v>
+      </c>
       <c r="R32" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
+        <v>3.57</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.27</v>
+      </c>
       <c r="X32" t="n">
-        <v>32.82</v>
-      </c>
-      <c r="Y32"/>
+        <v>1.36</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.35</v>
+      </c>
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
@@ -65953,75 +65989,39 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="D33" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8.12</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5.75</v>
-      </c>
+        <v>26.47</v>
+      </c>
+      <c r="G33"/>
       <c r="H33" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.3</v>
-      </c>
+        <v>21.09</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
       <c r="K33" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.51</v>
-      </c>
+        <v>30.06</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
       <c r="O33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.06</v>
-      </c>
+        <v>29.66</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
       <c r="U33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.35</v>
-      </c>
+        <v>35.04</v>
+      </c>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
     </row>

--- a/user-data/poverty-125/poverty-125.xlsx
+++ b/user-data/poverty-125/poverty-125.xlsx
@@ -1954,7 +1954,7 @@
         <v>1997</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288333333333333</v>
+        <v>0.2883333333</v>
       </c>
       <c r="E34"/>
     </row>
@@ -1969,7 +1969,7 @@
         <v>1998</v>
       </c>
       <c r="D35" t="n">
-        <v>0.376666666666667</v>
+        <v>0.3766666667</v>
       </c>
       <c r="E35"/>
     </row>
@@ -1999,7 +1999,7 @@
         <v>2000</v>
       </c>
       <c r="D37" t="n">
-        <v>0.553333333333333</v>
+        <v>0.5533333333</v>
       </c>
       <c r="E37"/>
     </row>
@@ -2014,7 +2014,7 @@
         <v>2001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.641666666666667</v>
+        <v>0.6416666667</v>
       </c>
       <c r="E38"/>
     </row>
@@ -4269,7 +4269,7 @@
         <v>2006</v>
       </c>
       <c r="D193" t="n">
-        <v>0.103333333333333</v>
+        <v>0.1033333333</v>
       </c>
       <c r="E193"/>
     </row>
@@ -4284,7 +4284,7 @@
         <v>2007</v>
       </c>
       <c r="D194" t="n">
-        <v>0.206666666666667</v>
+        <v>0.2066666667</v>
       </c>
       <c r="E194"/>
     </row>
@@ -7030,7 +7030,7 @@
         <v>1995</v>
       </c>
       <c r="D382" t="n">
-        <v>30.4666666666667</v>
+        <v>30.4666666667</v>
       </c>
       <c r="E382"/>
     </row>
@@ -7045,7 +7045,7 @@
         <v>1996</v>
       </c>
       <c r="D383" t="n">
-        <v>29.7033333333333</v>
+        <v>29.7033333333</v>
       </c>
       <c r="E383"/>
     </row>
@@ -7075,7 +7075,7 @@
         <v>1998</v>
       </c>
       <c r="D385" t="n">
-        <v>28.1766666666667</v>
+        <v>28.1766666667</v>
       </c>
       <c r="E385"/>
     </row>
@@ -7090,7 +7090,7 @@
         <v>1999</v>
       </c>
       <c r="D386" t="n">
-        <v>27.4133333333333</v>
+        <v>27.4133333333</v>
       </c>
       <c r="E386"/>
     </row>
@@ -7120,7 +7120,7 @@
         <v>2001</v>
       </c>
       <c r="D388" t="n">
-        <v>25.8866666666667</v>
+        <v>25.8866666667</v>
       </c>
       <c r="E388"/>
     </row>
@@ -7135,7 +7135,7 @@
         <v>2002</v>
       </c>
       <c r="D389" t="n">
-        <v>25.1233333333333</v>
+        <v>25.1233333333</v>
       </c>
       <c r="E389"/>
     </row>
@@ -9391,7 +9391,7 @@
         <v>2002</v>
       </c>
       <c r="D539" t="n">
-        <v>25.3183333333333</v>
+        <v>25.3183333333</v>
       </c>
       <c r="E539"/>
     </row>
@@ -9406,7 +9406,7 @@
         <v>2003</v>
       </c>
       <c r="D540" t="n">
-        <v>25.7766666666667</v>
+        <v>25.7766666667</v>
       </c>
       <c r="E540"/>
     </row>
@@ -9436,7 +9436,7 @@
         <v>2005</v>
       </c>
       <c r="D542" t="n">
-        <v>26.6933333333333</v>
+        <v>26.6933333333</v>
       </c>
       <c r="E542"/>
     </row>
@@ -9451,7 +9451,7 @@
         <v>2006</v>
       </c>
       <c r="D543" t="n">
-        <v>27.1516666666667</v>
+        <v>27.1516666667</v>
       </c>
       <c r="E543"/>
     </row>
@@ -9958,7 +9958,7 @@
         <v>1993</v>
       </c>
       <c r="D580" t="n">
-        <v>81.2663636363636</v>
+        <v>81.2663636364</v>
       </c>
       <c r="E580"/>
     </row>
@@ -9973,7 +9973,7 @@
         <v>1994</v>
       </c>
       <c r="D581" t="n">
-        <v>79.3827272727273</v>
+        <v>79.3827272727</v>
       </c>
       <c r="E581"/>
     </row>
@@ -9988,7 +9988,7 @@
         <v>1995</v>
       </c>
       <c r="D582" t="n">
-        <v>77.4990909090909</v>
+        <v>77.4990909091</v>
       </c>
       <c r="E582"/>
     </row>
@@ -10003,7 +10003,7 @@
         <v>1996</v>
       </c>
       <c r="D583" t="n">
-        <v>75.6154545454546</v>
+        <v>75.6154545455</v>
       </c>
       <c r="E583"/>
     </row>
@@ -10018,7 +10018,7 @@
         <v>1997</v>
       </c>
       <c r="D584" t="n">
-        <v>73.7318181818182</v>
+        <v>73.7318181818</v>
       </c>
       <c r="E584"/>
     </row>
@@ -10033,7 +10033,7 @@
         <v>1998</v>
       </c>
       <c r="D585" t="n">
-        <v>71.8481818181818</v>
+        <v>71.8481818182</v>
       </c>
       <c r="E585"/>
     </row>
@@ -10048,7 +10048,7 @@
         <v>1999</v>
       </c>
       <c r="D586" t="n">
-        <v>69.9645454545455</v>
+        <v>69.9645454545</v>
       </c>
       <c r="E586"/>
     </row>
@@ -10063,7 +10063,7 @@
         <v>2000</v>
       </c>
       <c r="D587" t="n">
-        <v>68.0809090909091</v>
+        <v>68.0809090909</v>
       </c>
       <c r="E587"/>
     </row>
@@ -10078,7 +10078,7 @@
         <v>2001</v>
       </c>
       <c r="D588" t="n">
-        <v>66.1972727272727</v>
+        <v>66.1972727273</v>
       </c>
       <c r="E588"/>
     </row>
@@ -10093,7 +10093,7 @@
         <v>2002</v>
       </c>
       <c r="D589" t="n">
-        <v>64.3136363636364</v>
+        <v>64.3136363636</v>
       </c>
       <c r="E589"/>
     </row>
@@ -10453,7 +10453,7 @@
         <v>2003</v>
       </c>
       <c r="D615" t="n">
-        <v>59.1155555555556</v>
+        <v>59.1155555556</v>
       </c>
       <c r="E615"/>
     </row>
@@ -10468,7 +10468,7 @@
         <v>2004</v>
       </c>
       <c r="D616" t="n">
-        <v>56.2911111111111</v>
+        <v>56.2911111111</v>
       </c>
       <c r="E616"/>
     </row>
@@ -10483,7 +10483,7 @@
         <v>2005</v>
       </c>
       <c r="D617" t="n">
-        <v>53.4666666666667</v>
+        <v>53.4666666667</v>
       </c>
       <c r="E617"/>
     </row>
@@ -10498,7 +10498,7 @@
         <v>2006</v>
       </c>
       <c r="D618" t="n">
-        <v>50.6422222222222</v>
+        <v>50.6422222222</v>
       </c>
       <c r="E618"/>
     </row>
@@ -10513,7 +10513,7 @@
         <v>2007</v>
       </c>
       <c r="D619" t="n">
-        <v>47.8177777777778</v>
+        <v>47.8177777778</v>
       </c>
       <c r="E619"/>
     </row>
@@ -10528,7 +10528,7 @@
         <v>2008</v>
       </c>
       <c r="D620" t="n">
-        <v>44.9933333333333</v>
+        <v>44.9933333333</v>
       </c>
       <c r="E620"/>
     </row>
@@ -10543,7 +10543,7 @@
         <v>2009</v>
       </c>
       <c r="D621" t="n">
-        <v>42.1688888888889</v>
+        <v>42.1688888889</v>
       </c>
       <c r="E621"/>
     </row>
@@ -10558,7 +10558,7 @@
         <v>2010</v>
       </c>
       <c r="D622" t="n">
-        <v>39.3444444444444</v>
+        <v>39.3444444444</v>
       </c>
       <c r="E622"/>
     </row>
@@ -10806,7 +10806,7 @@
         <v>2001</v>
       </c>
       <c r="D638" t="n">
-        <v>2.01666666666667</v>
+        <v>2.0166666667</v>
       </c>
       <c r="E638"/>
     </row>
@@ -10821,7 +10821,7 @@
         <v>2002</v>
       </c>
       <c r="D639" t="n">
-        <v>1.87333333333333</v>
+        <v>1.8733333333</v>
       </c>
       <c r="E639"/>
     </row>
@@ -11129,7 +11129,7 @@
         <v>1997</v>
       </c>
       <c r="D659" t="n">
-        <v>36.9266666666667</v>
+        <v>36.9266666667</v>
       </c>
       <c r="E659"/>
     </row>
@@ -11144,7 +11144,7 @@
         <v>1998</v>
       </c>
       <c r="D660" t="n">
-        <v>36.4633333333333</v>
+        <v>36.4633333333</v>
       </c>
       <c r="E660"/>
     </row>
@@ -11176,7 +11176,7 @@
         <v>2000</v>
       </c>
       <c r="D662" t="n">
-        <v>33.3533333333333</v>
+        <v>33.3533333333</v>
       </c>
       <c r="E662"/>
     </row>
@@ -11191,7 +11191,7 @@
         <v>2001</v>
       </c>
       <c r="D663" t="n">
-        <v>30.7066666666667</v>
+        <v>30.7066666667</v>
       </c>
       <c r="E663"/>
     </row>
@@ -11223,7 +11223,7 @@
         <v>2003</v>
       </c>
       <c r="D665" t="n">
-        <v>23.9633333333333</v>
+        <v>23.9633333333</v>
       </c>
       <c r="E665"/>
     </row>
@@ -11238,7 +11238,7 @@
         <v>2004</v>
       </c>
       <c r="D666" t="n">
-        <v>19.8666666666667</v>
+        <v>19.8666666667</v>
       </c>
       <c r="E666"/>
     </row>
@@ -11270,7 +11270,7 @@
         <v>2006</v>
       </c>
       <c r="D668" t="n">
-        <v>14.6266666666667</v>
+        <v>14.6266666667</v>
       </c>
       <c r="E668"/>
     </row>
@@ -11285,7 +11285,7 @@
         <v>2007</v>
       </c>
       <c r="D669" t="n">
-        <v>13.4833333333333</v>
+        <v>13.4833333333</v>
       </c>
       <c r="E669"/>
     </row>
@@ -12349,7 +12349,7 @@
         <v>2006</v>
       </c>
       <c r="D743" t="n">
-        <v>50.5533333333333</v>
+        <v>50.5533333333</v>
       </c>
       <c r="E743"/>
     </row>
@@ -12364,7 +12364,7 @@
         <v>2007</v>
       </c>
       <c r="D744" t="n">
-        <v>47.0066666666667</v>
+        <v>47.0066666667</v>
       </c>
       <c r="E744"/>
     </row>
@@ -12394,7 +12394,7 @@
         <v>2009</v>
       </c>
       <c r="D746" t="n">
-        <v>39.9133333333333</v>
+        <v>39.9133333333</v>
       </c>
       <c r="E746"/>
     </row>
@@ -12409,7 +12409,7 @@
         <v>2010</v>
       </c>
       <c r="D747" t="n">
-        <v>36.3666666666667</v>
+        <v>36.3666666667</v>
       </c>
       <c r="E747"/>
     </row>
@@ -13094,7 +13094,7 @@
         <v>2003</v>
       </c>
       <c r="D790" t="n">
-        <v>30.5566666666667</v>
+        <v>30.5566666667</v>
       </c>
       <c r="E790"/>
     </row>
@@ -13109,7 +13109,7 @@
         <v>2004</v>
       </c>
       <c r="D791" t="n">
-        <v>31.4533333333333</v>
+        <v>31.4533333333</v>
       </c>
       <c r="E791"/>
     </row>
@@ -13139,7 +13139,7 @@
         <v>2006</v>
       </c>
       <c r="D793" t="n">
-        <v>33.2466666666667</v>
+        <v>33.2466666667</v>
       </c>
       <c r="E793"/>
     </row>
@@ -13154,7 +13154,7 @@
         <v>2007</v>
       </c>
       <c r="D794" t="n">
-        <v>34.1433333333333</v>
+        <v>34.1433333333</v>
       </c>
       <c r="E794"/>
     </row>
@@ -14004,7 +14004,7 @@
         <v>1994</v>
       </c>
       <c r="D856" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="E856"/>
     </row>
@@ -14019,7 +14019,7 @@
         <v>1995</v>
       </c>
       <c r="D857" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="E857"/>
     </row>
@@ -14051,7 +14051,7 @@
         <v>1997</v>
       </c>
       <c r="D859" t="n">
-        <v>0.115555555555556</v>
+        <v>0.1155555556</v>
       </c>
       <c r="E859"/>
     </row>
@@ -14066,7 +14066,7 @@
         <v>1998</v>
       </c>
       <c r="D860" t="n">
-        <v>0.101111111111111</v>
+        <v>0.1011111111</v>
       </c>
       <c r="E860"/>
     </row>
@@ -14081,7 +14081,7 @@
         <v>1999</v>
       </c>
       <c r="D861" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="E861"/>
     </row>
@@ -14096,7 +14096,7 @@
         <v>2000</v>
       </c>
       <c r="D862" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.0722222222</v>
       </c>
       <c r="E862"/>
     </row>
@@ -14111,7 +14111,7 @@
         <v>2001</v>
       </c>
       <c r="D863" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0577777778</v>
       </c>
       <c r="E863"/>
     </row>
@@ -14126,7 +14126,7 @@
         <v>2002</v>
       </c>
       <c r="D864" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="E864"/>
     </row>
@@ -14141,7 +14141,7 @@
         <v>2003</v>
       </c>
       <c r="D865" t="n">
-        <v>0.0288888888888889</v>
+        <v>0.0288888889</v>
       </c>
       <c r="E865"/>
     </row>
@@ -14156,7 +14156,7 @@
         <v>2004</v>
       </c>
       <c r="D866" t="n">
-        <v>0.0144444444444445</v>
+        <v>0.0144444444</v>
       </c>
       <c r="E866"/>
     </row>
@@ -15103,7 +15103,7 @@
         <v>1998</v>
       </c>
       <c r="D935" t="n">
-        <v>5.04666666666667</v>
+        <v>5.0466666667</v>
       </c>
       <c r="E935"/>
     </row>
@@ -15118,7 +15118,7 @@
         <v>1999</v>
       </c>
       <c r="D936" t="n">
-        <v>5.14333333333333</v>
+        <v>5.1433333333</v>
       </c>
       <c r="E936"/>
     </row>
@@ -15726,7 +15726,7 @@
         <v>1991</v>
       </c>
       <c r="D978" t="n">
-        <v>4.12666666666667</v>
+        <v>4.1266666667</v>
       </c>
       <c r="E978"/>
     </row>
@@ -15741,7 +15741,7 @@
         <v>1992</v>
       </c>
       <c r="D979" t="n">
-        <v>3.79333333333333</v>
+        <v>3.7933333333</v>
       </c>
       <c r="E979"/>
     </row>
@@ -15771,7 +15771,7 @@
         <v>1994</v>
       </c>
       <c r="D981" t="n">
-        <v>3.12666666666667</v>
+        <v>3.1266666667</v>
       </c>
       <c r="E981"/>
     </row>
@@ -15786,7 +15786,7 @@
         <v>1995</v>
       </c>
       <c r="D982" t="n">
-        <v>2.79333333333333</v>
+        <v>2.7933333333</v>
       </c>
       <c r="E982"/>
     </row>
@@ -17225,7 +17225,7 @@
         <v>1996</v>
       </c>
       <c r="D1083" t="n">
-        <v>0.183333333333333</v>
+        <v>0.1833333333</v>
       </c>
       <c r="E1083"/>
     </row>
@@ -17240,7 +17240,7 @@
         <v>1997</v>
       </c>
       <c r="D1084" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1166666667</v>
       </c>
       <c r="E1084"/>
     </row>
@@ -17672,7 +17672,7 @@
         <v>2000</v>
       </c>
       <c r="D1112" t="n">
-        <v>51.9683333333333</v>
+        <v>51.9683333333</v>
       </c>
       <c r="E1112"/>
     </row>
@@ -17687,7 +17687,7 @@
         <v>2001</v>
       </c>
       <c r="D1113" t="n">
-        <v>49.3666666666667</v>
+        <v>49.3666666667</v>
       </c>
       <c r="E1113"/>
     </row>
@@ -17717,7 +17717,7 @@
         <v>2003</v>
       </c>
       <c r="D1115" t="n">
-        <v>44.1633333333333</v>
+        <v>44.1633333333</v>
       </c>
       <c r="E1115"/>
     </row>
@@ -17732,7 +17732,7 @@
         <v>2004</v>
       </c>
       <c r="D1116" t="n">
-        <v>41.5616666666667</v>
+        <v>41.5616666667</v>
       </c>
       <c r="E1116"/>
     </row>
@@ -19329,7 +19329,7 @@
         <v>1992</v>
       </c>
       <c r="D1229" t="n">
-        <v>49.3628571428571</v>
+        <v>49.3628571429</v>
       </c>
       <c r="E1229"/>
     </row>
@@ -19344,7 +19344,7 @@
         <v>1993</v>
       </c>
       <c r="D1230" t="n">
-        <v>47.6557142857143</v>
+        <v>47.6557142857</v>
       </c>
       <c r="E1230"/>
     </row>
@@ -19359,7 +19359,7 @@
         <v>1994</v>
       </c>
       <c r="D1231" t="n">
-        <v>45.9485714285714</v>
+        <v>45.9485714286</v>
       </c>
       <c r="E1231"/>
     </row>
@@ -19374,7 +19374,7 @@
         <v>1995</v>
       </c>
       <c r="D1232" t="n">
-        <v>44.2414285714286</v>
+        <v>44.2414285714</v>
       </c>
       <c r="E1232"/>
     </row>
@@ -19389,7 +19389,7 @@
         <v>1996</v>
       </c>
       <c r="D1233" t="n">
-        <v>42.5342857142857</v>
+        <v>42.5342857143</v>
       </c>
       <c r="E1233"/>
     </row>
@@ -19404,7 +19404,7 @@
         <v>1997</v>
       </c>
       <c r="D1234" t="n">
-        <v>40.8271428571429</v>
+        <v>40.8271428571</v>
       </c>
       <c r="E1234"/>
     </row>
@@ -19436,7 +19436,7 @@
         <v>1999</v>
       </c>
       <c r="D1236" t="n">
-        <v>37.6157142857143</v>
+        <v>37.6157142857</v>
       </c>
       <c r="E1236"/>
     </row>
@@ -19451,7 +19451,7 @@
         <v>2000</v>
       </c>
       <c r="D1237" t="n">
-        <v>36.1114285714286</v>
+        <v>36.1114285714</v>
       </c>
       <c r="E1237"/>
     </row>
@@ -19466,7 +19466,7 @@
         <v>2001</v>
       </c>
       <c r="D1238" t="n">
-        <v>34.6071428571429</v>
+        <v>34.6071428571</v>
       </c>
       <c r="E1238"/>
     </row>
@@ -19481,7 +19481,7 @@
         <v>2002</v>
       </c>
       <c r="D1239" t="n">
-        <v>33.1028571428571</v>
+        <v>33.1028571429</v>
       </c>
       <c r="E1239"/>
     </row>
@@ -19496,7 +19496,7 @@
         <v>2003</v>
       </c>
       <c r="D1240" t="n">
-        <v>31.5985714285714</v>
+        <v>31.5985714286</v>
       </c>
       <c r="E1240"/>
     </row>
@@ -19511,7 +19511,7 @@
         <v>2004</v>
       </c>
       <c r="D1241" t="n">
-        <v>30.0942857142857</v>
+        <v>30.0942857143</v>
       </c>
       <c r="E1241"/>
     </row>
@@ -20382,7 +20382,7 @@
         <v>1992</v>
       </c>
       <c r="D1304" t="n">
-        <v>83.7633333333333</v>
+        <v>83.7633333333</v>
       </c>
       <c r="E1304"/>
     </row>
@@ -20397,7 +20397,7 @@
         <v>1993</v>
       </c>
       <c r="D1305" t="n">
-        <v>73.7866666666667</v>
+        <v>73.7866666667</v>
       </c>
       <c r="E1305"/>
     </row>
@@ -20429,7 +20429,7 @@
         <v>1995</v>
       </c>
       <c r="D1307" t="n">
-        <v>62.9777777777778</v>
+        <v>62.9777777778</v>
       </c>
       <c r="E1307"/>
     </row>
@@ -20444,7 +20444,7 @@
         <v>1996</v>
       </c>
       <c r="D1308" t="n">
-        <v>62.1455555555556</v>
+        <v>62.1455555556</v>
       </c>
       <c r="E1308"/>
     </row>
@@ -20459,7 +20459,7 @@
         <v>1997</v>
       </c>
       <c r="D1309" t="n">
-        <v>61.3133333333333</v>
+        <v>61.3133333333</v>
       </c>
       <c r="E1309"/>
     </row>
@@ -20474,7 +20474,7 @@
         <v>1998</v>
       </c>
       <c r="D1310" t="n">
-        <v>60.4811111111111</v>
+        <v>60.4811111111</v>
       </c>
       <c r="E1310"/>
     </row>
@@ -20489,7 +20489,7 @@
         <v>1999</v>
       </c>
       <c r="D1311" t="n">
-        <v>59.6488888888889</v>
+        <v>59.6488888889</v>
       </c>
       <c r="E1311"/>
     </row>
@@ -20504,7 +20504,7 @@
         <v>2000</v>
       </c>
       <c r="D1312" t="n">
-        <v>58.8166666666667</v>
+        <v>58.8166666667</v>
       </c>
       <c r="E1312"/>
     </row>
@@ -20519,7 +20519,7 @@
         <v>2001</v>
       </c>
       <c r="D1313" t="n">
-        <v>57.9844444444444</v>
+        <v>57.9844444444</v>
       </c>
       <c r="E1313"/>
     </row>
@@ -20534,7 +20534,7 @@
         <v>2002</v>
       </c>
       <c r="D1314" t="n">
-        <v>57.1522222222222</v>
+        <v>57.1522222222</v>
       </c>
       <c r="E1314"/>
     </row>
@@ -20793,7 +20793,7 @@
         <v>1994</v>
       </c>
       <c r="D1331" t="n">
-        <v>63.5044444444444</v>
+        <v>63.5044444444</v>
       </c>
       <c r="E1331"/>
     </row>
@@ -20808,7 +20808,7 @@
         <v>1995</v>
       </c>
       <c r="D1332" t="n">
-        <v>61.6788888888889</v>
+        <v>61.6788888889</v>
       </c>
       <c r="E1332"/>
     </row>
@@ -20823,7 +20823,7 @@
         <v>1996</v>
       </c>
       <c r="D1333" t="n">
-        <v>59.8533333333333</v>
+        <v>59.8533333333</v>
       </c>
       <c r="E1333"/>
     </row>
@@ -20838,7 +20838,7 @@
         <v>1997</v>
       </c>
       <c r="D1334" t="n">
-        <v>58.0277777777778</v>
+        <v>58.0277777778</v>
       </c>
       <c r="E1334"/>
     </row>
@@ -20853,7 +20853,7 @@
         <v>1998</v>
       </c>
       <c r="D1335" t="n">
-        <v>56.2022222222222</v>
+        <v>56.2022222222</v>
       </c>
       <c r="E1335"/>
     </row>
@@ -20868,7 +20868,7 @@
         <v>1999</v>
       </c>
       <c r="D1336" t="n">
-        <v>54.3766666666667</v>
+        <v>54.3766666667</v>
       </c>
       <c r="E1336"/>
     </row>
@@ -20883,7 +20883,7 @@
         <v>2000</v>
       </c>
       <c r="D1337" t="n">
-        <v>52.5511111111111</v>
+        <v>52.5511111111</v>
       </c>
       <c r="E1337"/>
     </row>
@@ -20898,7 +20898,7 @@
         <v>2001</v>
       </c>
       <c r="D1338" t="n">
-        <v>50.7255555555556</v>
+        <v>50.7255555556</v>
       </c>
       <c r="E1338"/>
     </row>
@@ -21129,7 +21129,7 @@
         <v>1993</v>
       </c>
       <c r="D1355" t="n">
-        <v>7.20833333333333</v>
+        <v>7.2083333333</v>
       </c>
       <c r="E1355"/>
     </row>
@@ -21144,7 +21144,7 @@
         <v>1994</v>
       </c>
       <c r="D1356" t="n">
-        <v>7.50666666666667</v>
+        <v>7.5066666667</v>
       </c>
       <c r="E1356"/>
     </row>
@@ -21174,7 +21174,7 @@
         <v>1996</v>
       </c>
       <c r="D1358" t="n">
-        <v>8.10333333333333</v>
+        <v>8.1033333333</v>
       </c>
       <c r="E1358"/>
     </row>
@@ -21189,7 +21189,7 @@
         <v>1997</v>
       </c>
       <c r="D1359" t="n">
-        <v>8.40166666666667</v>
+        <v>8.4016666667</v>
       </c>
       <c r="E1359"/>
     </row>
@@ -22612,7 +22612,7 @@
         <v>1994</v>
       </c>
       <c r="D1456" t="n">
-        <v>48.6945454545455</v>
+        <v>48.6945454545</v>
       </c>
       <c r="E1456"/>
     </row>
@@ -22627,7 +22627,7 @@
         <v>1995</v>
       </c>
       <c r="D1457" t="n">
-        <v>47.9890909090909</v>
+        <v>47.9890909091</v>
       </c>
       <c r="E1457"/>
     </row>
@@ -22642,7 +22642,7 @@
         <v>1996</v>
       </c>
       <c r="D1458" t="n">
-        <v>47.2836363636364</v>
+        <v>47.2836363636</v>
       </c>
       <c r="E1458"/>
     </row>
@@ -22657,7 +22657,7 @@
         <v>1997</v>
       </c>
       <c r="D1459" t="n">
-        <v>46.5781818181818</v>
+        <v>46.5781818182</v>
       </c>
       <c r="E1459"/>
     </row>
@@ -22672,7 +22672,7 @@
         <v>1998</v>
       </c>
       <c r="D1460" t="n">
-        <v>45.8727272727273</v>
+        <v>45.8727272727</v>
       </c>
       <c r="E1460"/>
     </row>
@@ -22687,7 +22687,7 @@
         <v>1999</v>
       </c>
       <c r="D1461" t="n">
-        <v>45.1672727272727</v>
+        <v>45.1672727273</v>
       </c>
       <c r="E1461"/>
     </row>
@@ -22702,7 +22702,7 @@
         <v>2000</v>
       </c>
       <c r="D1462" t="n">
-        <v>44.4618181818182</v>
+        <v>44.4618181818</v>
       </c>
       <c r="E1462"/>
     </row>
@@ -22717,7 +22717,7 @@
         <v>2001</v>
       </c>
       <c r="D1463" t="n">
-        <v>43.7563636363636</v>
+        <v>43.7563636364</v>
       </c>
       <c r="E1463"/>
     </row>
@@ -22732,7 +22732,7 @@
         <v>2002</v>
       </c>
       <c r="D1464" t="n">
-        <v>43.0509090909091</v>
+        <v>43.0509090909</v>
       </c>
       <c r="E1464"/>
     </row>
@@ -22747,7 +22747,7 @@
         <v>2003</v>
       </c>
       <c r="D1465" t="n">
-        <v>42.3454545454545</v>
+        <v>42.3454545455</v>
       </c>
       <c r="E1465"/>
     </row>
@@ -22856,7 +22856,7 @@
         <v>2010</v>
       </c>
       <c r="D1472" t="n">
-        <v>28.1547318942645</v>
+        <v>28.1547318943</v>
       </c>
       <c r="E1472"/>
     </row>
@@ -22871,10 +22871,10 @@
         <v>2011</v>
       </c>
       <c r="D1473" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
       <c r="E1473" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
     </row>
     <row r="1474">
@@ -22944,7 +22944,7 @@
         <v>1991</v>
       </c>
       <c r="D1478" t="n">
-        <v>54.3133333333333</v>
+        <v>54.3133333333</v>
       </c>
       <c r="E1478"/>
     </row>
@@ -22959,7 +22959,7 @@
         <v>1992</v>
       </c>
       <c r="D1479" t="n">
-        <v>54.3566666666667</v>
+        <v>54.3566666667</v>
       </c>
       <c r="E1479"/>
     </row>
@@ -22991,7 +22991,7 @@
         <v>1994</v>
       </c>
       <c r="D1481" t="n">
-        <v>50.7266666666667</v>
+        <v>50.7266666667</v>
       </c>
       <c r="E1481"/>
     </row>
@@ -23006,7 +23006,7 @@
         <v>1995</v>
       </c>
       <c r="D1482" t="n">
-        <v>47.0533333333333</v>
+        <v>47.0533333333</v>
       </c>
       <c r="E1482"/>
     </row>
@@ -23085,7 +23085,7 @@
         <v>2000</v>
       </c>
       <c r="D1487" t="n">
-        <v>41.5966666666667</v>
+        <v>41.5966666667</v>
       </c>
       <c r="E1487"/>
     </row>
@@ -23100,7 +23100,7 @@
         <v>2001</v>
       </c>
       <c r="D1488" t="n">
-        <v>35.4933333333333</v>
+        <v>35.4933333333</v>
       </c>
       <c r="E1488"/>
     </row>
@@ -23132,7 +23132,7 @@
         <v>2003</v>
       </c>
       <c r="D1490" t="n">
-        <v>26.7766666666667</v>
+        <v>26.7766666667</v>
       </c>
       <c r="E1490"/>
     </row>
@@ -23147,7 +23147,7 @@
         <v>2004</v>
       </c>
       <c r="D1491" t="n">
-        <v>24.1633333333333</v>
+        <v>24.1633333333</v>
       </c>
       <c r="E1491"/>
     </row>
@@ -23179,7 +23179,7 @@
         <v>2006</v>
       </c>
       <c r="D1493" t="n">
-        <v>21.9366666666667</v>
+        <v>21.9366666667</v>
       </c>
       <c r="E1493"/>
     </row>
@@ -23194,7 +23194,7 @@
         <v>2007</v>
       </c>
       <c r="D1494" t="n">
-        <v>22.3233333333333</v>
+        <v>22.3233333333</v>
       </c>
       <c r="E1494"/>
     </row>
@@ -23455,7 +23455,7 @@
         <v>1999</v>
       </c>
       <c r="D1511" t="n">
-        <v>1.28714285714286</v>
+        <v>1.2871428571</v>
       </c>
       <c r="E1511"/>
     </row>
@@ -23470,7 +23470,7 @@
         <v>2000</v>
       </c>
       <c r="D1512" t="n">
-        <v>1.31428571428571</v>
+        <v>1.3142857143</v>
       </c>
       <c r="E1512"/>
     </row>
@@ -23485,7 +23485,7 @@
         <v>2001</v>
       </c>
       <c r="D1513" t="n">
-        <v>1.34142857142857</v>
+        <v>1.3414285714</v>
       </c>
       <c r="E1513"/>
     </row>
@@ -23500,7 +23500,7 @@
         <v>2002</v>
       </c>
       <c r="D1514" t="n">
-        <v>1.36857142857143</v>
+        <v>1.3685714286</v>
       </c>
       <c r="E1514"/>
     </row>
@@ -23515,7 +23515,7 @@
         <v>2003</v>
       </c>
       <c r="D1515" t="n">
-        <v>1.39571428571429</v>
+        <v>1.3957142857</v>
       </c>
       <c r="E1515"/>
     </row>
@@ -23530,7 +23530,7 @@
         <v>2004</v>
       </c>
       <c r="D1516" t="n">
-        <v>1.42285714285714</v>
+        <v>1.4228571429</v>
       </c>
       <c r="E1516"/>
     </row>
@@ -24084,7 +24084,7 @@
         <v>1994</v>
       </c>
       <c r="D1556" t="n">
-        <v>3.13333333333333</v>
+        <v>3.1333333333</v>
       </c>
       <c r="E1556"/>
     </row>
@@ -24099,7 +24099,7 @@
         <v>1995</v>
       </c>
       <c r="D1557" t="n">
-        <v>2.44666666666667</v>
+        <v>2.4466666667</v>
       </c>
       <c r="E1557"/>
     </row>
@@ -24131,7 +24131,7 @@
         <v>1997</v>
       </c>
       <c r="D1559" t="n">
-        <v>1.61666666666667</v>
+        <v>1.6166666667</v>
       </c>
       <c r="E1559"/>
     </row>
@@ -24146,7 +24146,7 @@
         <v>1998</v>
       </c>
       <c r="D1560" t="n">
-        <v>1.47333333333333</v>
+        <v>1.4733333333</v>
       </c>
       <c r="E1560"/>
     </row>
@@ -24820,7 +24820,7 @@
         <v>1994</v>
       </c>
       <c r="D1606" t="n">
-        <v>4.46666666666667</v>
+        <v>4.4666666667</v>
       </c>
       <c r="E1606"/>
     </row>
@@ -24835,7 +24835,7 @@
         <v>1995</v>
       </c>
       <c r="D1607" t="n">
-        <v>4.72333333333333</v>
+        <v>4.7233333333</v>
       </c>
       <c r="E1607"/>
     </row>
@@ -28715,7 +28715,7 @@
         <v>1994</v>
       </c>
       <c r="D1881" t="n">
-        <v>1.43333333333333</v>
+        <v>1.4333333333</v>
       </c>
       <c r="E1881"/>
     </row>
@@ -28730,7 +28730,7 @@
         <v>1995</v>
       </c>
       <c r="D1882" t="n">
-        <v>0.716666666666667</v>
+        <v>0.7166666667</v>
       </c>
       <c r="E1882"/>
     </row>
@@ -29892,7 +29892,7 @@
         <v>1998</v>
       </c>
       <c r="D1960" t="n">
-        <v>82.0385714285714</v>
+        <v>82.0385714286</v>
       </c>
       <c r="E1960"/>
     </row>
@@ -29907,7 +29907,7 @@
         <v>1999</v>
       </c>
       <c r="D1961" t="n">
-        <v>80.8571428571429</v>
+        <v>80.8571428571</v>
       </c>
       <c r="E1961"/>
     </row>
@@ -29922,7 +29922,7 @@
         <v>2000</v>
       </c>
       <c r="D1962" t="n">
-        <v>79.6757142857143</v>
+        <v>79.6757142857</v>
       </c>
       <c r="E1962"/>
     </row>
@@ -29937,7 +29937,7 @@
         <v>2001</v>
       </c>
       <c r="D1963" t="n">
-        <v>78.4942857142857</v>
+        <v>78.4942857143</v>
       </c>
       <c r="E1963"/>
     </row>
@@ -29952,7 +29952,7 @@
         <v>2002</v>
       </c>
       <c r="D1964" t="n">
-        <v>77.3128571428571</v>
+        <v>77.3128571429</v>
       </c>
       <c r="E1964"/>
     </row>
@@ -29967,7 +29967,7 @@
         <v>2003</v>
       </c>
       <c r="D1965" t="n">
-        <v>76.1314285714286</v>
+        <v>76.1314285714</v>
       </c>
       <c r="E1965"/>
     </row>
@@ -30186,7 +30186,7 @@
         <v>1993</v>
       </c>
       <c r="D1980" t="n">
-        <v>1.78333333333333</v>
+        <v>1.7833333333</v>
       </c>
       <c r="E1980"/>
     </row>
@@ -30201,7 +30201,7 @@
         <v>1994</v>
       </c>
       <c r="D1981" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="E1981"/>
     </row>
@@ -30637,7 +30637,7 @@
         <v>1999</v>
       </c>
       <c r="D2011" t="n">
-        <v>21.5716666666667</v>
+        <v>21.5716666667</v>
       </c>
       <c r="E2011"/>
     </row>
@@ -30652,7 +30652,7 @@
         <v>2000</v>
       </c>
       <c r="D2012" t="n">
-        <v>17.5533333333333</v>
+        <v>17.5533333333</v>
       </c>
       <c r="E2012"/>
     </row>
@@ -30682,7 +30682,7 @@
         <v>2002</v>
       </c>
       <c r="D2014" t="n">
-        <v>9.51666666666667</v>
+        <v>9.5166666667</v>
       </c>
       <c r="E2014"/>
     </row>
@@ -30697,7 +30697,7 @@
         <v>2003</v>
       </c>
       <c r="D2015" t="n">
-        <v>5.49833333333333</v>
+        <v>5.4983333333</v>
       </c>
       <c r="E2015"/>
     </row>
@@ -30928,7 +30928,7 @@
         <v>1995</v>
       </c>
       <c r="D2032" t="n">
-        <v>82.3857142857143</v>
+        <v>82.3857142857</v>
       </c>
       <c r="E2032"/>
     </row>
@@ -30943,7 +30943,7 @@
         <v>1996</v>
       </c>
       <c r="D2033" t="n">
-        <v>78.8514285714286</v>
+        <v>78.8514285714</v>
       </c>
       <c r="E2033"/>
     </row>
@@ -30958,7 +30958,7 @@
         <v>1997</v>
       </c>
       <c r="D2034" t="n">
-        <v>75.3171428571429</v>
+        <v>75.3171428571</v>
       </c>
       <c r="E2034"/>
     </row>
@@ -30973,7 +30973,7 @@
         <v>1998</v>
       </c>
       <c r="D2035" t="n">
-        <v>71.7828571428571</v>
+        <v>71.7828571429</v>
       </c>
       <c r="E2035"/>
     </row>
@@ -30988,7 +30988,7 @@
         <v>1999</v>
       </c>
       <c r="D2036" t="n">
-        <v>68.2485714285714</v>
+        <v>68.2485714286</v>
       </c>
       <c r="E2036"/>
     </row>
@@ -31003,7 +31003,7 @@
         <v>2000</v>
       </c>
       <c r="D2037" t="n">
-        <v>64.7142857142857</v>
+        <v>64.7142857143</v>
       </c>
       <c r="E2037"/>
     </row>
@@ -32143,7 +32143,7 @@
         <v>2007</v>
       </c>
       <c r="D2119" t="n">
-        <v>0.246666666666667</v>
+        <v>0.2466666667</v>
       </c>
       <c r="E2119"/>
     </row>
@@ -32158,7 +32158,7 @@
         <v>2008</v>
       </c>
       <c r="D2120" t="n">
-        <v>0.283333333333333</v>
+        <v>0.2833333333</v>
       </c>
       <c r="E2120"/>
     </row>
@@ -32188,7 +32188,7 @@
         <v>2010</v>
       </c>
       <c r="D2122" t="n">
-        <v>0.356666666666667</v>
+        <v>0.3566666667</v>
       </c>
       <c r="E2122"/>
     </row>
@@ -32203,7 +32203,7 @@
         <v>2011</v>
       </c>
       <c r="D2123" t="n">
-        <v>0.393333333333333</v>
+        <v>0.3933333333</v>
       </c>
       <c r="E2123"/>
     </row>
@@ -34193,7 +34193,7 @@
         <v>1999</v>
       </c>
       <c r="D2261" t="n">
-        <v>6.59666666666667</v>
+        <v>6.5966666667</v>
       </c>
       <c r="E2261"/>
     </row>
@@ -34208,7 +34208,7 @@
         <v>2000</v>
       </c>
       <c r="D2262" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4333333333</v>
       </c>
       <c r="E2262"/>
     </row>
@@ -34240,7 +34240,7 @@
         <v>2002</v>
       </c>
       <c r="D2264" t="n">
-        <v>5.65333333333333</v>
+        <v>5.6533333333</v>
       </c>
       <c r="E2264"/>
     </row>
@@ -34255,7 +34255,7 @@
         <v>2003</v>
       </c>
       <c r="D2265" t="n">
-        <v>5.03666666666667</v>
+        <v>5.0366666667</v>
       </c>
       <c r="E2265"/>
     </row>
@@ -34285,7 +34285,7 @@
         <v>2005</v>
       </c>
       <c r="D2267" t="n">
-        <v>3.80333333333333</v>
+        <v>3.8033333333</v>
       </c>
       <c r="E2267"/>
     </row>
@@ -34300,7 +34300,7 @@
         <v>2006</v>
       </c>
       <c r="D2268" t="n">
-        <v>3.18666666666667</v>
+        <v>3.1866666667</v>
       </c>
       <c r="E2268"/>
     </row>
@@ -34518,7 +34518,7 @@
         <v>1997</v>
       </c>
       <c r="D2284" t="n">
-        <v>79.6066666666667</v>
+        <v>79.6066666667</v>
       </c>
       <c r="E2284"/>
     </row>
@@ -34533,7 +34533,7 @@
         <v>1998</v>
       </c>
       <c r="D2285" t="n">
-        <v>78.6233333333333</v>
+        <v>78.6233333333</v>
       </c>
       <c r="E2285"/>
     </row>
@@ -34563,7 +34563,7 @@
         <v>2000</v>
       </c>
       <c r="D2287" t="n">
-        <v>76.6566666666667</v>
+        <v>76.6566666667</v>
       </c>
       <c r="E2287"/>
     </row>
@@ -34578,7 +34578,7 @@
         <v>2001</v>
       </c>
       <c r="D2288" t="n">
-        <v>75.6733333333333</v>
+        <v>75.6733333333</v>
       </c>
       <c r="E2288"/>
     </row>
@@ -34610,7 +34610,7 @@
         <v>2003</v>
       </c>
       <c r="D2290" t="n">
-        <v>72.6928571428571</v>
+        <v>72.6928571429</v>
       </c>
       <c r="E2290"/>
     </row>
@@ -34625,7 +34625,7 @@
         <v>2004</v>
       </c>
       <c r="D2291" t="n">
-        <v>70.6957142857143</v>
+        <v>70.6957142857</v>
       </c>
       <c r="E2291"/>
     </row>
@@ -34640,7 +34640,7 @@
         <v>2005</v>
       </c>
       <c r="D2292" t="n">
-        <v>68.6985714285714</v>
+        <v>68.6985714286</v>
       </c>
       <c r="E2292"/>
     </row>
@@ -34655,7 +34655,7 @@
         <v>2006</v>
       </c>
       <c r="D2293" t="n">
-        <v>66.7014285714286</v>
+        <v>66.7014285714</v>
       </c>
       <c r="E2293"/>
     </row>
@@ -34670,7 +34670,7 @@
         <v>2007</v>
       </c>
       <c r="D2294" t="n">
-        <v>64.7042857142857</v>
+        <v>64.7042857143</v>
       </c>
       <c r="E2294"/>
     </row>
@@ -34685,7 +34685,7 @@
         <v>2008</v>
       </c>
       <c r="D2295" t="n">
-        <v>62.7071428571429</v>
+        <v>62.7071428571</v>
       </c>
       <c r="E2295"/>
     </row>
@@ -35163,7 +35163,7 @@
         <v>1994</v>
       </c>
       <c r="D2331" t="n">
-        <v>47.5736363636364</v>
+        <v>47.5736363636</v>
       </c>
       <c r="E2331"/>
     </row>
@@ -35178,7 +35178,7 @@
         <v>1995</v>
       </c>
       <c r="D2332" t="n">
-        <v>46.0072727272727</v>
+        <v>46.0072727273</v>
       </c>
       <c r="E2332"/>
     </row>
@@ -35193,7 +35193,7 @@
         <v>1996</v>
       </c>
       <c r="D2333" t="n">
-        <v>44.4409090909091</v>
+        <v>44.4409090909</v>
       </c>
       <c r="E2333"/>
     </row>
@@ -35208,7 +35208,7 @@
         <v>1997</v>
       </c>
       <c r="D2334" t="n">
-        <v>42.8745454545455</v>
+        <v>42.8745454545</v>
       </c>
       <c r="E2334"/>
     </row>
@@ -35223,7 +35223,7 @@
         <v>1998</v>
       </c>
       <c r="D2335" t="n">
-        <v>41.3081818181818</v>
+        <v>41.3081818182</v>
       </c>
       <c r="E2335"/>
     </row>
@@ -35238,7 +35238,7 @@
         <v>1999</v>
       </c>
       <c r="D2336" t="n">
-        <v>39.7418181818182</v>
+        <v>39.7418181818</v>
       </c>
       <c r="E2336"/>
     </row>
@@ -35253,7 +35253,7 @@
         <v>2000</v>
       </c>
       <c r="D2337" t="n">
-        <v>38.1754545454545</v>
+        <v>38.1754545455</v>
       </c>
       <c r="E2337"/>
     </row>
@@ -35268,7 +35268,7 @@
         <v>2001</v>
       </c>
       <c r="D2338" t="n">
-        <v>36.6090909090909</v>
+        <v>36.6090909091</v>
       </c>
       <c r="E2338"/>
     </row>
@@ -35283,7 +35283,7 @@
         <v>2002</v>
       </c>
       <c r="D2339" t="n">
-        <v>35.0427272727273</v>
+        <v>35.0427272727</v>
       </c>
       <c r="E2339"/>
     </row>
@@ -35298,7 +35298,7 @@
         <v>2003</v>
       </c>
       <c r="D2340" t="n">
-        <v>33.4763636363636</v>
+        <v>33.4763636364</v>
       </c>
       <c r="E2340"/>
     </row>
@@ -35676,7 +35676,7 @@
         <v>2004</v>
       </c>
       <c r="D2366" t="n">
-        <v>48.9314285714286</v>
+        <v>48.9314285714</v>
       </c>
       <c r="E2366"/>
     </row>
@@ -35691,7 +35691,7 @@
         <v>2005</v>
       </c>
       <c r="D2367" t="n">
-        <v>44.7328571428571</v>
+        <v>44.7328571429</v>
       </c>
       <c r="E2367"/>
     </row>
@@ -35706,7 +35706,7 @@
         <v>2006</v>
       </c>
       <c r="D2368" t="n">
-        <v>40.5342857142857</v>
+        <v>40.5342857143</v>
       </c>
       <c r="E2368"/>
     </row>
@@ -35721,7 +35721,7 @@
         <v>2007</v>
       </c>
       <c r="D2369" t="n">
-        <v>36.3357142857143</v>
+        <v>36.3357142857</v>
       </c>
       <c r="E2369"/>
     </row>
@@ -35736,7 +35736,7 @@
         <v>2008</v>
       </c>
       <c r="D2370" t="n">
-        <v>32.1371428571429</v>
+        <v>32.1371428571</v>
       </c>
       <c r="E2370"/>
     </row>
@@ -35751,7 +35751,7 @@
         <v>2009</v>
       </c>
       <c r="D2371" t="n">
-        <v>27.9385714285714</v>
+        <v>27.9385714286</v>
       </c>
       <c r="E2371"/>
     </row>
@@ -36279,7 +36279,7 @@
         <v>1995</v>
       </c>
       <c r="D2407" t="n">
-        <v>75.7227272727273</v>
+        <v>75.7227272727</v>
       </c>
       <c r="E2407"/>
     </row>
@@ -36294,7 +36294,7 @@
         <v>1996</v>
       </c>
       <c r="D2408" t="n">
-        <v>73.2754545454546</v>
+        <v>73.2754545455</v>
       </c>
       <c r="E2408"/>
     </row>
@@ -36309,7 +36309,7 @@
         <v>1997</v>
       </c>
       <c r="D2409" t="n">
-        <v>70.8281818181818</v>
+        <v>70.8281818182</v>
       </c>
       <c r="E2409"/>
     </row>
@@ -36324,7 +36324,7 @@
         <v>1998</v>
       </c>
       <c r="D2410" t="n">
-        <v>68.3809090909091</v>
+        <v>68.3809090909</v>
       </c>
       <c r="E2410"/>
     </row>
@@ -36339,7 +36339,7 @@
         <v>1999</v>
       </c>
       <c r="D2411" t="n">
-        <v>65.9336363636364</v>
+        <v>65.9336363636</v>
       </c>
       <c r="E2411"/>
     </row>
@@ -36354,7 +36354,7 @@
         <v>2000</v>
       </c>
       <c r="D2412" t="n">
-        <v>63.4863636363636</v>
+        <v>63.4863636364</v>
       </c>
       <c r="E2412"/>
     </row>
@@ -36369,7 +36369,7 @@
         <v>2001</v>
       </c>
       <c r="D2413" t="n">
-        <v>61.0390909090909</v>
+        <v>61.0390909091</v>
       </c>
       <c r="E2413"/>
     </row>
@@ -36384,7 +36384,7 @@
         <v>2002</v>
       </c>
       <c r="D2414" t="n">
-        <v>58.5918181818182</v>
+        <v>58.5918181818</v>
       </c>
       <c r="E2414"/>
     </row>
@@ -36399,7 +36399,7 @@
         <v>2003</v>
       </c>
       <c r="D2415" t="n">
-        <v>56.1445454545455</v>
+        <v>56.1445454545</v>
       </c>
       <c r="E2415"/>
     </row>
@@ -36414,7 +36414,7 @@
         <v>2004</v>
       </c>
       <c r="D2416" t="n">
-        <v>53.6972727272727</v>
+        <v>53.6972727273</v>
       </c>
       <c r="E2416"/>
     </row>
@@ -36806,7 +36806,7 @@
         <v>2005</v>
       </c>
       <c r="D2442" t="n">
-        <v>61.8716666666667</v>
+        <v>61.8716666667</v>
       </c>
       <c r="E2442"/>
     </row>
@@ -36821,7 +36821,7 @@
         <v>2006</v>
       </c>
       <c r="D2443" t="n">
-        <v>61.9033333333333</v>
+        <v>61.9033333333</v>
       </c>
       <c r="E2443"/>
     </row>
@@ -36851,7 +36851,7 @@
         <v>2008</v>
       </c>
       <c r="D2445" t="n">
-        <v>61.9666666666667</v>
+        <v>61.9666666667</v>
       </c>
       <c r="E2445"/>
     </row>
@@ -36866,7 +36866,7 @@
         <v>2009</v>
       </c>
       <c r="D2446" t="n">
-        <v>61.9983333333333</v>
+        <v>61.9983333333</v>
       </c>
       <c r="E2446"/>
     </row>
@@ -36967,7 +36967,7 @@
         <v>1991</v>
       </c>
       <c r="D2453" t="n">
-        <v>61.9483333333333</v>
+        <v>61.9483333333</v>
       </c>
       <c r="E2453"/>
     </row>
@@ -36982,7 +36982,7 @@
         <v>1992</v>
       </c>
       <c r="D2454" t="n">
-        <v>59.1866666666667</v>
+        <v>59.1866666667</v>
       </c>
       <c r="E2454"/>
     </row>
@@ -37012,7 +37012,7 @@
         <v>1994</v>
       </c>
       <c r="D2456" t="n">
-        <v>53.6633333333333</v>
+        <v>53.6633333333</v>
       </c>
       <c r="E2456"/>
     </row>
@@ -37027,7 +37027,7 @@
         <v>1995</v>
       </c>
       <c r="D2457" t="n">
-        <v>50.9016666666667</v>
+        <v>50.9016666667</v>
       </c>
       <c r="E2457"/>
     </row>
@@ -37091,7 +37091,7 @@
         <v>1999</v>
       </c>
       <c r="D2461" t="n">
-        <v>31.3233333333333</v>
+        <v>31.3233333333</v>
       </c>
       <c r="E2461"/>
     </row>
@@ -37106,7 +37106,7 @@
         <v>2000</v>
       </c>
       <c r="D2462" t="n">
-        <v>33.5966666666667</v>
+        <v>33.5966666667</v>
       </c>
       <c r="E2462"/>
     </row>
@@ -37138,7 +37138,7 @@
         <v>2002</v>
       </c>
       <c r="D2464" t="n">
-        <v>31.4433333333333</v>
+        <v>31.4433333333</v>
       </c>
       <c r="E2464"/>
     </row>
@@ -37153,7 +37153,7 @@
         <v>2003</v>
       </c>
       <c r="D2465" t="n">
-        <v>27.0166666666667</v>
+        <v>27.0166666667</v>
       </c>
       <c r="E2465"/>
     </row>
@@ -39205,7 +39205,7 @@
         <v>1995</v>
       </c>
       <c r="D2607" t="n">
-        <v>6.86333333333333</v>
+        <v>6.8633333333</v>
       </c>
       <c r="E2607"/>
     </row>
@@ -39220,7 +39220,7 @@
         <v>1996</v>
       </c>
       <c r="D2608" t="n">
-        <v>3.91666666666667</v>
+        <v>3.9166666667</v>
       </c>
       <c r="E2608"/>
     </row>
@@ -39657,7 +39657,7 @@
         <v>1998</v>
       </c>
       <c r="D2635" t="n">
-        <v>23.9966666666667</v>
+        <v>23.9966666667</v>
       </c>
       <c r="E2635"/>
     </row>
@@ -39672,7 +39672,7 @@
         <v>1999</v>
       </c>
       <c r="D2636" t="n">
-        <v>24.2933333333333</v>
+        <v>24.2933333333</v>
       </c>
       <c r="E2636"/>
     </row>
@@ -39798,7 +39798,7 @@
         <v>2007</v>
       </c>
       <c r="D2644" t="n">
-        <v>21.0866666666667</v>
+        <v>21.0866666667</v>
       </c>
       <c r="E2644"/>
     </row>
@@ -39813,7 +39813,7 @@
         <v>2008</v>
       </c>
       <c r="D2645" t="n">
-        <v>19.5933333333333</v>
+        <v>19.5933333333</v>
       </c>
       <c r="E2645"/>
     </row>
@@ -39845,7 +39845,7 @@
         <v>2010</v>
       </c>
       <c r="D2647" t="n">
-        <v>18.3866666666667</v>
+        <v>18.3866666667</v>
       </c>
       <c r="E2647"/>
     </row>
@@ -39860,7 +39860,7 @@
         <v>2011</v>
       </c>
       <c r="D2648" t="n">
-        <v>18.6733333333333</v>
+        <v>18.6733333333</v>
       </c>
       <c r="E2648"/>
     </row>
@@ -40768,7 +40768,7 @@
         <v>1994</v>
       </c>
       <c r="D2706" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="E2706"/>
     </row>
@@ -40783,7 +40783,7 @@
         <v>1995</v>
       </c>
       <c r="D2707" t="n">
-        <v>2.37333333333333</v>
+        <v>2.3733333333</v>
       </c>
       <c r="E2707"/>
     </row>
@@ -41242,7 +41242,7 @@
         <v>2001</v>
       </c>
       <c r="D2738" t="n">
-        <v>78.1366666666667</v>
+        <v>78.1366666667</v>
       </c>
       <c r="E2738"/>
     </row>
@@ -41257,7 +41257,7 @@
         <v>2002</v>
       </c>
       <c r="D2739" t="n">
-        <v>76.9033333333333</v>
+        <v>76.9033333333</v>
       </c>
       <c r="E2739"/>
     </row>
@@ -41287,7 +41287,7 @@
         <v>2004</v>
       </c>
       <c r="D2741" t="n">
-        <v>74.4366666666667</v>
+        <v>74.4366666667</v>
       </c>
       <c r="E2741"/>
     </row>
@@ -41302,7 +41302,7 @@
         <v>2005</v>
       </c>
       <c r="D2742" t="n">
-        <v>73.2033333333333</v>
+        <v>73.2033333333</v>
       </c>
       <c r="E2742"/>
     </row>
@@ -43135,7 +43135,7 @@
         <v>1992</v>
       </c>
       <c r="D2879" t="n">
-        <v>61.6366666666667</v>
+        <v>61.6366666667</v>
       </c>
       <c r="E2879"/>
     </row>
@@ -43150,7 +43150,7 @@
         <v>1993</v>
       </c>
       <c r="D2880" t="n">
-        <v>57.5633333333333</v>
+        <v>57.5633333333</v>
       </c>
       <c r="E2880"/>
     </row>
@@ -43182,7 +43182,7 @@
         <v>1995</v>
       </c>
       <c r="D2882" t="n">
-        <v>52.1528571428571</v>
+        <v>52.1528571429</v>
       </c>
       <c r="E2882"/>
     </row>
@@ -43197,7 +43197,7 @@
         <v>1996</v>
       </c>
       <c r="D2883" t="n">
-        <v>50.8157142857143</v>
+        <v>50.8157142857</v>
       </c>
       <c r="E2883"/>
     </row>
@@ -43212,7 +43212,7 @@
         <v>1997</v>
       </c>
       <c r="D2884" t="n">
-        <v>49.4785714285714</v>
+        <v>49.4785714286</v>
       </c>
       <c r="E2884"/>
     </row>
@@ -43227,7 +43227,7 @@
         <v>1998</v>
       </c>
       <c r="D2885" t="n">
-        <v>48.1414285714286</v>
+        <v>48.1414285714</v>
       </c>
       <c r="E2885"/>
     </row>
@@ -43242,7 +43242,7 @@
         <v>1999</v>
       </c>
       <c r="D2886" t="n">
-        <v>46.8042857142857</v>
+        <v>46.8042857143</v>
       </c>
       <c r="E2886"/>
     </row>
@@ -43257,7 +43257,7 @@
         <v>2000</v>
       </c>
       <c r="D2887" t="n">
-        <v>45.4671428571429</v>
+        <v>45.4671428571</v>
       </c>
       <c r="E2887"/>
     </row>
@@ -43351,7 +43351,7 @@
         <v>2006</v>
       </c>
       <c r="D2893" t="n">
-        <v>33.5933333333333</v>
+        <v>33.5933333333</v>
       </c>
       <c r="E2893"/>
     </row>
@@ -43366,7 +43366,7 @@
         <v>2007</v>
       </c>
       <c r="D2894" t="n">
-        <v>33.6866666666667</v>
+        <v>33.6866666667</v>
       </c>
       <c r="E2894"/>
     </row>
@@ -43396,7 +43396,7 @@
         <v>2009</v>
       </c>
       <c r="D2896" t="n">
-        <v>33.8733333333333</v>
+        <v>33.8733333333</v>
       </c>
       <c r="E2896"/>
     </row>
@@ -43411,7 +43411,7 @@
         <v>2010</v>
       </c>
       <c r="D2897" t="n">
-        <v>33.9666666666667</v>
+        <v>33.9666666667</v>
       </c>
       <c r="E2897"/>
     </row>
@@ -43977,7 +43977,7 @@
         <v>2000</v>
       </c>
       <c r="D2937" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.0357142857</v>
       </c>
       <c r="E2937"/>
     </row>
@@ -43992,7 +43992,7 @@
         <v>2001</v>
       </c>
       <c r="D2938" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0714285714</v>
       </c>
       <c r="E2938"/>
     </row>
@@ -44007,7 +44007,7 @@
         <v>2002</v>
       </c>
       <c r="D2939" t="n">
-        <v>0.107142857142857</v>
+        <v>0.1071428571</v>
       </c>
       <c r="E2939"/>
     </row>
@@ -44022,7 +44022,7 @@
         <v>2003</v>
       </c>
       <c r="D2940" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1428571429</v>
       </c>
       <c r="E2940"/>
     </row>
@@ -44037,7 +44037,7 @@
         <v>2004</v>
       </c>
       <c r="D2941" t="n">
-        <v>0.178571428571429</v>
+        <v>0.1785714286</v>
       </c>
       <c r="E2941"/>
     </row>
@@ -44052,7 +44052,7 @@
         <v>2005</v>
       </c>
       <c r="D2942" t="n">
-        <v>0.214285714285714</v>
+        <v>0.2142857143</v>
       </c>
       <c r="E2942"/>
     </row>
@@ -46150,7 +46150,7 @@
         <v>2007</v>
       </c>
       <c r="D3094" t="n">
-        <v>15.7033333333333</v>
+        <v>15.7033333333</v>
       </c>
       <c r="E3094"/>
     </row>
@@ -46165,7 +46165,7 @@
         <v>2008</v>
       </c>
       <c r="D3095" t="n">
-        <v>14.6866666666667</v>
+        <v>14.6866666667</v>
       </c>
       <c r="E3095"/>
     </row>
@@ -46687,7 +46687,7 @@
         <v>1996</v>
       </c>
       <c r="D3133" t="n">
-        <v>15.9814285714286</v>
+        <v>15.9814285714</v>
       </c>
       <c r="E3133"/>
     </row>
@@ -46702,7 +46702,7 @@
         <v>1997</v>
       </c>
       <c r="D3134" t="n">
-        <v>15.6428571428571</v>
+        <v>15.6428571429</v>
       </c>
       <c r="E3134"/>
     </row>
@@ -46717,7 +46717,7 @@
         <v>1998</v>
       </c>
       <c r="D3135" t="n">
-        <v>15.3042857142857</v>
+        <v>15.3042857143</v>
       </c>
       <c r="E3135"/>
     </row>
@@ -46732,7 +46732,7 @@
         <v>1999</v>
       </c>
       <c r="D3136" t="n">
-        <v>14.9657142857143</v>
+        <v>14.9657142857</v>
       </c>
       <c r="E3136"/>
     </row>
@@ -46747,7 +46747,7 @@
         <v>2000</v>
       </c>
       <c r="D3137" t="n">
-        <v>14.6271428571429</v>
+        <v>14.6271428571</v>
       </c>
       <c r="E3137"/>
     </row>
@@ -46762,7 +46762,7 @@
         <v>2001</v>
       </c>
       <c r="D3138" t="n">
-        <v>14.2885714285714</v>
+        <v>14.2885714286</v>
       </c>
       <c r="E3138"/>
     </row>
@@ -46856,7 +46856,7 @@
         <v>2007</v>
       </c>
       <c r="D3144" t="n">
-        <v>6.06333333333333</v>
+        <v>6.0633333333</v>
       </c>
       <c r="E3144"/>
     </row>
@@ -46871,7 +46871,7 @@
         <v>2008</v>
       </c>
       <c r="D3145" t="n">
-        <v>5.08666666666667</v>
+        <v>5.0866666667</v>
       </c>
       <c r="E3145"/>
     </row>
@@ -47695,7 +47695,7 @@
         <v>1995</v>
       </c>
       <c r="D3207" t="n">
-        <v>72.6616666666667</v>
+        <v>72.6616666667</v>
       </c>
       <c r="E3207"/>
     </row>
@@ -47710,7 +47710,7 @@
         <v>1996</v>
       </c>
       <c r="D3208" t="n">
-        <v>66.7333333333333</v>
+        <v>66.7333333333</v>
       </c>
       <c r="E3208"/>
     </row>
@@ -47740,7 +47740,7 @@
         <v>1998</v>
       </c>
       <c r="D3210" t="n">
-        <v>54.8766666666667</v>
+        <v>54.8766666667</v>
       </c>
       <c r="E3210"/>
     </row>
@@ -47755,7 +47755,7 @@
         <v>1999</v>
       </c>
       <c r="D3211" t="n">
-        <v>48.9483333333333</v>
+        <v>48.9483333333</v>
       </c>
       <c r="E3211"/>
     </row>
@@ -47787,7 +47787,7 @@
         <v>2001</v>
       </c>
       <c r="D3213" t="n">
-        <v>42.6066666666667</v>
+        <v>42.6066666667</v>
       </c>
       <c r="E3213"/>
     </row>
@@ -47802,7 +47802,7 @@
         <v>2002</v>
       </c>
       <c r="D3214" t="n">
-        <v>42.1933333333333</v>
+        <v>42.1933333333</v>
       </c>
       <c r="E3214"/>
     </row>
@@ -47832,7 +47832,7 @@
         <v>2004</v>
       </c>
       <c r="D3216" t="n">
-        <v>41.3666666666667</v>
+        <v>41.3666666667</v>
       </c>
       <c r="E3216"/>
     </row>
@@ -47847,7 +47847,7 @@
         <v>2005</v>
       </c>
       <c r="D3217" t="n">
-        <v>40.9533333333333</v>
+        <v>40.9533333333</v>
       </c>
       <c r="E3217"/>
     </row>
@@ -47877,7 +47877,7 @@
         <v>2007</v>
       </c>
       <c r="D3219" t="n">
-        <v>40.1266666666667</v>
+        <v>40.1266666667</v>
       </c>
       <c r="E3219"/>
     </row>
@@ -47892,7 +47892,7 @@
         <v>2008</v>
       </c>
       <c r="D3220" t="n">
-        <v>39.7133333333333</v>
+        <v>39.7133333333</v>
       </c>
       <c r="E3220"/>
     </row>
@@ -48840,7 +48840,7 @@
         <v>2001</v>
       </c>
       <c r="D3288" t="n">
-        <v>81.8928571428572</v>
+        <v>81.8928571429</v>
       </c>
       <c r="E3288"/>
     </row>
@@ -48855,7 +48855,7 @@
         <v>2002</v>
       </c>
       <c r="D3289" t="n">
-        <v>79.5557142857143</v>
+        <v>79.5557142857</v>
       </c>
       <c r="E3289"/>
     </row>
@@ -48870,7 +48870,7 @@
         <v>2003</v>
       </c>
       <c r="D3290" t="n">
-        <v>77.2185714285714</v>
+        <v>77.2185714286</v>
       </c>
       <c r="E3290"/>
     </row>
@@ -48885,7 +48885,7 @@
         <v>2004</v>
       </c>
       <c r="D3291" t="n">
-        <v>74.8814285714286</v>
+        <v>74.8814285714</v>
       </c>
       <c r="E3291"/>
     </row>
@@ -48900,7 +48900,7 @@
         <v>2005</v>
       </c>
       <c r="D3292" t="n">
-        <v>72.5442857142857</v>
+        <v>72.5442857143</v>
       </c>
       <c r="E3292"/>
     </row>
@@ -48915,7 +48915,7 @@
         <v>2006</v>
       </c>
       <c r="D3293" t="n">
-        <v>70.2071428571429</v>
+        <v>70.2071428571</v>
       </c>
       <c r="E3293"/>
     </row>
@@ -52294,7 +52294,7 @@
         <v>1997</v>
       </c>
       <c r="D3534" t="n">
-        <v>61.8166666666667</v>
+        <v>61.8166666667</v>
       </c>
       <c r="E3534"/>
     </row>
@@ -52309,7 +52309,7 @@
         <v>1998</v>
       </c>
       <c r="D3535" t="n">
-        <v>60.6233333333333</v>
+        <v>60.6233333333</v>
       </c>
       <c r="E3535"/>
     </row>
@@ -52341,7 +52341,7 @@
         <v>2000</v>
       </c>
       <c r="D3537" t="n">
-        <v>58.4766666666667</v>
+        <v>58.4766666667</v>
       </c>
       <c r="E3537"/>
     </row>
@@ -52356,7 +52356,7 @@
         <v>2001</v>
       </c>
       <c r="D3538" t="n">
-        <v>57.5233333333333</v>
+        <v>57.5233333333</v>
       </c>
       <c r="E3538"/>
     </row>
@@ -52388,7 +52388,7 @@
         <v>2003</v>
       </c>
       <c r="D3540" t="n">
-        <v>54.9533333333333</v>
+        <v>54.9533333333</v>
       </c>
       <c r="E3540"/>
     </row>
@@ -52403,7 +52403,7 @@
         <v>2004</v>
       </c>
       <c r="D3541" t="n">
-        <v>53.3366666666667</v>
+        <v>53.3366666667</v>
       </c>
       <c r="E3541"/>
     </row>
@@ -52497,7 +52497,7 @@
         <v>2010</v>
       </c>
       <c r="D3547" t="n">
-        <v>37.8666666666667</v>
+        <v>37.8666666667</v>
       </c>
       <c r="E3547"/>
     </row>
@@ -52512,7 +52512,7 @@
         <v>2011</v>
       </c>
       <c r="D3548" t="n">
-        <v>37.8233333333333</v>
+        <v>37.8233333333</v>
       </c>
       <c r="E3548"/>
     </row>
@@ -52613,7 +52613,7 @@
         <v>1993</v>
       </c>
       <c r="D3555" t="n">
-        <v>0.673333333333333</v>
+        <v>0.6733333333</v>
       </c>
       <c r="E3555"/>
     </row>
@@ -52628,7 +52628,7 @@
         <v>1994</v>
       </c>
       <c r="D3556" t="n">
-        <v>1.31666666666667</v>
+        <v>1.3166666667</v>
       </c>
       <c r="E3556"/>
     </row>
@@ -52677,7 +52677,7 @@
         <v>1997</v>
       </c>
       <c r="D3559" t="n">
-        <v>1.96333333333333</v>
+        <v>1.9633333333</v>
       </c>
       <c r="E3559"/>
     </row>
@@ -52692,7 +52692,7 @@
         <v>1998</v>
       </c>
       <c r="D3560" t="n">
-        <v>1.99666666666667</v>
+        <v>1.9966666667</v>
       </c>
       <c r="E3560"/>
     </row>
@@ -52724,7 +52724,7 @@
         <v>2000</v>
       </c>
       <c r="D3562" t="n">
-        <v>1.49333333333333</v>
+        <v>1.4933333333</v>
       </c>
       <c r="E3562"/>
     </row>
@@ -52739,7 +52739,7 @@
         <v>2001</v>
       </c>
       <c r="D3563" t="n">
-        <v>0.956666666666667</v>
+        <v>0.9566666667</v>
       </c>
       <c r="E3563"/>
     </row>
@@ -53002,7 +53002,7 @@
         <v>1993</v>
       </c>
       <c r="D3580" t="n">
-        <v>0.783333333333333</v>
+        <v>0.7833333333</v>
       </c>
       <c r="E3580"/>
     </row>
@@ -53017,7 +53017,7 @@
         <v>1994</v>
       </c>
       <c r="D3581" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6666666667</v>
       </c>
       <c r="E3581"/>
     </row>
@@ -54102,7 +54102,7 @@
         <v>1996</v>
       </c>
       <c r="D3658" t="n">
-        <v>9.66666666666667</v>
+        <v>9.6666666667</v>
       </c>
       <c r="E3658"/>
     </row>
@@ -54117,7 +54117,7 @@
         <v>1997</v>
       </c>
       <c r="D3659" t="n">
-        <v>9.77333333333333</v>
+        <v>9.7733333333</v>
       </c>
       <c r="E3659"/>
     </row>
@@ -54889,7 +54889,7 @@
         <v>1999</v>
       </c>
       <c r="D3711" t="n">
-        <v>10.3714285714286</v>
+        <v>10.3714285714</v>
       </c>
       <c r="E3711"/>
     </row>
@@ -54904,7 +54904,7 @@
         <v>2000</v>
       </c>
       <c r="D3712" t="n">
-        <v>10.2728571428571</v>
+        <v>10.2728571429</v>
       </c>
       <c r="E3712"/>
     </row>
@@ -54919,7 +54919,7 @@
         <v>2001</v>
       </c>
       <c r="D3713" t="n">
-        <v>10.1742857142857</v>
+        <v>10.1742857143</v>
       </c>
       <c r="E3713"/>
     </row>
@@ -54934,7 +54934,7 @@
         <v>2002</v>
       </c>
       <c r="D3714" t="n">
-        <v>10.0757142857143</v>
+        <v>10.0757142857</v>
       </c>
       <c r="E3714"/>
     </row>
@@ -54949,7 +54949,7 @@
         <v>2003</v>
       </c>
       <c r="D3715" t="n">
-        <v>9.97714285714286</v>
+        <v>9.9771428571</v>
       </c>
       <c r="E3715"/>
     </row>
@@ -54964,7 +54964,7 @@
         <v>2004</v>
       </c>
       <c r="D3716" t="n">
-        <v>9.87857142857143</v>
+        <v>9.8785714286</v>
       </c>
       <c r="E3716"/>
     </row>
@@ -55175,7 +55175,7 @@
         <v>1994</v>
       </c>
       <c r="D3731" t="n">
-        <v>64.2033333333333</v>
+        <v>64.2033333333</v>
       </c>
       <c r="E3731"/>
     </row>
@@ -55190,7 +55190,7 @@
         <v>1995</v>
       </c>
       <c r="D3732" t="n">
-        <v>63.1366666666667</v>
+        <v>63.1366666667</v>
       </c>
       <c r="E3732"/>
     </row>
@@ -55955,19 +55955,19 @@
         <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.288333333333333</v>
+        <v>0.2883333333</v>
       </c>
       <c r="K3" t="n">
-        <v>0.376666666666667</v>
+        <v>0.3766666667</v>
       </c>
       <c r="L3" t="n">
         <v>0.465</v>
       </c>
       <c r="M3" t="n">
-        <v>0.553333333333333</v>
+        <v>0.5533333333</v>
       </c>
       <c r="N3" t="n">
-        <v>0.641666666666667</v>
+        <v>0.6416666667</v>
       </c>
       <c r="O3" t="n">
         <v>0.73</v>
@@ -56312,10 +56312,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.103333333333333</v>
+        <v>0.1033333333</v>
       </c>
       <c r="T9" t="n">
-        <v>0.206666666666667</v>
+        <v>0.2066666667</v>
       </c>
       <c r="U9" t="n">
         <v>0.31</v>
@@ -56763,28 +56763,28 @@
         <v>31.23</v>
       </c>
       <c r="H17" t="n">
-        <v>30.4666666666667</v>
+        <v>30.4666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>29.7033333333333</v>
+        <v>29.7033333333</v>
       </c>
       <c r="J17" t="n">
         <v>28.94</v>
       </c>
       <c r="K17" t="n">
-        <v>28.1766666666667</v>
+        <v>28.1766666667</v>
       </c>
       <c r="L17" t="n">
-        <v>27.4133333333333</v>
+        <v>27.4133333333</v>
       </c>
       <c r="M17" t="n">
         <v>26.65</v>
       </c>
       <c r="N17" t="n">
-        <v>25.8866666666667</v>
+        <v>25.8866666667</v>
       </c>
       <c r="O17" t="n">
-        <v>25.1233333333333</v>
+        <v>25.1233333333</v>
       </c>
       <c r="P17" t="n">
         <v>24.36</v>
@@ -57194,19 +57194,19 @@
         <v>24.86</v>
       </c>
       <c r="O23" t="n">
-        <v>25.3183333333333</v>
+        <v>25.3183333333</v>
       </c>
       <c r="P23" t="n">
-        <v>25.7766666666667</v>
+        <v>25.7766666667</v>
       </c>
       <c r="Q23" t="n">
         <v>26.235</v>
       </c>
       <c r="R23" t="n">
-        <v>26.6933333333333</v>
+        <v>26.6933333333</v>
       </c>
       <c r="S23" t="n">
-        <v>27.1516666666667</v>
+        <v>27.1516666667</v>
       </c>
       <c r="T23" t="n">
         <v>27.61</v>
@@ -57277,34 +57277,34 @@
         <v>83.15</v>
       </c>
       <c r="F25" t="n">
-        <v>81.2663636363636</v>
+        <v>81.2663636364</v>
       </c>
       <c r="G25" t="n">
-        <v>79.3827272727273</v>
+        <v>79.3827272727</v>
       </c>
       <c r="H25" t="n">
-        <v>77.4990909090909</v>
+        <v>77.4990909091</v>
       </c>
       <c r="I25" t="n">
-        <v>75.6154545454546</v>
+        <v>75.6154545455</v>
       </c>
       <c r="J25" t="n">
-        <v>73.7318181818182</v>
+        <v>73.7318181818</v>
       </c>
       <c r="K25" t="n">
-        <v>71.8481818181818</v>
+        <v>71.8481818182</v>
       </c>
       <c r="L25" t="n">
-        <v>69.9645454545455</v>
+        <v>69.9645454545</v>
       </c>
       <c r="M25" t="n">
-        <v>68.0809090909091</v>
+        <v>68.0809090909</v>
       </c>
       <c r="N25" t="n">
-        <v>66.1972727272727</v>
+        <v>66.1972727273</v>
       </c>
       <c r="O25" t="n">
-        <v>64.3136363636364</v>
+        <v>64.3136363636</v>
       </c>
       <c r="P25" t="n">
         <v>62.43</v>
@@ -57354,28 +57354,28 @@
         <v>61.94</v>
       </c>
       <c r="P26" t="n">
-        <v>59.1155555555556</v>
+        <v>59.1155555556</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.2911111111111</v>
+        <v>56.2911111111</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4666666666667</v>
+        <v>53.4666666667</v>
       </c>
       <c r="S26" t="n">
-        <v>50.6422222222222</v>
+        <v>50.6422222222</v>
       </c>
       <c r="T26" t="n">
-        <v>47.8177777777778</v>
+        <v>47.8177777778</v>
       </c>
       <c r="U26" t="n">
-        <v>44.9933333333333</v>
+        <v>44.9933333333</v>
       </c>
       <c r="V26" t="n">
-        <v>42.1688888888889</v>
+        <v>42.1688888889</v>
       </c>
       <c r="W26" t="n">
-        <v>39.3444444444444</v>
+        <v>39.3444444444</v>
       </c>
       <c r="X26" t="n">
         <v>36.52</v>
@@ -57425,10 +57425,10 @@
         <v>2.16</v>
       </c>
       <c r="N27" t="n">
-        <v>2.01666666666667</v>
+        <v>2.0166666667</v>
       </c>
       <c r="O27" t="n">
-        <v>1.87333333333333</v>
+        <v>1.8733333333</v>
       </c>
       <c r="P27" t="n">
         <v>1.73</v>
@@ -57490,37 +57490,37 @@
         <v>37.39</v>
       </c>
       <c r="J28" t="n">
-        <v>36.9266666666667</v>
+        <v>36.9266666667</v>
       </c>
       <c r="K28" t="n">
-        <v>36.4633333333333</v>
+        <v>36.4633333333</v>
       </c>
       <c r="L28" t="n">
         <v>36</v>
       </c>
       <c r="M28" t="n">
-        <v>33.3533333333333</v>
+        <v>33.3533333333</v>
       </c>
       <c r="N28" t="n">
-        <v>30.7066666666667</v>
+        <v>30.7066666667</v>
       </c>
       <c r="O28" t="n">
         <v>28.06</v>
       </c>
       <c r="P28" t="n">
-        <v>23.9633333333333</v>
+        <v>23.9633333333</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.8666666666667</v>
+        <v>19.8666666667</v>
       </c>
       <c r="R28" t="n">
         <v>15.77</v>
       </c>
       <c r="S28" t="n">
-        <v>14.6266666666667</v>
+        <v>14.6266666667</v>
       </c>
       <c r="T28" t="n">
-        <v>13.4833333333333</v>
+        <v>13.4833333333</v>
       </c>
       <c r="U28" t="n">
         <v>12.34</v>
@@ -57676,19 +57676,19 @@
         <v>54.1</v>
       </c>
       <c r="S31" t="n">
-        <v>50.5533333333333</v>
+        <v>50.5533333333</v>
       </c>
       <c r="T31" t="n">
-        <v>47.0066666666667</v>
+        <v>47.0066666667</v>
       </c>
       <c r="U31" t="n">
         <v>43.46</v>
       </c>
       <c r="V31" t="n">
-        <v>39.9133333333333</v>
+        <v>39.9133333333</v>
       </c>
       <c r="W31" t="n">
-        <v>36.3666666666667</v>
+        <v>36.3666666667</v>
       </c>
       <c r="X31" t="n">
         <v>32.82</v>
@@ -57817,19 +57817,19 @@
         <v>29.66</v>
       </c>
       <c r="P33" t="n">
-        <v>30.5566666666667</v>
+        <v>30.5566666667</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.4533333333333</v>
+        <v>31.4533333333</v>
       </c>
       <c r="R33" t="n">
         <v>32.35</v>
       </c>
       <c r="S33" t="n">
-        <v>33.2466666666667</v>
+        <v>33.2466666667</v>
       </c>
       <c r="T33" t="n">
-        <v>34.1433333333333</v>
+        <v>34.1433333333</v>
       </c>
       <c r="U33" t="n">
         <v>35.04</v>
@@ -57943,37 +57943,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="I36" t="n">
         <v>0.13</v>
       </c>
       <c r="J36" t="n">
-        <v>0.115555555555556</v>
+        <v>0.1155555556</v>
       </c>
       <c r="K36" t="n">
-        <v>0.101111111111111</v>
+        <v>0.1011111111</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.0866666667</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.0722222222</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0577777778</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0433333333333333</v>
+        <v>0.0433333333</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0288888888888889</v>
+        <v>0.0288888889</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0144444444444445</v>
+        <v>0.0144444444</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -58096,10 +58096,10 @@
         <v>4.95</v>
       </c>
       <c r="K39" t="n">
-        <v>5.04666666666667</v>
+        <v>5.0466666667</v>
       </c>
       <c r="L39" t="n">
-        <v>5.14333333333333</v>
+        <v>5.1433333333</v>
       </c>
       <c r="M39" t="n">
         <v>5.24</v>
@@ -58189,19 +58189,19 @@
         <v>4.46</v>
       </c>
       <c r="D41" t="n">
-        <v>4.12666666666667</v>
+        <v>4.1266666667</v>
       </c>
       <c r="E41" t="n">
-        <v>3.79333333333333</v>
+        <v>3.7933333333</v>
       </c>
       <c r="F41" t="n">
         <v>3.46</v>
       </c>
       <c r="G41" t="n">
-        <v>3.12666666666667</v>
+        <v>3.1266666667</v>
       </c>
       <c r="H41" t="n">
-        <v>2.79333333333333</v>
+        <v>2.7933333333</v>
       </c>
       <c r="I41" t="n">
         <v>2.46</v>
@@ -58412,10 +58412,10 @@
         <v>0.25</v>
       </c>
       <c r="I45" t="n">
-        <v>0.183333333333333</v>
+        <v>0.1833333333</v>
       </c>
       <c r="J45" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1166666667</v>
       </c>
       <c r="K45" t="n">
         <v>0.05</v>
@@ -58491,19 +58491,19 @@
         <v>54.57</v>
       </c>
       <c r="M46" t="n">
-        <v>51.9683333333333</v>
+        <v>51.9683333333</v>
       </c>
       <c r="N46" t="n">
-        <v>49.3666666666667</v>
+        <v>49.3666666667</v>
       </c>
       <c r="O46" t="n">
         <v>46.765</v>
       </c>
       <c r="P46" t="n">
-        <v>44.1633333333333</v>
+        <v>44.1633333333</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.5616666666667</v>
+        <v>41.5616666667</v>
       </c>
       <c r="R46" t="n">
         <v>38.96</v>
@@ -58734,43 +58734,43 @@
         <v>51.07</v>
       </c>
       <c r="E51" t="n">
-        <v>49.3628571428571</v>
+        <v>49.3628571429</v>
       </c>
       <c r="F51" t="n">
-        <v>47.6557142857143</v>
+        <v>47.6557142857</v>
       </c>
       <c r="G51" t="n">
-        <v>45.9485714285714</v>
+        <v>45.9485714286</v>
       </c>
       <c r="H51" t="n">
-        <v>44.2414285714286</v>
+        <v>44.2414285714</v>
       </c>
       <c r="I51" t="n">
-        <v>42.5342857142857</v>
+        <v>42.5342857143</v>
       </c>
       <c r="J51" t="n">
-        <v>40.8271428571429</v>
+        <v>40.8271428571</v>
       </c>
       <c r="K51" t="n">
         <v>39.12</v>
       </c>
       <c r="L51" t="n">
-        <v>37.6157142857143</v>
+        <v>37.6157142857</v>
       </c>
       <c r="M51" t="n">
-        <v>36.1114285714286</v>
+        <v>36.1114285714</v>
       </c>
       <c r="N51" t="n">
-        <v>34.6071428571429</v>
+        <v>34.6071428571</v>
       </c>
       <c r="O51" t="n">
-        <v>33.1028571428571</v>
+        <v>33.1028571429</v>
       </c>
       <c r="P51" t="n">
-        <v>31.5985714285714</v>
+        <v>31.5985714286</v>
       </c>
       <c r="Q51" t="n">
-        <v>30.0942857142857</v>
+        <v>30.0942857143</v>
       </c>
       <c r="R51" t="n">
         <v>28.59</v>
@@ -58891,37 +58891,37 @@
         <v>93.74</v>
       </c>
       <c r="E54" t="n">
-        <v>83.7633333333333</v>
+        <v>83.7633333333</v>
       </c>
       <c r="F54" t="n">
-        <v>73.7866666666667</v>
+        <v>73.7866666667</v>
       </c>
       <c r="G54" t="n">
         <v>63.81</v>
       </c>
       <c r="H54" t="n">
-        <v>62.9777777777778</v>
+        <v>62.9777777778</v>
       </c>
       <c r="I54" t="n">
-        <v>62.1455555555556</v>
+        <v>62.1455555556</v>
       </c>
       <c r="J54" t="n">
-        <v>61.3133333333333</v>
+        <v>61.3133333333</v>
       </c>
       <c r="K54" t="n">
-        <v>60.4811111111111</v>
+        <v>60.4811111111</v>
       </c>
       <c r="L54" t="n">
-        <v>59.6488888888889</v>
+        <v>59.6488888889</v>
       </c>
       <c r="M54" t="n">
-        <v>58.8166666666667</v>
+        <v>58.8166666667</v>
       </c>
       <c r="N54" t="n">
-        <v>57.9844444444444</v>
+        <v>57.9844444444</v>
       </c>
       <c r="O54" t="n">
-        <v>57.1522222222222</v>
+        <v>57.1522222222</v>
       </c>
       <c r="P54" t="n">
         <v>56.32</v>
@@ -58974,28 +58974,28 @@
         <v>65.33</v>
       </c>
       <c r="G55" t="n">
-        <v>63.5044444444444</v>
+        <v>63.5044444444</v>
       </c>
       <c r="H55" t="n">
-        <v>61.6788888888889</v>
+        <v>61.6788888889</v>
       </c>
       <c r="I55" t="n">
-        <v>59.8533333333333</v>
+        <v>59.8533333333</v>
       </c>
       <c r="J55" t="n">
-        <v>58.0277777777778</v>
+        <v>58.0277777778</v>
       </c>
       <c r="K55" t="n">
-        <v>56.2022222222222</v>
+        <v>56.2022222222</v>
       </c>
       <c r="L55" t="n">
-        <v>54.3766666666667</v>
+        <v>54.3766666667</v>
       </c>
       <c r="M55" t="n">
-        <v>52.5511111111111</v>
+        <v>52.5511111111</v>
       </c>
       <c r="N55" t="n">
-        <v>50.7255555555556</v>
+        <v>50.7255555556</v>
       </c>
       <c r="O55" t="n">
         <v>48.9</v>
@@ -59026,19 +59026,19 @@
         <v>6.91</v>
       </c>
       <c r="F56" t="n">
-        <v>7.20833333333333</v>
+        <v>7.2083333333</v>
       </c>
       <c r="G56" t="n">
-        <v>7.50666666666667</v>
+        <v>7.5066666667</v>
       </c>
       <c r="H56" t="n">
         <v>7.805</v>
       </c>
       <c r="I56" t="n">
-        <v>8.10333333333333</v>
+        <v>8.1033333333</v>
       </c>
       <c r="J56" t="n">
-        <v>8.40166666666667</v>
+        <v>8.4016666667</v>
       </c>
       <c r="K56" t="n">
         <v>8.7</v>
@@ -59257,34 +59257,34 @@
         <v>49.4</v>
       </c>
       <c r="G60" t="n">
-        <v>48.6945454545455</v>
+        <v>48.6945454545</v>
       </c>
       <c r="H60" t="n">
-        <v>47.9890909090909</v>
+        <v>47.9890909091</v>
       </c>
       <c r="I60" t="n">
-        <v>47.2836363636364</v>
+        <v>47.2836363636</v>
       </c>
       <c r="J60" t="n">
-        <v>46.5781818181818</v>
+        <v>46.5781818182</v>
       </c>
       <c r="K60" t="n">
-        <v>45.8727272727273</v>
+        <v>45.8727272727</v>
       </c>
       <c r="L60" t="n">
-        <v>45.1672727272727</v>
+        <v>45.1672727273</v>
       </c>
       <c r="M60" t="n">
-        <v>44.4618181818182</v>
+        <v>44.4618181818</v>
       </c>
       <c r="N60" t="n">
-        <v>43.7563636363636</v>
+        <v>43.7563636364</v>
       </c>
       <c r="O60" t="n">
-        <v>43.0509090909091</v>
+        <v>43.0509090909</v>
       </c>
       <c r="P60" t="n">
-        <v>42.3454545454545</v>
+        <v>42.3454545455</v>
       </c>
       <c r="Q60" t="n">
         <v>41.64</v>
@@ -59305,10 +59305,10 @@
         <v>32.68</v>
       </c>
       <c r="W60" t="n">
-        <v>28.1547318942645</v>
+        <v>28.1547318943</v>
       </c>
       <c r="X60" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>
@@ -59325,19 +59325,19 @@
         <v>54.27</v>
       </c>
       <c r="D61" t="n">
-        <v>54.3133333333333</v>
+        <v>54.3133333333</v>
       </c>
       <c r="E61" t="n">
-        <v>54.3566666666667</v>
+        <v>54.3566666667</v>
       </c>
       <c r="F61" t="n">
         <v>54.4</v>
       </c>
       <c r="G61" t="n">
-        <v>50.7266666666667</v>
+        <v>50.7266666667</v>
       </c>
       <c r="H61" t="n">
-        <v>47.0533333333333</v>
+        <v>47.0533333333</v>
       </c>
       <c r="I61" t="n">
         <v>43.38</v>
@@ -59352,28 +59352,28 @@
         <v>47.7</v>
       </c>
       <c r="M61" t="n">
-        <v>41.5966666666667</v>
+        <v>41.5966666667</v>
       </c>
       <c r="N61" t="n">
-        <v>35.4933333333333</v>
+        <v>35.4933333333</v>
       </c>
       <c r="O61" t="n">
         <v>29.39</v>
       </c>
       <c r="P61" t="n">
-        <v>26.7766666666667</v>
+        <v>26.7766666667</v>
       </c>
       <c r="Q61" t="n">
-        <v>24.1633333333333</v>
+        <v>24.1633333333</v>
       </c>
       <c r="R61" t="n">
         <v>21.55</v>
       </c>
       <c r="S61" t="n">
-        <v>21.9366666666667</v>
+        <v>21.9366666667</v>
       </c>
       <c r="T61" t="n">
-        <v>22.3233333333333</v>
+        <v>22.3233333333</v>
       </c>
       <c r="U61" t="n">
         <v>22.71</v>
@@ -59426,22 +59426,22 @@
         <v>1.26</v>
       </c>
       <c r="L62" t="n">
-        <v>1.28714285714286</v>
+        <v>1.2871428571</v>
       </c>
       <c r="M62" t="n">
-        <v>1.31428571428571</v>
+        <v>1.3142857143</v>
       </c>
       <c r="N62" t="n">
-        <v>1.34142857142857</v>
+        <v>1.3414285714</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36857142857143</v>
+        <v>1.3685714286</v>
       </c>
       <c r="P62" t="n">
-        <v>1.39571428571429</v>
+        <v>1.3957142857</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.42285714285714</v>
+        <v>1.4228571429</v>
       </c>
       <c r="R62" t="n">
         <v>1.45</v>
@@ -59521,19 +59521,19 @@
         <v>3.82</v>
       </c>
       <c r="G64" t="n">
-        <v>3.13333333333333</v>
+        <v>3.1333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>2.44666666666667</v>
+        <v>2.4466666667</v>
       </c>
       <c r="I64" t="n">
         <v>1.76</v>
       </c>
       <c r="J64" t="n">
-        <v>1.61666666666667</v>
+        <v>1.6166666667</v>
       </c>
       <c r="K64" t="n">
-        <v>1.47333333333333</v>
+        <v>1.4733333333</v>
       </c>
       <c r="L64" t="n">
         <v>1.33</v>
@@ -59649,10 +59649,10 @@
         <v>4.21</v>
       </c>
       <c r="G66" t="n">
-        <v>4.46666666666667</v>
+        <v>4.4666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>4.72333333333333</v>
+        <v>4.7233333333</v>
       </c>
       <c r="I66" t="n">
         <v>4.98</v>
@@ -60232,10 +60232,10 @@
         <v>2.15</v>
       </c>
       <c r="G77" t="n">
-        <v>1.43333333333333</v>
+        <v>1.4333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0.716666666666667</v>
+        <v>0.7166666667</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -60431,22 +60431,22 @@
         <v>83.22</v>
       </c>
       <c r="K80" t="n">
-        <v>82.0385714285714</v>
+        <v>82.0385714286</v>
       </c>
       <c r="L80" t="n">
-        <v>80.8571428571429</v>
+        <v>80.8571428571</v>
       </c>
       <c r="M80" t="n">
-        <v>79.6757142857143</v>
+        <v>79.6757142857</v>
       </c>
       <c r="N80" t="n">
-        <v>78.4942857142857</v>
+        <v>78.4942857143</v>
       </c>
       <c r="O80" t="n">
-        <v>77.3128571428571</v>
+        <v>77.3128571429</v>
       </c>
       <c r="P80" t="n">
-        <v>76.1314285714286</v>
+        <v>76.1314285714</v>
       </c>
       <c r="Q80" t="n">
         <v>74.95</v>
@@ -60487,10 +60487,10 @@
         <v>1.63</v>
       </c>
       <c r="F81" t="n">
-        <v>1.78333333333333</v>
+        <v>1.7833333333</v>
       </c>
       <c r="G81" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="H81" t="n">
         <v>2.09</v>
@@ -60562,19 +60562,19 @@
         <v>25.59</v>
       </c>
       <c r="L82" t="n">
-        <v>21.5716666666667</v>
+        <v>21.5716666667</v>
       </c>
       <c r="M82" t="n">
-        <v>17.5533333333333</v>
+        <v>17.5533333333</v>
       </c>
       <c r="N82" t="n">
         <v>13.535</v>
       </c>
       <c r="O82" t="n">
-        <v>9.51666666666667</v>
+        <v>9.5166666667</v>
       </c>
       <c r="P82" t="n">
-        <v>5.49833333333333</v>
+        <v>5.4983333333</v>
       </c>
       <c r="Q82" t="n">
         <v>1.48</v>
@@ -60605,22 +60605,22 @@
         <v>85.92</v>
       </c>
       <c r="H83" t="n">
-        <v>82.3857142857143</v>
+        <v>82.3857142857</v>
       </c>
       <c r="I83" t="n">
-        <v>78.8514285714286</v>
+        <v>78.8514285714</v>
       </c>
       <c r="J83" t="n">
-        <v>75.3171428571429</v>
+        <v>75.3171428571</v>
       </c>
       <c r="K83" t="n">
-        <v>71.7828571428571</v>
+        <v>71.7828571429</v>
       </c>
       <c r="L83" t="n">
-        <v>68.2485714285714</v>
+        <v>68.2485714286</v>
       </c>
       <c r="M83" t="n">
-        <v>64.7142857142857</v>
+        <v>64.7142857143</v>
       </c>
       <c r="N83" t="n">
         <v>61.18</v>
@@ -60782,19 +60782,19 @@
         <v>0.21</v>
       </c>
       <c r="T86" t="n">
-        <v>0.246666666666667</v>
+        <v>0.2466666667</v>
       </c>
       <c r="U86" t="n">
-        <v>0.283333333333333</v>
+        <v>0.2833333333</v>
       </c>
       <c r="V86" t="n">
         <v>0.32</v>
       </c>
       <c r="W86" t="n">
-        <v>0.356666666666667</v>
+        <v>0.3566666667</v>
       </c>
       <c r="X86" t="n">
-        <v>0.393333333333333</v>
+        <v>0.3933333333</v>
       </c>
       <c r="Y86" t="n">
         <v>0.43</v>
@@ -61100,28 +61100,28 @@
         <v>6.76</v>
       </c>
       <c r="L92" t="n">
-        <v>6.59666666666667</v>
+        <v>6.5966666667</v>
       </c>
       <c r="M92" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4333333333</v>
       </c>
       <c r="N92" t="n">
         <v>6.27</v>
       </c>
       <c r="O92" t="n">
-        <v>5.65333333333333</v>
+        <v>5.6533333333</v>
       </c>
       <c r="P92" t="n">
-        <v>5.03666666666667</v>
+        <v>5.0366666667</v>
       </c>
       <c r="Q92" t="n">
         <v>4.42</v>
       </c>
       <c r="R92" t="n">
-        <v>3.80333333333333</v>
+        <v>3.8033333333</v>
       </c>
       <c r="S92" t="n">
-        <v>3.18666666666667</v>
+        <v>3.1866666667</v>
       </c>
       <c r="T92" t="n">
         <v>2.57</v>
@@ -61151,40 +61151,40 @@
         <v>80.59</v>
       </c>
       <c r="J93" t="n">
-        <v>79.6066666666667</v>
+        <v>79.6066666667</v>
       </c>
       <c r="K93" t="n">
-        <v>78.6233333333333</v>
+        <v>78.6233333333</v>
       </c>
       <c r="L93" t="n">
         <v>77.64</v>
       </c>
       <c r="M93" t="n">
-        <v>76.6566666666667</v>
+        <v>76.6566666667</v>
       </c>
       <c r="N93" t="n">
-        <v>75.6733333333333</v>
+        <v>75.6733333333</v>
       </c>
       <c r="O93" t="n">
         <v>74.69</v>
       </c>
       <c r="P93" t="n">
-        <v>72.6928571428571</v>
+        <v>72.6928571429</v>
       </c>
       <c r="Q93" t="n">
-        <v>70.6957142857143</v>
+        <v>70.6957142857</v>
       </c>
       <c r="R93" t="n">
-        <v>68.6985714285714</v>
+        <v>68.6985714286</v>
       </c>
       <c r="S93" t="n">
-        <v>66.7014285714286</v>
+        <v>66.7014285714</v>
       </c>
       <c r="T93" t="n">
-        <v>64.7042857142857</v>
+        <v>64.7042857143</v>
       </c>
       <c r="U93" t="n">
-        <v>62.7071428571429</v>
+        <v>62.7071428571</v>
       </c>
       <c r="V93" t="n">
         <v>60.71</v>
@@ -61242,34 +61242,34 @@
         <v>49.14</v>
       </c>
       <c r="G95" t="n">
-        <v>47.5736363636364</v>
+        <v>47.5736363636</v>
       </c>
       <c r="H95" t="n">
-        <v>46.0072727272727</v>
+        <v>46.0072727273</v>
       </c>
       <c r="I95" t="n">
-        <v>44.4409090909091</v>
+        <v>44.4409090909</v>
       </c>
       <c r="J95" t="n">
-        <v>42.8745454545455</v>
+        <v>42.8745454545</v>
       </c>
       <c r="K95" t="n">
-        <v>41.3081818181818</v>
+        <v>41.3081818182</v>
       </c>
       <c r="L95" t="n">
-        <v>39.7418181818182</v>
+        <v>39.7418181818</v>
       </c>
       <c r="M95" t="n">
-        <v>38.1754545454545</v>
+        <v>38.1754545455</v>
       </c>
       <c r="N95" t="n">
-        <v>36.6090909090909</v>
+        <v>36.6090909091</v>
       </c>
       <c r="O95" t="n">
-        <v>35.0427272727273</v>
+        <v>35.0427272727</v>
       </c>
       <c r="P95" t="n">
-        <v>33.4763636363636</v>
+        <v>33.4763636364</v>
       </c>
       <c r="Q95" t="n">
         <v>31.91</v>
@@ -61335,22 +61335,22 @@
         <v>53.13</v>
       </c>
       <c r="Q96" t="n">
-        <v>48.9314285714286</v>
+        <v>48.9314285714</v>
       </c>
       <c r="R96" t="n">
-        <v>44.7328571428571</v>
+        <v>44.7328571429</v>
       </c>
       <c r="S96" t="n">
-        <v>40.5342857142857</v>
+        <v>40.5342857143</v>
       </c>
       <c r="T96" t="n">
-        <v>36.3357142857143</v>
+        <v>36.3357142857</v>
       </c>
       <c r="U96" t="n">
-        <v>32.1371428571429</v>
+        <v>32.1371428571</v>
       </c>
       <c r="V96" t="n">
-        <v>27.9385714285714</v>
+        <v>27.9385714286</v>
       </c>
       <c r="W96" t="n">
         <v>23.74</v>
@@ -61446,34 +61446,34 @@
         <v>78.17</v>
       </c>
       <c r="H98" t="n">
-        <v>75.7227272727273</v>
+        <v>75.7227272727</v>
       </c>
       <c r="I98" t="n">
-        <v>73.2754545454546</v>
+        <v>73.2754545455</v>
       </c>
       <c r="J98" t="n">
-        <v>70.8281818181818</v>
+        <v>70.8281818182</v>
       </c>
       <c r="K98" t="n">
-        <v>68.3809090909091</v>
+        <v>68.3809090909</v>
       </c>
       <c r="L98" t="n">
-        <v>65.9336363636364</v>
+        <v>65.9336363636</v>
       </c>
       <c r="M98" t="n">
-        <v>63.4863636363636</v>
+        <v>63.4863636364</v>
       </c>
       <c r="N98" t="n">
-        <v>61.0390909090909</v>
+        <v>61.0390909091</v>
       </c>
       <c r="O98" t="n">
-        <v>58.5918181818182</v>
+        <v>58.5918181818</v>
       </c>
       <c r="P98" t="n">
-        <v>56.1445454545455</v>
+        <v>56.1445454545</v>
       </c>
       <c r="Q98" t="n">
-        <v>53.6972727272727</v>
+        <v>53.6972727273</v>
       </c>
       <c r="R98" t="n">
         <v>51.25</v>
@@ -61549,19 +61549,19 @@
         <v>61.84</v>
       </c>
       <c r="R99" t="n">
-        <v>61.8716666666667</v>
+        <v>61.8716666667</v>
       </c>
       <c r="S99" t="n">
-        <v>61.9033333333333</v>
+        <v>61.9033333333</v>
       </c>
       <c r="T99" t="n">
         <v>61.935</v>
       </c>
       <c r="U99" t="n">
-        <v>61.9666666666667</v>
+        <v>61.9666666667</v>
       </c>
       <c r="V99" t="n">
-        <v>61.9983333333333</v>
+        <v>61.9983333333</v>
       </c>
       <c r="W99" t="n">
         <v>62.03</v>
@@ -61582,19 +61582,19 @@
         <v>64.71</v>
       </c>
       <c r="D100" t="n">
-        <v>61.9483333333333</v>
+        <v>61.9483333333</v>
       </c>
       <c r="E100" t="n">
-        <v>59.1866666666667</v>
+        <v>59.1866666667</v>
       </c>
       <c r="F100" t="n">
         <v>56.425</v>
       </c>
       <c r="G100" t="n">
-        <v>53.6633333333333</v>
+        <v>53.6633333333</v>
       </c>
       <c r="H100" t="n">
-        <v>50.9016666666667</v>
+        <v>50.9016666667</v>
       </c>
       <c r="I100" t="n">
         <v>48.14</v>
@@ -61606,19 +61606,19 @@
         <v>29.05</v>
       </c>
       <c r="L100" t="n">
-        <v>31.3233333333333</v>
+        <v>31.3233333333</v>
       </c>
       <c r="M100" t="n">
-        <v>33.5966666666667</v>
+        <v>33.5966666667</v>
       </c>
       <c r="N100" t="n">
         <v>35.87</v>
       </c>
       <c r="O100" t="n">
-        <v>31.4433333333333</v>
+        <v>31.4433333333</v>
       </c>
       <c r="P100" t="n">
-        <v>27.0166666666667</v>
+        <v>27.0166666667</v>
       </c>
       <c r="Q100" t="n">
         <v>22.59</v>
@@ -61930,10 +61930,10 @@
         <v>9.81</v>
       </c>
       <c r="H106" t="n">
-        <v>6.86333333333333</v>
+        <v>6.8633333333</v>
       </c>
       <c r="I106" t="n">
-        <v>3.91666666666667</v>
+        <v>3.9166666667</v>
       </c>
       <c r="J106" t="n">
         <v>0.97</v>
@@ -62016,10 +62016,10 @@
         <v>23.7</v>
       </c>
       <c r="K107" t="n">
-        <v>23.9966666666667</v>
+        <v>23.9966666667</v>
       </c>
       <c r="L107" t="n">
-        <v>24.2933333333333</v>
+        <v>24.2933333333</v>
       </c>
       <c r="M107" t="n">
         <v>24.59</v>
@@ -62043,19 +62043,19 @@
         <v>22.58</v>
       </c>
       <c r="T107" t="n">
-        <v>21.0866666666667</v>
+        <v>21.0866666667</v>
       </c>
       <c r="U107" t="n">
-        <v>19.5933333333333</v>
+        <v>19.5933333333</v>
       </c>
       <c r="V107" t="n">
         <v>18.1</v>
       </c>
       <c r="W107" t="n">
-        <v>18.3866666666667</v>
+        <v>18.3866666667</v>
       </c>
       <c r="X107" t="n">
-        <v>18.6733333333333</v>
+        <v>18.6733333333</v>
       </c>
       <c r="Y107" t="n">
         <v>18.96</v>
@@ -62225,10 +62225,10 @@
         <v>1.5</v>
       </c>
       <c r="G110" t="n">
-        <v>1.93666666666667</v>
+        <v>1.9366666667</v>
       </c>
       <c r="H110" t="n">
-        <v>2.37333333333333</v>
+        <v>2.3733333333</v>
       </c>
       <c r="I110" t="n">
         <v>2.81</v>
@@ -62299,19 +62299,19 @@
         <v>79.37</v>
       </c>
       <c r="N111" t="n">
-        <v>78.1366666666667</v>
+        <v>78.1366666667</v>
       </c>
       <c r="O111" t="n">
-        <v>76.9033333333333</v>
+        <v>76.9033333333</v>
       </c>
       <c r="P111" t="n">
         <v>75.67</v>
       </c>
       <c r="Q111" t="n">
-        <v>74.4366666666667</v>
+        <v>74.4366666667</v>
       </c>
       <c r="R111" t="n">
-        <v>73.2033333333333</v>
+        <v>73.2033333333</v>
       </c>
       <c r="S111" t="n">
         <v>71.97</v>
@@ -62536,31 +62536,31 @@
         <v>65.71</v>
       </c>
       <c r="E117" t="n">
-        <v>61.6366666666667</v>
+        <v>61.6366666667</v>
       </c>
       <c r="F117" t="n">
-        <v>57.5633333333333</v>
+        <v>57.5633333333</v>
       </c>
       <c r="G117" t="n">
         <v>53.49</v>
       </c>
       <c r="H117" t="n">
-        <v>52.1528571428571</v>
+        <v>52.1528571429</v>
       </c>
       <c r="I117" t="n">
-        <v>50.8157142857143</v>
+        <v>50.8157142857</v>
       </c>
       <c r="J117" t="n">
-        <v>49.4785714285714</v>
+        <v>49.4785714286</v>
       </c>
       <c r="K117" t="n">
-        <v>48.1414285714286</v>
+        <v>48.1414285714</v>
       </c>
       <c r="L117" t="n">
-        <v>46.8042857142857</v>
+        <v>46.8042857143</v>
       </c>
       <c r="M117" t="n">
-        <v>45.4671428571429</v>
+        <v>45.4671428571</v>
       </c>
       <c r="N117" t="n">
         <v>44.13</v>
@@ -62578,19 +62578,19 @@
         <v>33.5</v>
       </c>
       <c r="S117" t="n">
-        <v>33.5933333333333</v>
+        <v>33.5933333333</v>
       </c>
       <c r="T117" t="n">
-        <v>33.6866666666667</v>
+        <v>33.6866666667</v>
       </c>
       <c r="U117" t="n">
         <v>33.78</v>
       </c>
       <c r="V117" t="n">
-        <v>33.8733333333333</v>
+        <v>33.8733333333</v>
       </c>
       <c r="W117" t="n">
-        <v>33.9666666666667</v>
+        <v>33.9666666667</v>
       </c>
       <c r="X117" t="n">
         <v>34.06</v>
@@ -62670,22 +62670,22 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.0357142857</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0714285714</v>
       </c>
       <c r="O119" t="n">
-        <v>0.107142857142857</v>
+        <v>0.1071428571</v>
       </c>
       <c r="P119" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1428571429</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.178571428571429</v>
+        <v>0.1785714286</v>
       </c>
       <c r="R119" t="n">
-        <v>0.214285714285714</v>
+        <v>0.2142857143</v>
       </c>
       <c r="S119" t="n">
         <v>0.25</v>
@@ -62975,10 +62975,10 @@
         <v>16.72</v>
       </c>
       <c r="T125" t="n">
-        <v>15.7033333333333</v>
+        <v>15.7033333333</v>
       </c>
       <c r="U125" t="n">
-        <v>14.6866666666667</v>
+        <v>14.6866666667</v>
       </c>
       <c r="V125" t="n">
         <v>13.67</v>
@@ -63052,22 +63052,22 @@
         <v>16.32</v>
       </c>
       <c r="I127" t="n">
-        <v>15.9814285714286</v>
+        <v>15.9814285714</v>
       </c>
       <c r="J127" t="n">
-        <v>15.6428571428571</v>
+        <v>15.6428571429</v>
       </c>
       <c r="K127" t="n">
-        <v>15.3042857142857</v>
+        <v>15.3042857143</v>
       </c>
       <c r="L127" t="n">
-        <v>14.9657142857143</v>
+        <v>14.9657142857</v>
       </c>
       <c r="M127" t="n">
-        <v>14.6271428571429</v>
+        <v>14.6271428571</v>
       </c>
       <c r="N127" t="n">
-        <v>14.2885714285714</v>
+        <v>14.2885714286</v>
       </c>
       <c r="O127" t="n">
         <v>13.95</v>
@@ -63085,10 +63085,10 @@
         <v>7.04</v>
       </c>
       <c r="T127" t="n">
-        <v>6.06333333333333</v>
+        <v>6.0633333333</v>
       </c>
       <c r="U127" t="n">
-        <v>5.08666666666667</v>
+        <v>5.0866666667</v>
       </c>
       <c r="V127" t="n">
         <v>4.11</v>
@@ -63184,46 +63184,46 @@
         <v>78.59</v>
       </c>
       <c r="H130" t="n">
-        <v>72.6616666666667</v>
+        <v>72.6616666667</v>
       </c>
       <c r="I130" t="n">
-        <v>66.7333333333333</v>
+        <v>66.7333333333</v>
       </c>
       <c r="J130" t="n">
         <v>60.805</v>
       </c>
       <c r="K130" t="n">
-        <v>54.8766666666667</v>
+        <v>54.8766666667</v>
       </c>
       <c r="L130" t="n">
-        <v>48.9483333333333</v>
+        <v>48.9483333333</v>
       </c>
       <c r="M130" t="n">
         <v>43.02</v>
       </c>
       <c r="N130" t="n">
-        <v>42.6066666666667</v>
+        <v>42.6066666667</v>
       </c>
       <c r="O130" t="n">
-        <v>42.1933333333333</v>
+        <v>42.1933333333</v>
       </c>
       <c r="P130" t="n">
         <v>41.78</v>
       </c>
       <c r="Q130" t="n">
-        <v>41.3666666666667</v>
+        <v>41.3666666667</v>
       </c>
       <c r="R130" t="n">
-        <v>40.9533333333333</v>
+        <v>40.9533333333</v>
       </c>
       <c r="S130" t="n">
         <v>40.54</v>
       </c>
       <c r="T130" t="n">
-        <v>40.1266666666667</v>
+        <v>40.1266666667</v>
       </c>
       <c r="U130" t="n">
-        <v>39.7133333333333</v>
+        <v>39.7133333333</v>
       </c>
       <c r="V130" t="n">
         <v>39.3</v>
@@ -63361,22 +63361,22 @@
         <v>84.23</v>
       </c>
       <c r="N133" t="n">
-        <v>81.8928571428572</v>
+        <v>81.8928571429</v>
       </c>
       <c r="O133" t="n">
-        <v>79.5557142857143</v>
+        <v>79.5557142857</v>
       </c>
       <c r="P133" t="n">
-        <v>77.2185714285714</v>
+        <v>77.2185714286</v>
       </c>
       <c r="Q133" t="n">
-        <v>74.8814285714286</v>
+        <v>74.8814285714</v>
       </c>
       <c r="R133" t="n">
-        <v>72.5442857142857</v>
+        <v>72.5442857143</v>
       </c>
       <c r="S133" t="n">
-        <v>70.2071428571429</v>
+        <v>70.2071428571</v>
       </c>
       <c r="T133" t="n">
         <v>67.87</v>
@@ -63869,28 +63869,28 @@
         <v>63.01</v>
       </c>
       <c r="J143" t="n">
-        <v>61.8166666666667</v>
+        <v>61.8166666667</v>
       </c>
       <c r="K143" t="n">
-        <v>60.6233333333333</v>
+        <v>60.6233333333</v>
       </c>
       <c r="L143" t="n">
         <v>59.43</v>
       </c>
       <c r="M143" t="n">
-        <v>58.4766666666667</v>
+        <v>58.4766666667</v>
       </c>
       <c r="N143" t="n">
-        <v>57.5233333333333</v>
+        <v>57.5233333333</v>
       </c>
       <c r="O143" t="n">
         <v>56.57</v>
       </c>
       <c r="P143" t="n">
-        <v>54.9533333333333</v>
+        <v>54.9533333333</v>
       </c>
       <c r="Q143" t="n">
-        <v>53.3366666666667</v>
+        <v>53.3366666667</v>
       </c>
       <c r="R143" t="n">
         <v>51.72</v>
@@ -63908,10 +63908,10 @@
         <v>37.91</v>
       </c>
       <c r="W143" t="n">
-        <v>37.8666666666667</v>
+        <v>37.8666666667</v>
       </c>
       <c r="X143" t="n">
-        <v>37.8233333333333</v>
+        <v>37.8233333333</v>
       </c>
       <c r="Y143" t="n">
         <v>37.78</v>
@@ -63932,10 +63932,10 @@
         <v>0.03</v>
       </c>
       <c r="F144" t="n">
-        <v>0.673333333333333</v>
+        <v>0.6733333333</v>
       </c>
       <c r="G144" t="n">
-        <v>1.31666666666667</v>
+        <v>1.3166666667</v>
       </c>
       <c r="H144" t="n">
         <v>1.96</v>
@@ -63944,19 +63944,19 @@
         <v>1.93</v>
       </c>
       <c r="J144" t="n">
-        <v>1.96333333333333</v>
+        <v>1.9633333333</v>
       </c>
       <c r="K144" t="n">
-        <v>1.99666666666667</v>
+        <v>1.9966666667</v>
       </c>
       <c r="L144" t="n">
         <v>2.03</v>
       </c>
       <c r="M144" t="n">
-        <v>1.49333333333333</v>
+        <v>1.4933333333</v>
       </c>
       <c r="N144" t="n">
-        <v>0.956666666666667</v>
+        <v>0.9566666667</v>
       </c>
       <c r="O144" t="n">
         <v>0.42</v>
@@ -64003,10 +64003,10 @@
         <v>0.9</v>
       </c>
       <c r="F145" t="n">
-        <v>0.783333333333333</v>
+        <v>0.7833333333</v>
       </c>
       <c r="G145" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0.55</v>
@@ -64153,10 +64153,10 @@
         <v>9.56</v>
       </c>
       <c r="I148" t="n">
-        <v>9.66666666666667</v>
+        <v>9.6666666667</v>
       </c>
       <c r="J148" t="n">
-        <v>9.77333333333333</v>
+        <v>9.7733333333</v>
       </c>
       <c r="K148" t="n">
         <v>9.88</v>
@@ -64286,22 +64286,22 @@
         <v>10.47</v>
       </c>
       <c r="L150" t="n">
-        <v>10.3714285714286</v>
+        <v>10.3714285714</v>
       </c>
       <c r="M150" t="n">
-        <v>10.2728571428571</v>
+        <v>10.2728571429</v>
       </c>
       <c r="N150" t="n">
-        <v>10.1742857142857</v>
+        <v>10.1742857143</v>
       </c>
       <c r="O150" t="n">
-        <v>10.0757142857143</v>
+        <v>10.0757142857</v>
       </c>
       <c r="P150" t="n">
-        <v>9.97714285714286</v>
+        <v>9.9771428571</v>
       </c>
       <c r="Q150" t="n">
-        <v>9.87857142857143</v>
+        <v>9.8785714286</v>
       </c>
       <c r="R150" t="n">
         <v>9.78</v>
@@ -64334,10 +64334,10 @@
         <v>65.27</v>
       </c>
       <c r="G151" t="n">
-        <v>64.2033333333333</v>
+        <v>64.2033333333</v>
       </c>
       <c r="H151" t="n">
-        <v>63.1366666666667</v>
+        <v>63.1366666667</v>
       </c>
       <c r="I151" t="n">
         <v>62.07</v>
@@ -67216,7 +67216,7 @@
       </c>
       <c r="W60"/>
       <c r="X60" t="n">
-        <v>23.6294637885289</v>
+        <v>23.6294637885</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>
